--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Preferences" sheetId="6" r:id="rId3"/>
     <sheet name="SummarizedInformation" sheetId="1" r:id="rId4"/>
     <sheet name="Relations" sheetId="9" r:id="rId5"/>
+    <sheet name="Help" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="240">
   <si>
     <t>Type</t>
   </si>
@@ -650,9 +651,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>A04MQ|\source.label|\part.label|\prod.label|\animage.label</t>
-  </si>
-  <si>
     <t>Settings</t>
   </si>
   <si>
@@ -720,6 +718,27 @@
   </si>
   <si>
     <t>RELATION{Report, country.code}</t>
+  </si>
+  <si>
+    <t>htmlFilename</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>startupHelp.html</t>
+  </si>
+  <si>
+    <t>aggregated_level.html</t>
+  </si>
+  <si>
+    <t>main.html</t>
+  </si>
+  <si>
+    <t>naturalKey</t>
+  </si>
+  <si>
+    <t>A04MQ|\source.code|\part.code|\prod.code|\animage.code</t>
   </si>
 </sst>
 </file>
@@ -861,158 +880,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1566,6 +1439,175 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1650,103 +1692,107 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P6" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
-  <autoFilter ref="A1:P6"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="62"/>
-    <tableColumn id="2" name="code" dataDxfId="61"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="60"/>
-    <tableColumn id="4" name="label" dataDxfId="59"/>
-    <tableColumn id="5" name="tip" dataDxfId="58"/>
-    <tableColumn id="6" name="type" dataDxfId="57"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="56"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="55"/>
-    <tableColumn id="9" name="editable" dataDxfId="54"/>
-    <tableColumn id="10" name="visible" dataDxfId="53"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="52"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="51"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="50"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="49"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="48"/>
-    <tableColumn id="16" name="order" dataDxfId="47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q6" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A1:Q6"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="id" dataDxfId="65"/>
+    <tableColumn id="2" name="code" dataDxfId="64"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="63"/>
+    <tableColumn id="4" name="label" dataDxfId="62"/>
+    <tableColumn id="5" name="tip" dataDxfId="61"/>
+    <tableColumn id="6" name="type" dataDxfId="60"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="59"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="58"/>
+    <tableColumn id="9" name="editable" dataDxfId="57"/>
+    <tableColumn id="10" name="visible" dataDxfId="56"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="55"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="54"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="53"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="52"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="51"/>
+    <tableColumn id="16" name="order" dataDxfId="50"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:P4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:P4"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="code" dataDxfId="16"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="15"/>
-    <tableColumn id="4" name="label" dataDxfId="14"/>
-    <tableColumn id="5" name="tip" dataDxfId="13"/>
-    <tableColumn id="6" name="type" dataDxfId="12"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="11"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="10"/>
-    <tableColumn id="9" name="editable" dataDxfId="9"/>
-    <tableColumn id="10" name="visible" dataDxfId="8"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="7"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="6"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="5"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="4"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="3"/>
-    <tableColumn id="16" name="order" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:Q4" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:Q4"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="id" dataDxfId="46"/>
+    <tableColumn id="2" name="code" dataDxfId="45"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="44"/>
+    <tableColumn id="4" name="label" dataDxfId="43"/>
+    <tableColumn id="5" name="tip" dataDxfId="42"/>
+    <tableColumn id="6" name="type" dataDxfId="41"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="40"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="39"/>
+    <tableColumn id="9" name="editable" dataDxfId="38"/>
+    <tableColumn id="10" name="visible" dataDxfId="37"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="36"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="35"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="34"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="33"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="32"/>
+    <tableColumn id="16" name="order" dataDxfId="31"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:P8" totalsRowShown="0" headerRowDxfId="46">
-  <autoFilter ref="A1:P8"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:Q8"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="id" dataDxfId="28"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="44"/>
-    <tableColumn id="5" name="tip" dataDxfId="43"/>
-    <tableColumn id="6" name="type" dataDxfId="42"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="41"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="40"/>
-    <tableColumn id="9" name="editable" dataDxfId="39"/>
-    <tableColumn id="10" name="visible" dataDxfId="38"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="37"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="36"/>
+    <tableColumn id="4" name="label" dataDxfId="27"/>
+    <tableColumn id="5" name="tip" dataDxfId="26"/>
+    <tableColumn id="6" name="type" dataDxfId="25"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="24"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="23"/>
+    <tableColumn id="9" name="editable" dataDxfId="22"/>
+    <tableColumn id="10" name="visible" dataDxfId="21"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="20"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="19"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="13" name="defaultValue"/>
     <tableColumn id="14" name="putInOutput"/>
     <tableColumn id="15" name="order"/>
+    <tableColumn id="16" name="naturalKey"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P36" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:P36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q36"/>
   <sortState ref="A2:P33">
     <sortCondition ref="P1:P33"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="id" dataDxfId="33"/>
-    <tableColumn id="2" name="code" dataDxfId="32"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="31"/>
-    <tableColumn id="4" name="label" dataDxfId="30"/>
-    <tableColumn id="5" name="tip" dataDxfId="29"/>
-    <tableColumn id="6" name="type" dataDxfId="28"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="27"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="26"/>
-    <tableColumn id="9" name="editable" dataDxfId="25"/>
-    <tableColumn id="10" name="visible" dataDxfId="24"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="23"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="22"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="21"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="20"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="19"/>
-    <tableColumn id="15" name="order" dataDxfId="18"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="id" dataDxfId="16"/>
+    <tableColumn id="2" name="code" dataDxfId="15"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="14"/>
+    <tableColumn id="4" name="label" dataDxfId="13"/>
+    <tableColumn id="5" name="tip" dataDxfId="12"/>
+    <tableColumn id="6" name="type" dataDxfId="11"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="10"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="9"/>
+    <tableColumn id="9" name="editable" dataDxfId="8"/>
+    <tableColumn id="10" name="visible" dataDxfId="7"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="6"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="5"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="4"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="3"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="2"/>
+    <tableColumn id="15" name="order" dataDxfId="1"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1758,6 +1804,17 @@
   <tableColumns count="2">
     <tableColumn id="1" name="parentTable"/>
     <tableColumn id="2" name="childTable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="tableName"/>
+    <tableColumn id="2" name="htmlFilename"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2050,13 +2107,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2135,7 @@
     <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2127,8 +2184,11 @@
       <c r="P1" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
@@ -2171,8 +2231,11 @@
       <c r="P2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>201</v>
       </c>
@@ -2215,13 +2278,16 @@
       <c r="P3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2241,17 +2307,18 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -2280,19 +2347,22 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>207</v>
@@ -2315,13 +2385,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2412,7 @@
     <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2391,8 +2461,11 @@
       <c r="P1" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -2429,8 +2502,9 @@
       <c r="P2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>155</v>
       </c>
@@ -2467,20 +2541,21 @@
       <c r="P3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>208</v>
@@ -2505,6 +2580,7 @@
       <c r="P4" s="16">
         <v>3</v>
       </c>
+      <c r="Q4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,13 +2593,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2619,7 @@
     <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -2592,8 +2668,11 @@
       <c r="P1" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>132</v>
       </c>
@@ -2629,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>135</v>
       </c>
@@ -2668,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>138</v>
       </c>
@@ -2707,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
@@ -2746,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>144</v>
       </c>
@@ -2785,7 +2864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>147</v>
       </c>
@@ -2824,7 +2903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>150</v>
       </c>
@@ -2873,13 +2952,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,10 +2978,11 @@
     <col min="13" max="13" width="50.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="80.7109375" style="12" customWidth="1"/>
     <col min="15" max="15" width="20" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="12"/>
+    <col min="16" max="16" width="9.7109375" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2951,8 +3031,11 @@
       <c r="P1" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -2992,8 +3075,11 @@
       <c r="P2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
@@ -3039,8 +3125,11 @@
       <c r="P3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -3086,8 +3175,11 @@
       <c r="P4" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -3127,8 +3219,11 @@
       <c r="P5" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -3168,8 +3263,11 @@
       <c r="P6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
@@ -3212,8 +3310,11 @@
       <c r="P7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>102</v>
       </c>
@@ -3251,10 +3352,10 @@
         <v>180</v>
       </c>
       <c r="M8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>11</v>
@@ -3262,8 +3363,11 @@
       <c r="P8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -3301,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -3339,7 +3443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
@@ -3377,7 +3481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3415,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -3453,7 +3557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>11</v>
@@ -3494,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>107</v>
       </c>
@@ -3532,7 +3636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -3689,10 +3793,10 @@
         <v>4</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>11</v>
@@ -3724,10 +3828,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>11</v>
@@ -3759,10 +3863,10 @@
         <v>4</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>11</v>
@@ -3794,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>11</v>
@@ -3826,10 +3930,10 @@
         <v>4</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>11</v>
@@ -3896,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O26" s="12" t="s">
         <v>11</v>
@@ -3960,7 +4064,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>11</v>
@@ -4154,7 +4258,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>207</v>
@@ -4171,7 +4275,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>207</v>
@@ -4199,7 +4303,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,7 +4330,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>205</v>
@@ -4234,7 +4338,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>205</v>
@@ -4242,10 +4346,71 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="242">
   <si>
     <t>Type</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>A04MQ|\source.code|\part.code|\prod.code|\animage.code</t>
+  </si>
+  <si>
+    <t>codeFormula</t>
+  </si>
+  <si>
+    <t>labelFormula</t>
   </si>
 </sst>
 </file>
@@ -880,7 +886,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1692,75 +1732,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q6" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:Q6"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="id" dataDxfId="65"/>
-    <tableColumn id="2" name="code" dataDxfId="64"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="63"/>
-    <tableColumn id="4" name="label" dataDxfId="62"/>
-    <tableColumn id="5" name="tip" dataDxfId="61"/>
-    <tableColumn id="6" name="type" dataDxfId="60"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="59"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="58"/>
-    <tableColumn id="9" name="editable" dataDxfId="57"/>
-    <tableColumn id="10" name="visible" dataDxfId="56"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="55"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="54"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="53"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="52"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="51"/>
-    <tableColumn id="16" name="order" dataDxfId="50"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:S6"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="69"/>
+    <tableColumn id="2" name="code" dataDxfId="68"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="67"/>
+    <tableColumn id="4" name="label" dataDxfId="66"/>
+    <tableColumn id="5" name="tip" dataDxfId="65"/>
+    <tableColumn id="6" name="type" dataDxfId="64"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="63"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="62"/>
+    <tableColumn id="9" name="editable" dataDxfId="61"/>
+    <tableColumn id="10" name="visible" dataDxfId="60"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="59"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="58"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="57"/>
+    <tableColumn id="18" name="codeFormula"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="56"/>
+    <tableColumn id="19" name="labelFormula"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="55"/>
+    <tableColumn id="16" name="order" dataDxfId="54"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:Q4" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A1:Q4"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="id" dataDxfId="46"/>
-    <tableColumn id="2" name="code" dataDxfId="45"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="44"/>
-    <tableColumn id="4" name="label" dataDxfId="43"/>
-    <tableColumn id="5" name="tip" dataDxfId="42"/>
-    <tableColumn id="6" name="type" dataDxfId="41"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="40"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="39"/>
-    <tableColumn id="9" name="editable" dataDxfId="38"/>
-    <tableColumn id="10" name="visible" dataDxfId="37"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="36"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="35"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="34"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="33"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="32"/>
-    <tableColumn id="16" name="order" dataDxfId="31"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:S4"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="50"/>
+    <tableColumn id="2" name="code" dataDxfId="49"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="48"/>
+    <tableColumn id="4" name="label" dataDxfId="47"/>
+    <tableColumn id="5" name="tip" dataDxfId="46"/>
+    <tableColumn id="6" name="type" dataDxfId="45"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="44"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="43"/>
+    <tableColumn id="9" name="editable" dataDxfId="42"/>
+    <tableColumn id="10" name="visible" dataDxfId="41"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="40"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="39"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="38"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="1"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="37"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="0"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="36"/>
+    <tableColumn id="16" name="order" dataDxfId="35"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:Q8"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="id" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="A1:S8"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="32"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="27"/>
-    <tableColumn id="5" name="tip" dataDxfId="26"/>
-    <tableColumn id="6" name="type" dataDxfId="25"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="24"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="23"/>
-    <tableColumn id="9" name="editable" dataDxfId="22"/>
-    <tableColumn id="10" name="visible" dataDxfId="21"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="20"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="19"/>
+    <tableColumn id="4" name="label" dataDxfId="31"/>
+    <tableColumn id="5" name="tip" dataDxfId="30"/>
+    <tableColumn id="6" name="type" dataDxfId="29"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="28"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="27"/>
+    <tableColumn id="9" name="editable" dataDxfId="26"/>
+    <tableColumn id="10" name="visible" dataDxfId="25"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="24"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="23"/>
     <tableColumn id="12" name="defaultCode"/>
+    <tableColumn id="18" name="codeFormula"/>
     <tableColumn id="13" name="defaultValue"/>
+    <tableColumn id="19" name="labelFormula"/>
     <tableColumn id="14" name="putInOutput"/>
     <tableColumn id="15" name="order"/>
     <tableColumn id="16" name="naturalKey"/>
@@ -1770,29 +1816,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q36"/>
-  <sortState ref="A2:P33">
-    <sortCondition ref="P1:P33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:S36"/>
+  <sortState ref="A2:R33">
+    <sortCondition ref="R1:R33"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="id" dataDxfId="16"/>
-    <tableColumn id="2" name="code" dataDxfId="15"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="14"/>
-    <tableColumn id="4" name="label" dataDxfId="13"/>
-    <tableColumn id="5" name="tip" dataDxfId="12"/>
-    <tableColumn id="6" name="type" dataDxfId="11"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="10"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="9"/>
-    <tableColumn id="9" name="editable" dataDxfId="8"/>
-    <tableColumn id="10" name="visible" dataDxfId="7"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="6"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="5"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="4"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="3"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="2"/>
-    <tableColumn id="15" name="order" dataDxfId="1"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="0"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="20"/>
+    <tableColumn id="2" name="code" dataDxfId="19"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="18"/>
+    <tableColumn id="4" name="label" dataDxfId="17"/>
+    <tableColumn id="5" name="tip" dataDxfId="16"/>
+    <tableColumn id="6" name="type" dataDxfId="15"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="14"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="13"/>
+    <tableColumn id="9" name="editable" dataDxfId="12"/>
+    <tableColumn id="10" name="visible" dataDxfId="11"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="10"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="9"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="8"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="3"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="7"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="2"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="6"/>
+    <tableColumn id="15" name="order" dataDxfId="5"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2107,13 +2155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,12 +2178,14 @@
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2176,19 +2226,25 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
@@ -2224,18 +2280,20 @@
       <c r="M2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>201</v>
       </c>
@@ -2271,18 +2329,20 @@
       <c r="M3" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
@@ -2306,14 +2366,16 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>132</v>
       </c>
@@ -2346,21 +2408,23 @@
         <v>175</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>212</v>
       </c>
@@ -2385,13 +2449,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,12 +2471,12 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2453,19 +2517,25 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>154</v>
       </c>
@@ -2499,12 +2569,14 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="12">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="12">
         <v>1</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>155</v>
       </c>
@@ -2538,12 +2610,14 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>224</v>
       </c>
@@ -2577,10 +2651,12 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,13 +2669,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,12 +2690,12 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="13" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
@@ -2660,19 +2736,25 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>132</v>
       </c>
@@ -2704,11 +2786,11 @@
         <v>175</v>
       </c>
       <c r="L2" s="9"/>
-      <c r="P2">
+      <c r="R2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>135</v>
       </c>
@@ -2743,11 +2825,11 @@
       <c r="L3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>138</v>
       </c>
@@ -2782,11 +2864,11 @@
       <c r="L4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>141</v>
       </c>
@@ -2821,11 +2903,11 @@
       <c r="L5" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>144</v>
       </c>
@@ -2860,11 +2942,11 @@
       <c r="L6" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>147</v>
       </c>
@@ -2899,11 +2981,11 @@
       <c r="L7" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>150</v>
       </c>
@@ -2938,7 +3020,7 @@
       <c r="L8" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>7</v>
       </c>
     </row>
@@ -2952,13 +3034,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,14 +3057,14 @@
     <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="50.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="80.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="20" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="50.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="76.28515625" style="12" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -3023,19 +3105,25 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -3069,17 +3157,17 @@
       <c r="L2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="12">
+      <c r="R2" s="12">
         <v>1</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
@@ -3116,20 +3204,20 @@
       <c r="M3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="12">
+      <c r="R3" s="12">
         <v>2</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -3166,20 +3254,20 @@
       <c r="M4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="12">
+        <v>3</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -3213,17 +3301,17 @@
       <c r="L5" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="12">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -3257,17 +3345,17 @@
       <c r="L6" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="12">
         <v>5</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
@@ -3304,17 +3392,17 @@
       <c r="L7" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="12">
+      <c r="R7" s="12">
         <v>6</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>102</v>
       </c>
@@ -3340,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
@@ -3354,20 +3442,17 @@
       <c r="M8" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="Q8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="12">
         <v>7</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -3395,17 +3480,17 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="12">
+      <c r="O9" s="12">
         <v>0</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -3433,17 +3518,17 @@
       <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="12">
+      <c r="O10" s="12">
         <v>0</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="12">
+      <c r="R10" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
@@ -3471,17 +3556,17 @@
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="12">
+      <c r="O11" s="12">
         <v>0</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="12">
+      <c r="R11" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3509,17 +3594,17 @@
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -3547,17 +3632,17 @@
       <c r="J13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="12">
         <v>0</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="12">
+      <c r="R13" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -3588,17 +3673,17 @@
       <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="12">
+      <c r="Q14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>107</v>
       </c>
@@ -3626,17 +3711,20 @@
       <c r="K15" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="M15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="12">
+      <c r="R15" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -3664,14 +3752,14 @@
       <c r="M16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
@@ -3696,14 +3784,14 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
@@ -3728,14 +3816,14 @@
       <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -3760,14 +3848,14 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>48</v>
       </c>
@@ -3792,17 +3880,17 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -3827,17 +3915,17 @@
       <c r="J21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="O21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>53</v>
       </c>
@@ -3862,17 +3950,17 @@
       <c r="J22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>55</v>
       </c>
@@ -3897,14 +3985,14 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="P23" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
@@ -3929,17 +4017,17 @@
       <c r="J24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>61</v>
       </c>
@@ -3967,14 +4055,14 @@
       <c r="M25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="O25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O25" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>65</v>
       </c>
@@ -3999,14 +4087,14 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="P26" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>84</v>
       </c>
@@ -4031,14 +4119,14 @@
       <c r="J27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="P27" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O27" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>86</v>
       </c>
@@ -4063,14 +4151,14 @@
       <c r="J28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="P28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>88</v>
       </c>
@@ -4098,14 +4186,14 @@
       <c r="M29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>92</v>
       </c>
@@ -4133,14 +4221,14 @@
       <c r="M30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="O30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>96</v>
       </c>
@@ -4165,14 +4253,14 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="P31" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="O31" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>98</v>
       </c>
@@ -4200,14 +4288,14 @@
       <c r="M32" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="O32" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>106</v>
       </c>
@@ -4232,14 +4320,14 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="P33" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>206</v>
       </c>
@@ -4252,11 +4340,11 @@
       <c r="J34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>212</v>
       </c>
@@ -4269,11 +4357,11 @@
       <c r="J35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>213</v>
       </c>
@@ -4286,7 +4374,7 @@
       <c r="J36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="Q36" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="5" r:id="rId1"/>
     <sheet name="Settings" sheetId="8" r:id="rId2"/>
     <sheet name="Preferences" sheetId="6" r:id="rId3"/>
     <sheet name="SummarizedInformation" sheetId="1" r:id="rId4"/>
-    <sheet name="Relations" sheetId="9" r:id="rId5"/>
-    <sheet name="Help" sheetId="10" r:id="rId6"/>
+    <sheet name="CasesInformation" sheetId="11" r:id="rId5"/>
+    <sheet name="Relations" sheetId="9" r:id="rId6"/>
+    <sheet name="Help" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="277">
   <si>
     <t>Type</t>
   </si>
@@ -745,6 +746,111 @@
   </si>
   <si>
     <t>labelFormula</t>
+  </si>
+  <si>
+    <t>tseNationalCaseId</t>
+  </si>
+  <si>
+    <t>N.06</t>
+  </si>
+  <si>
+    <t>National case ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the case at country level</t>
+  </si>
+  <si>
+    <t>tseIndexCase</t>
+  </si>
+  <si>
+    <t>Index case</t>
+  </si>
+  <si>
+    <t>Is it an index case?</t>
+  </si>
+  <si>
+    <t>YESNO</t>
+  </si>
+  <si>
+    <t>indexCaseLists</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the sample at country level</t>
+  </si>
+  <si>
+    <t>animalId</t>
+  </si>
+  <si>
+    <t>C.05</t>
+  </si>
+  <si>
+    <t>Animal ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the animal at country level</t>
+  </si>
+  <si>
+    <t>herdId</t>
+  </si>
+  <si>
+    <t>Herd ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the flock/herd at country level</t>
+  </si>
+  <si>
+    <t>birthCountry</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>Country of birth of the animal</t>
+  </si>
+  <si>
+    <t>sampAnAsses</t>
+  </si>
+  <si>
+    <t>Case assessment</t>
+  </si>
+  <si>
+    <t>Final evaluation of the case after discriminatory testing</t>
+  </si>
+  <si>
+    <t>assessmentLists</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.label}</t>
+  </si>
+  <si>
+    <t>sampArea</t>
+  </si>
+  <si>
+    <t>D.04</t>
+  </si>
+  <si>
+    <t>Sampling area</t>
+  </si>
+  <si>
+    <t>Area of sampling</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>sampAreaLists</t>
+  </si>
+  <si>
+    <t>RELATION{Report,country.code}</t>
+  </si>
+  <si>
+    <t>SummarizedInformationId</t>
+  </si>
+  <si>
+    <t>CasesInformation</t>
   </si>
 </sst>
 </file>
@@ -886,7 +992,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="94">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -896,6 +1002,16 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -917,6 +1033,15 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
@@ -954,6 +1079,167 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1446,7 +1732,23 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1732,77 +2034,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:S6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="69"/>
-    <tableColumn id="2" name="code" dataDxfId="68"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="67"/>
-    <tableColumn id="4" name="label" dataDxfId="66"/>
-    <tableColumn id="5" name="tip" dataDxfId="65"/>
-    <tableColumn id="6" name="type" dataDxfId="64"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="63"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="62"/>
-    <tableColumn id="9" name="editable" dataDxfId="61"/>
-    <tableColumn id="10" name="visible" dataDxfId="60"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="59"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="58"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="57"/>
+    <tableColumn id="1" name="id" dataDxfId="91"/>
+    <tableColumn id="2" name="code" dataDxfId="90"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="89"/>
+    <tableColumn id="4" name="label" dataDxfId="88"/>
+    <tableColumn id="5" name="tip" dataDxfId="87"/>
+    <tableColumn id="6" name="type" dataDxfId="86"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="85"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="84"/>
+    <tableColumn id="9" name="editable" dataDxfId="83"/>
+    <tableColumn id="10" name="visible" dataDxfId="82"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="81"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="80"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="79"/>
     <tableColumn id="18" name="codeFormula"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="56"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="78"/>
     <tableColumn id="19" name="labelFormula"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="55"/>
-    <tableColumn id="16" name="order" dataDxfId="54"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="53"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="77"/>
+    <tableColumn id="16" name="order" dataDxfId="76"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="50"/>
-    <tableColumn id="2" name="code" dataDxfId="49"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="48"/>
-    <tableColumn id="4" name="label" dataDxfId="47"/>
-    <tableColumn id="5" name="tip" dataDxfId="46"/>
-    <tableColumn id="6" name="type" dataDxfId="45"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="44"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="43"/>
-    <tableColumn id="9" name="editable" dataDxfId="42"/>
-    <tableColumn id="10" name="visible" dataDxfId="41"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="40"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="39"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="38"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="1"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="37"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="0"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="36"/>
-    <tableColumn id="16" name="order" dataDxfId="35"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="34"/>
+    <tableColumn id="1" name="id" dataDxfId="72"/>
+    <tableColumn id="2" name="code" dataDxfId="71"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="70"/>
+    <tableColumn id="4" name="label" dataDxfId="69"/>
+    <tableColumn id="5" name="tip" dataDxfId="68"/>
+    <tableColumn id="6" name="type" dataDxfId="67"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="66"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="65"/>
+    <tableColumn id="9" name="editable" dataDxfId="64"/>
+    <tableColumn id="10" name="visible" dataDxfId="63"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="62"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="61"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="60"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="59"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="58"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="57"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="56"/>
+    <tableColumn id="16" name="order" dataDxfId="55"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="A1:S8"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="32"/>
+    <tableColumn id="1" name="id" dataDxfId="52"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="31"/>
-    <tableColumn id="5" name="tip" dataDxfId="30"/>
-    <tableColumn id="6" name="type" dataDxfId="29"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="28"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="27"/>
-    <tableColumn id="9" name="editable" dataDxfId="26"/>
-    <tableColumn id="10" name="visible" dataDxfId="25"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="24"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="23"/>
+    <tableColumn id="4" name="label" dataDxfId="51"/>
+    <tableColumn id="5" name="tip" dataDxfId="50"/>
+    <tableColumn id="6" name="type" dataDxfId="49"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="48"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="47"/>
+    <tableColumn id="9" name="editable" dataDxfId="46"/>
+    <tableColumn id="10" name="visible" dataDxfId="45"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="44"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="43"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="18" name="codeFormula"/>
     <tableColumn id="13" name="defaultValue"/>
@@ -1816,48 +2118,79 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:S36"/>
   <sortState ref="A2:R33">
     <sortCondition ref="R1:R33"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="20"/>
-    <tableColumn id="2" name="code" dataDxfId="19"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="18"/>
-    <tableColumn id="4" name="label" dataDxfId="17"/>
-    <tableColumn id="5" name="tip" dataDxfId="16"/>
-    <tableColumn id="6" name="type" dataDxfId="15"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="14"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="13"/>
-    <tableColumn id="9" name="editable" dataDxfId="12"/>
-    <tableColumn id="10" name="visible" dataDxfId="11"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="10"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="9"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="8"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="3"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="7"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="2"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="6"/>
-    <tableColumn id="15" name="order" dataDxfId="5"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="4"/>
+    <tableColumn id="1" name="id" dataDxfId="40"/>
+    <tableColumn id="2" name="code" dataDxfId="39"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="38"/>
+    <tableColumn id="4" name="label" dataDxfId="37"/>
+    <tableColumn id="5" name="tip" dataDxfId="36"/>
+    <tableColumn id="6" name="type" dataDxfId="35"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="34"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="33"/>
+    <tableColumn id="9" name="editable" dataDxfId="32"/>
+    <tableColumn id="10" name="visible" dataDxfId="31"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="30"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="29"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="28"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="27"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="26"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="25"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="24"/>
+    <tableColumn id="15" name="order" dataDxfId="23"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="parentTable"/>
-    <tableColumn id="2" name="childTable"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:S11"/>
+  <sortState ref="A2:R33">
+    <sortCondition ref="R1:R33"/>
+  </sortState>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="19"/>
+    <tableColumn id="2" name="code" dataDxfId="18"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="17"/>
+    <tableColumn id="4" name="label" dataDxfId="16"/>
+    <tableColumn id="5" name="tip" dataDxfId="15"/>
+    <tableColumn id="6" name="type" dataDxfId="14"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="13"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="12"/>
+    <tableColumn id="9" name="editable" dataDxfId="11"/>
+    <tableColumn id="10" name="visible" dataDxfId="10"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="9"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="8"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="7"/>
+    <tableColumn id="17" name="codeFormula" dataDxfId="3"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="6"/>
+    <tableColumn id="18" name="labelFormula" dataDxfId="2"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="5"/>
+    <tableColumn id="15" name="order" dataDxfId="4"/>
+    <tableColumn id="19" name="naturalKey" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="parentTable"/>
+    <tableColumn id="2" name="childTable" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
@@ -3036,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
@@ -4388,10 +4721,420 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="12" customWidth="1"/>
+    <col min="15" max="16" width="22.85546875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="20" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,24 +5155,24 @@
       <c r="A2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>205</v>
+      <c r="B3" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +5180,23 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4448,7 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -12,15 +12,16 @@
     <sheet name="Preferences" sheetId="6" r:id="rId3"/>
     <sheet name="SummarizedInformation" sheetId="1" r:id="rId4"/>
     <sheet name="CasesInformation" sheetId="11" r:id="rId5"/>
-    <sheet name="Relations" sheetId="9" r:id="rId6"/>
-    <sheet name="Help" sheetId="10" r:id="rId7"/>
+    <sheet name="AnalyticalResults" sheetId="12" r:id="rId6"/>
+    <sheet name="Relations" sheetId="9" r:id="rId7"/>
+    <sheet name="Help" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="304">
   <si>
     <t>Type</t>
   </si>
@@ -664,193 +665,274 @@
     <t>SettingsId</t>
   </si>
   <si>
+    <t>RELATION{Preferences, country.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, defScreening\type.code.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, defScreening\type.code.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportYear.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportMonth.label}</t>
+  </si>
+  <si>
+    <t>\repYear.label</t>
+  </si>
+  <si>
+    <t>END_TRIM(\repYear.code, 2)|END_TRIM(ZERO_PADDING(\sampM.code,2), 2)|_ZERO_PADDING({rowId},4)</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportMonth.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportYear.code}</t>
+  </si>
+  <si>
+    <t>orgCode</t>
+  </si>
+  <si>
+    <t>Organisation code</t>
+  </si>
+  <si>
+    <t>organisationCode</t>
+  </si>
+  <si>
+    <t>The organisation code used for sending reports</t>
+  </si>
+  <si>
+    <t>reportSenderId</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, country.code}|END_TRIM(\reportYear.code, 2)|END_TRIM(ZERO_PADDING(\reportMonth.code,2), 2)</t>
+  </si>
+  <si>
+    <t>reportCountry</t>
+  </si>
+  <si>
+    <t>RELATION{Report, country.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, country.code}</t>
+  </si>
+  <si>
+    <t>htmlFilename</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>startupHelp.html</t>
+  </si>
+  <si>
+    <t>aggregated_level.html</t>
+  </si>
+  <si>
+    <t>main.html</t>
+  </si>
+  <si>
+    <t>naturalKey</t>
+  </si>
+  <si>
+    <t>A04MQ|\source.code|\part.code|\prod.code|\animage.code</t>
+  </si>
+  <si>
+    <t>codeFormula</t>
+  </si>
+  <si>
+    <t>labelFormula</t>
+  </si>
+  <si>
+    <t>tseNationalCaseId</t>
+  </si>
+  <si>
+    <t>N.06</t>
+  </si>
+  <si>
+    <t>National case ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the case at country level</t>
+  </si>
+  <si>
+    <t>tseIndexCase</t>
+  </si>
+  <si>
+    <t>Index case</t>
+  </si>
+  <si>
+    <t>Is it an index case?</t>
+  </si>
+  <si>
+    <t>YESNO</t>
+  </si>
+  <si>
+    <t>indexCaseLists</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the sample at country level</t>
+  </si>
+  <si>
+    <t>animalId</t>
+  </si>
+  <si>
+    <t>C.05</t>
+  </si>
+  <si>
+    <t>Animal ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the animal at country level</t>
+  </si>
+  <si>
+    <t>herdId</t>
+  </si>
+  <si>
+    <t>Herd ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the flock/herd at country level</t>
+  </si>
+  <si>
+    <t>birthCountry</t>
+  </si>
+  <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
+    <t>Country of birth of the animal</t>
+  </si>
+  <si>
+    <t>sampAnAsses</t>
+  </si>
+  <si>
+    <t>Case assessment</t>
+  </si>
+  <si>
+    <t>Final evaluation of the case after discriminatory testing</t>
+  </si>
+  <si>
+    <t>assessmentLists</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.label}</t>
+  </si>
+  <si>
+    <t>sampArea</t>
+  </si>
+  <si>
+    <t>D.04</t>
+  </si>
+  <si>
+    <t>Sampling area</t>
+  </si>
+  <si>
+    <t>Area of sampling</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>sampAreaLists</t>
+  </si>
+  <si>
+    <t>RELATION{Report,country.code}</t>
+  </si>
+  <si>
+    <t>SummarizedInformationId</t>
+  </si>
+  <si>
+    <t>CasesInformation</t>
+  </si>
+  <si>
     <t>RELATION{Preferences, country.label}</t>
   </si>
   <si>
-    <t>RELATION{Preferences, country.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, defScreening\type.code.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, defScreening\type.code.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportYear.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportMonth.label}</t>
-  </si>
-  <si>
-    <t>\repYear.label</t>
-  </si>
-  <si>
-    <t>END_TRIM(\repYear.code, 2)|END_TRIM(ZERO_PADDING(\sampM.code,2), 2)|_ZERO_PADDING({rowId},4)</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportMonth.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportYear.code}</t>
-  </si>
-  <si>
-    <t>orgCode</t>
-  </si>
-  <si>
-    <t>Organisation code</t>
-  </si>
-  <si>
-    <t>organisationCode</t>
-  </si>
-  <si>
-    <t>The organisation code used for sending reports</t>
-  </si>
-  <si>
-    <t>reportSenderId</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, country.code}|END_TRIM(\reportYear.code, 2)|END_TRIM(ZERO_PADDING(\reportMonth.code,2), 2)</t>
-  </si>
-  <si>
-    <t>reportCountry</t>
-  </si>
-  <si>
-    <t>RELATION{Report, country.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, country.code}</t>
-  </si>
-  <si>
-    <t>htmlFilename</t>
-  </si>
-  <si>
-    <t>tableName</t>
-  </si>
-  <si>
-    <t>startupHelp.html</t>
-  </si>
-  <si>
-    <t>aggregated_level.html</t>
-  </si>
-  <si>
-    <t>main.html</t>
-  </si>
-  <si>
-    <t>naturalKey</t>
-  </si>
-  <si>
-    <t>A04MQ|\source.code|\part.code|\prod.code|\animage.code</t>
-  </si>
-  <si>
-    <t>codeFormula</t>
-  </si>
-  <si>
-    <t>labelFormula</t>
-  </si>
-  <si>
-    <t>tseNationalCaseId</t>
-  </si>
-  <si>
-    <t>N.06</t>
-  </si>
-  <si>
-    <t>National case ID</t>
-  </si>
-  <si>
-    <t>Id univocally assigned to the case at country level</t>
-  </si>
-  <si>
-    <t>tseIndexCase</t>
-  </si>
-  <si>
-    <t>Index case</t>
-  </si>
-  <si>
-    <t>Is it an index case?</t>
-  </si>
-  <si>
-    <t>YESNO</t>
-  </si>
-  <si>
-    <t>indexCaseLists</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
-    <t>Id univocally assigned to the sample at country level</t>
-  </si>
-  <si>
-    <t>animalId</t>
-  </si>
-  <si>
-    <t>C.05</t>
-  </si>
-  <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
-    <t>Id univocally assigned to the animal at country level</t>
-  </si>
-  <si>
-    <t>herdId</t>
-  </si>
-  <si>
-    <t>Herd ID</t>
-  </si>
-  <si>
-    <t>Id univocally assigned to the flock/herd at country level</t>
-  </si>
-  <si>
-    <t>birthCountry</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>Country of birth of the animal</t>
-  </si>
-  <si>
-    <t>sampAnAsses</t>
-  </si>
-  <si>
-    <t>Case assessment</t>
-  </si>
-  <si>
-    <t>Final evaluation of the case after discriminatory testing</t>
-  </si>
-  <si>
-    <t>assessmentLists</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.label}</t>
-  </si>
-  <si>
-    <t>sampArea</t>
-  </si>
-  <si>
-    <t>D.04</t>
-  </si>
-  <si>
-    <t>Sampling area</t>
-  </si>
-  <si>
-    <t>Area of sampling</t>
-  </si>
-  <si>
-    <t>NUTS</t>
-  </si>
-  <si>
-    <t>sampAreaLists</t>
-  </si>
-  <si>
-    <t>RELATION{Report,country.code}</t>
-  </si>
-  <si>
-    <t>SummarizedInformationId</t>
-  </si>
-  <si>
-    <t>CasesInformation</t>
+    <t>RELATION{SummarizedInformation,progId.label}</t>
+  </si>
+  <si>
+    <t>tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.\animalId.label</t>
+  </si>
+  <si>
+    <t>sampUnitIds</t>
+  </si>
+  <si>
+    <t>animalId=\animalId|IF_NOT_NULL(herdId,$herdId=\herdId.label,)</t>
+  </si>
+  <si>
+    <t>birthCountry=\birthCountry|IF_NOT_NULL(statusHerd,$statusHerd=\statusHerd.label,)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,sampMatCode.label}</t>
+  </si>
+  <si>
+    <t>\sampId.label</t>
+  </si>
+  <si>
+    <t>Year of analysis</t>
+  </si>
+  <si>
+    <t>Year in whcih the samples has been analysed</t>
+  </si>
+  <si>
+    <t>analysisM</t>
+  </si>
+  <si>
+    <t>F.04</t>
+  </si>
+  <si>
+    <t>Month of analysis</t>
+  </si>
+  <si>
+    <t>Month in whcih the samples has been analysed</t>
+  </si>
+  <si>
+    <t>P001A</t>
+  </si>
+  <si>
+    <t>evalInfo</t>
+  </si>
+  <si>
+    <t>tseNationalCaseId=\tseNationalCaseId$tseIndexCase=\tseIndexCase$sampAnAsses=\sampAnAsses</t>
+  </si>
+  <si>
+    <t>CasesInformationId</t>
+  </si>
+  <si>
+    <t>AnalyticalResults</t>
+  </si>
+  <si>
+    <t>directRelation</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,tseNationalCaseId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,tseNationalCaseId.code}</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,sampAnAsses.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, anMethCode.code}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, anMethCode.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, type.code}</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1074,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="114">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1005,7 +1087,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1024,15 +1115,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1052,6 +1134,185 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,77 +2295,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:S6"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="91"/>
-    <tableColumn id="2" name="code" dataDxfId="90"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="89"/>
-    <tableColumn id="4" name="label" dataDxfId="88"/>
-    <tableColumn id="5" name="tip" dataDxfId="87"/>
-    <tableColumn id="6" name="type" dataDxfId="86"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="85"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="84"/>
-    <tableColumn id="9" name="editable" dataDxfId="83"/>
-    <tableColumn id="10" name="visible" dataDxfId="82"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="81"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="80"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="79"/>
+    <tableColumn id="1" name="id" dataDxfId="111"/>
+    <tableColumn id="2" name="code" dataDxfId="110"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="109"/>
+    <tableColumn id="4" name="label" dataDxfId="108"/>
+    <tableColumn id="5" name="tip" dataDxfId="107"/>
+    <tableColumn id="6" name="type" dataDxfId="106"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="105"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="104"/>
+    <tableColumn id="9" name="editable" dataDxfId="103"/>
+    <tableColumn id="10" name="visible" dataDxfId="102"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="101"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="100"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="99"/>
     <tableColumn id="18" name="codeFormula"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="78"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="98"/>
     <tableColumn id="19" name="labelFormula"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="77"/>
-    <tableColumn id="16" name="order" dataDxfId="76"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="75"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="97"/>
+    <tableColumn id="16" name="order" dataDxfId="96"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="72"/>
-    <tableColumn id="2" name="code" dataDxfId="71"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="70"/>
-    <tableColumn id="4" name="label" dataDxfId="69"/>
-    <tableColumn id="5" name="tip" dataDxfId="68"/>
-    <tableColumn id="6" name="type" dataDxfId="67"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="66"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="65"/>
-    <tableColumn id="9" name="editable" dataDxfId="64"/>
-    <tableColumn id="10" name="visible" dataDxfId="63"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="62"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="61"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="60"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="59"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="58"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="57"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="56"/>
-    <tableColumn id="16" name="order" dataDxfId="55"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="54"/>
+    <tableColumn id="1" name="id" dataDxfId="92"/>
+    <tableColumn id="2" name="code" dataDxfId="91"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="90"/>
+    <tableColumn id="4" name="label" dataDxfId="89"/>
+    <tableColumn id="5" name="tip" dataDxfId="88"/>
+    <tableColumn id="6" name="type" dataDxfId="87"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="86"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="85"/>
+    <tableColumn id="9" name="editable" dataDxfId="84"/>
+    <tableColumn id="10" name="visible" dataDxfId="83"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="82"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="81"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="80"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="79"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="78"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="77"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="76"/>
+    <tableColumn id="16" name="order" dataDxfId="75"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="73">
   <autoFilter ref="A1:S8"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="52"/>
+    <tableColumn id="1" name="id" dataDxfId="72"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="51"/>
-    <tableColumn id="5" name="tip" dataDxfId="50"/>
-    <tableColumn id="6" name="type" dataDxfId="49"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="48"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="47"/>
-    <tableColumn id="9" name="editable" dataDxfId="46"/>
-    <tableColumn id="10" name="visible" dataDxfId="45"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="44"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="43"/>
+    <tableColumn id="4" name="label" dataDxfId="71"/>
+    <tableColumn id="5" name="tip" dataDxfId="70"/>
+    <tableColumn id="6" name="type" dataDxfId="69"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="68"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="67"/>
+    <tableColumn id="9" name="editable" dataDxfId="66"/>
+    <tableColumn id="10" name="visible" dataDxfId="65"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="64"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="63"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="18" name="codeFormula"/>
     <tableColumn id="13" name="defaultValue"/>
@@ -2118,79 +2379,110 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:S36"/>
   <sortState ref="A2:R33">
     <sortCondition ref="R1:R33"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="40"/>
-    <tableColumn id="2" name="code" dataDxfId="39"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="38"/>
-    <tableColumn id="4" name="label" dataDxfId="37"/>
-    <tableColumn id="5" name="tip" dataDxfId="36"/>
-    <tableColumn id="6" name="type" dataDxfId="35"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="34"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="33"/>
-    <tableColumn id="9" name="editable" dataDxfId="32"/>
-    <tableColumn id="10" name="visible" dataDxfId="31"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="30"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="29"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="28"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="27"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="26"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="25"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="24"/>
-    <tableColumn id="15" name="order" dataDxfId="23"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="22"/>
+    <tableColumn id="1" name="id" dataDxfId="60"/>
+    <tableColumn id="2" name="code" dataDxfId="59"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="58"/>
+    <tableColumn id="4" name="label" dataDxfId="57"/>
+    <tableColumn id="5" name="tip" dataDxfId="56"/>
+    <tableColumn id="6" name="type" dataDxfId="55"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="54"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="53"/>
+    <tableColumn id="9" name="editable" dataDxfId="52"/>
+    <tableColumn id="10" name="visible" dataDxfId="51"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="50"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="49"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="48"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="47"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="46"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="45"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="44"/>
+    <tableColumn id="15" name="order" dataDxfId="43"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:S11"/>
   <sortState ref="A2:R33">
     <sortCondition ref="R1:R33"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="19"/>
-    <tableColumn id="2" name="code" dataDxfId="18"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="17"/>
-    <tableColumn id="4" name="label" dataDxfId="16"/>
-    <tableColumn id="5" name="tip" dataDxfId="15"/>
-    <tableColumn id="6" name="type" dataDxfId="14"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="13"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="12"/>
-    <tableColumn id="9" name="editable" dataDxfId="11"/>
-    <tableColumn id="10" name="visible" dataDxfId="10"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="9"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="8"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="7"/>
-    <tableColumn id="17" name="codeFormula" dataDxfId="3"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="6"/>
-    <tableColumn id="18" name="labelFormula" dataDxfId="2"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="5"/>
-    <tableColumn id="15" name="order" dataDxfId="4"/>
-    <tableColumn id="19" name="naturalKey" dataDxfId="1"/>
+    <tableColumn id="1" name="id" dataDxfId="39"/>
+    <tableColumn id="2" name="code" dataDxfId="38"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="37"/>
+    <tableColumn id="4" name="label" dataDxfId="36"/>
+    <tableColumn id="5" name="tip" dataDxfId="35"/>
+    <tableColumn id="6" name="type" dataDxfId="34"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="33"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="32"/>
+    <tableColumn id="9" name="editable" dataDxfId="31"/>
+    <tableColumn id="10" name="visible" dataDxfId="30"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="29"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="28"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="27"/>
+    <tableColumn id="17" name="codeFormula" dataDxfId="26"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="25"/>
+    <tableColumn id="18" name="labelFormula" dataDxfId="24"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="23"/>
+    <tableColumn id="15" name="order" dataDxfId="22"/>
+    <tableColumn id="19" name="naturalKey" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="parentTable"/>
-    <tableColumn id="2" name="childTable" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table257" displayName="Table257" ref="A1:R36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:R36"/>
+  <sortState ref="A2:P44">
+    <sortCondition ref="B1:B44"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" name="id" dataDxfId="18"/>
+    <tableColumn id="2" name="code" dataDxfId="17"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="16"/>
+    <tableColumn id="4" name="label" dataDxfId="15"/>
+    <tableColumn id="5" name="tip" dataDxfId="14"/>
+    <tableColumn id="6" name="type" dataDxfId="13"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="12"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="11"/>
+    <tableColumn id="9" name="editable" dataDxfId="10"/>
+    <tableColumn id="10" name="visible" dataDxfId="9"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="8"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="7"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="6"/>
+    <tableColumn id="17" name="codeFormula" dataDxfId="5"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="4"/>
+    <tableColumn id="18" name="labelFormula" dataDxfId="3"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="2"/>
+    <tableColumn id="15" name="order" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="parentTable"/>
+    <tableColumn id="2" name="childTable" dataDxfId="0"/>
+    <tableColumn id="3" name="directRelation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
@@ -2491,10 +2783,10 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,13 +2851,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -2574,7 +2866,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2677,10 +2969,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2698,11 +2990,10 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12" t="s">
-        <v>229</v>
+      <c r="O4" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -2713,7 +3004,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -2741,14 +3032,13 @@
         <v>175</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>214</v>
       </c>
+      <c r="O5" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16">
         <v>3</v>
@@ -2850,13 +3140,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -2865,7 +3155,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,17 +3242,17 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>208</v>
@@ -3069,13 +3359,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
@@ -3084,7 +3374,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3370,10 +3660,10 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,13 +3728,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3453,7 +3743,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3773,10 +4063,10 @@
         <v>180</v>
       </c>
       <c r="M8" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4007,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -4214,10 +4504,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -4249,10 +4539,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -4284,10 +4574,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -4319,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -4351,10 +4641,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -4421,7 +4711,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -4485,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -4792,13 +5082,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -4807,21 +5097,21 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
         <v>242</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>208</v>
@@ -4841,34 +5131,34 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4885,10 +5175,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>208</v>
@@ -4908,16 +5198,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>208</v>
@@ -4937,16 +5227,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>208</v>
@@ -4966,16 +5256,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -5006,16 +5296,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -5033,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -5047,37 +5337,37 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -5088,7 +5378,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>207</v>
@@ -5131,72 +5421,1192 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="12" customWidth="1"/>
+    <col min="12" max="12" width="46.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="20" style="12" customWidth="1"/>
+    <col min="16" max="16" width="88.28515625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5208,6 +6618,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5222,10 +6764,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5233,7 +6775,7 @@
         <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5241,7 +6783,7 @@
         <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5249,7 +6791,7 @@
         <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5257,7 +6799,7 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="5" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="CasesInformation" sheetId="11" r:id="rId5"/>
     <sheet name="AnalyticalResults" sheetId="12" r:id="rId6"/>
     <sheet name="Relations" sheetId="9" r:id="rId7"/>
-    <sheet name="Help" sheetId="10" r:id="rId8"/>
+    <sheet name="Tables" sheetId="10" r:id="rId8"/>
+    <sheet name="MessageConfig" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="317">
   <si>
     <t>Type</t>
   </si>
@@ -725,15 +726,9 @@
     <t>tableName</t>
   </si>
   <si>
-    <t>startupHelp.html</t>
-  </si>
-  <si>
     <t>aggregated_level.html</t>
   </si>
   <si>
-    <t>main.html</t>
-  </si>
-  <si>
     <t>naturalKey</t>
   </si>
   <si>
@@ -854,27 +849,9 @@
     <t>RELATION{Preferences, country.label}</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,progId.label}</t>
-  </si>
-  <si>
-    <t>tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.\animalId.label</t>
-  </si>
-  <si>
     <t>sampUnitIds</t>
   </si>
   <si>
-    <t>animalId=\animalId|IF_NOT_NULL(herdId,$herdId=\herdId.label,)</t>
-  </si>
-  <si>
-    <t>birthCountry=\birthCountry|IF_NOT_NULL(statusHerd,$statusHerd=\statusHerd.label,)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,sampMatCode.label}</t>
-  </si>
-  <si>
     <t>\sampId.label</t>
   </si>
   <si>
@@ -902,9 +879,6 @@
     <t>evalInfo</t>
   </si>
   <si>
-    <t>tseNationalCaseId=\tseNationalCaseId$tseIndexCase=\tseIndexCase$sampAnAsses=\sampAnAsses</t>
-  </si>
-  <si>
     <t>CasesInformationId</t>
   </si>
   <si>
@@ -914,18 +888,6 @@
     <t>directRelation</t>
   </si>
   <si>
-    <t>tes</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation,tseNationalCaseId.label}</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation,tseNationalCaseId.code}</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation,sampAnAsses.label}</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation, anMethCode.code}</t>
   </si>
   <si>
@@ -933,6 +895,84 @@
   </si>
   <si>
     <t>RELATION{SummarizedInformation, type.code}</t>
+  </si>
+  <si>
+    <t>tseNationalCaseId=\tseNationalCaseId.label$tseIndexCase=\tseIndexCase.label$sampAnAsses=\sampAnAsses.label</t>
+  </si>
+  <si>
+    <t>generateRecord</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, progId.label}|.\animalId.label</t>
+  </si>
+  <si>
+    <t>tseTargetGroup=RELATION{SummarizedInformation, tseTargetGroup.code}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, progId.label}</t>
+  </si>
+  <si>
+    <t>animalId=\animalId.code|IF_NOT_NULL(herdId, $herdId=\herdId.label, )</t>
+  </si>
+  <si>
+    <t>birthCountry=\birthCountry.code|IF_NOT_NULL(statusHerd, $statusHerd=\statusHerd.label, )</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation, sampMatCode.label}</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation, tseNationalCaseId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation, tseNationalCaseId.code}</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation, sampAnAsses.label}</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>dcfmsg</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>senderMessageId</t>
+  </si>
+  <si>
+    <t>senderOrgCode</t>
+  </si>
+  <si>
+    <t>receiverOrgCode</t>
+  </si>
+  <si>
+    <t>EFSA</t>
+  </si>
+  <si>
+    <t>senderDatasetId</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportSenderId.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Settings, orgCode.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportSenderId.code}|today.timestamp</t>
+  </si>
+  <si>
+    <t>putInHeader</t>
+  </si>
+  <si>
+    <t>putInOperation</t>
+  </si>
+  <si>
+    <t>isDatasetRoot</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1070,6 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2483,11 +2524,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="tableName"/>
     <tableColumn id="2" name="htmlFilename"/>
+    <tableColumn id="3" name="generateRecord"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="xmlTag"/>
+    <tableColumn id="2" name="value"/>
+    <tableColumn id="3" name="putInHeader"/>
+    <tableColumn id="4" name="putInOperation"/>
+    <tableColumn id="5" name="isDatasetRoot"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2786,7 +2842,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,13 +2907,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -2866,7 +2922,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3036,7 +3092,7 @@
         <v>214</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -3140,13 +3196,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3155,7 +3211,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3359,13 +3415,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
@@ -3374,7 +3430,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3660,10 +3716,10 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,13 +3784,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3743,7 +3799,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4711,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5017,7 +5073,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,13 +5138,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5097,21 +5153,21 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>208</v>
@@ -5131,22 +5187,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -5158,7 +5214,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -5175,10 +5231,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>208</v>
@@ -5198,16 +5254,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>208</v>
@@ -5227,16 +5283,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>208</v>
@@ -5256,16 +5312,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -5296,16 +5352,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="B8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -5323,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -5337,37 +5393,37 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -5378,7 +5434,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>207</v>
@@ -5423,11 +5479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,13 +5548,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5536,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -5603,7 +5659,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -5635,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -5643,13 +5699,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>208</v>
@@ -5667,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -5675,13 +5731,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>208</v>
@@ -5704,13 +5760,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>208</v>
@@ -5751,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -5791,13 +5847,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
@@ -5829,10 +5885,10 @@
         <v>45</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>208</v>
@@ -5925,22 +5981,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
@@ -5952,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -6127,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -6159,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -6176,10 +6232,10 @@
         <v>86</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>209</v>
@@ -6214,19 +6270,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>209</v>
@@ -6285,10 +6341,10 @@
         <v>4</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -6431,13 +6487,13 @@
         <v>123</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -6477,13 +6533,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -6492,7 +6548,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -6500,10 +6556,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -6512,7 +6568,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>5</v>
@@ -6520,10 +6576,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -6532,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>5</v>
@@ -6540,10 +6596,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -6552,7 +6608,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -6560,7 +6616,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>207</v>
@@ -6577,7 +6633,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>207</v>
@@ -6622,7 +6678,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,7 +6695,7 @@
         <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6647,7 +6703,7 @@
         <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -6658,7 +6714,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -6710,13 +6766,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6724,7 +6780,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -6735,7 +6791,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -6751,55 +6807,208 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>211</v>
       </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>312</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="5" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="AnalyticalResults" sheetId="12" r:id="rId6"/>
     <sheet name="Relations" sheetId="9" r:id="rId7"/>
     <sheet name="Tables" sheetId="10" r:id="rId8"/>
-    <sheet name="MessageConfig" sheetId="13" r:id="rId9"/>
+    <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="321">
   <si>
     <t>Type</t>
   </si>
@@ -651,9 +651,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>Settings</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
     <t>reportSenderId</t>
   </si>
   <si>
-    <t>RELATION{Preferences, country.code}|END_TRIM(\reportYear.code, 2)|END_TRIM(ZERO_PADDING(\reportMonth.code,2), 2)</t>
-  </si>
-  <si>
     <t>reportCountry</t>
   </si>
   <si>
@@ -930,9 +924,6 @@
     <t>RELATION{CasesInformation, sampAnAsses.label}</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>dcfmsg</t>
   </si>
   <si>
@@ -966,13 +957,34 @@
     <t>RELATION{Report, reportSenderId.code}|today.timestamp</t>
   </si>
   <si>
-    <t>putInHeader</t>
-  </si>
-  <si>
-    <t>putInOperation</t>
-  </si>
-  <si>
-    <t>isDatasetRoot</t>
+    <t>header</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>MessageConfig</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportSenderId.label}|today.timestamp</t>
+  </si>
+  <si>
+    <t>RELATION{Report, reportSenderId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences, country.code}|END_TRIM(lastMonth.year.code, 2)|END_TRIM(ZERO_PADDING(lastMonth.code, 2), 2)</t>
+  </si>
+  <si>
+    <t>u_integer</t>
+  </si>
+  <si>
+    <t>keepVersion</t>
+  </si>
+  <si>
+    <t>ReportVersion</t>
+  </si>
+  <si>
+    <t>repVersion</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1127,144 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="133">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2336,8 +2485,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S6" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:S6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S7" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <autoFilter ref="A1:S7"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="130"/>
+    <tableColumn id="2" name="code" dataDxfId="129"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="128"/>
+    <tableColumn id="4" name="label" dataDxfId="127"/>
+    <tableColumn id="5" name="tip" dataDxfId="126"/>
+    <tableColumn id="6" name="type" dataDxfId="125"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="124"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="123"/>
+    <tableColumn id="9" name="editable" dataDxfId="122"/>
+    <tableColumn id="10" name="visible" dataDxfId="121"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="120"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="119"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="118"/>
+    <tableColumn id="18" name="codeFormula"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="117"/>
+    <tableColumn id="19" name="labelFormula"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="116"/>
+    <tableColumn id="16" name="order" dataDxfId="115"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="114"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="111"/>
     <tableColumn id="2" name="code" dataDxfId="110"/>
@@ -2352,61 +2529,33 @@
     <tableColumn id="11" name="picklistKey" dataDxfId="101"/>
     <tableColumn id="12" name="picklistFilter" dataDxfId="100"/>
     <tableColumn id="13" name="defaultCode" dataDxfId="99"/>
-    <tableColumn id="18" name="codeFormula"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="98"/>
-    <tableColumn id="19" name="labelFormula"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="97"/>
-    <tableColumn id="16" name="order" dataDxfId="96"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="95"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
-  <autoFilter ref="A1:S4"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="92"/>
-    <tableColumn id="2" name="code" dataDxfId="91"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="90"/>
-    <tableColumn id="4" name="label" dataDxfId="89"/>
-    <tableColumn id="5" name="tip" dataDxfId="88"/>
-    <tableColumn id="6" name="type" dataDxfId="87"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="86"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="85"/>
-    <tableColumn id="9" name="editable" dataDxfId="84"/>
-    <tableColumn id="10" name="visible" dataDxfId="83"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="82"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="81"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="80"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="79"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="78"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="77"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="76"/>
-    <tableColumn id="16" name="order" dataDxfId="75"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="74"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="98"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="97"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="96"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="95"/>
+    <tableColumn id="16" name="order" dataDxfId="94"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="A1:S8"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="72"/>
+    <tableColumn id="1" name="id" dataDxfId="91"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="71"/>
-    <tableColumn id="5" name="tip" dataDxfId="70"/>
-    <tableColumn id="6" name="type" dataDxfId="69"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="68"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="67"/>
-    <tableColumn id="9" name="editable" dataDxfId="66"/>
-    <tableColumn id="10" name="visible" dataDxfId="65"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="64"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="63"/>
+    <tableColumn id="4" name="label" dataDxfId="90"/>
+    <tableColumn id="5" name="tip" dataDxfId="89"/>
+    <tableColumn id="6" name="type" dataDxfId="88"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="87"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="86"/>
+    <tableColumn id="9" name="editable" dataDxfId="85"/>
+    <tableColumn id="10" name="visible" dataDxfId="84"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="83"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="82"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="18" name="codeFormula"/>
     <tableColumn id="13" name="defaultValue"/>
@@ -2420,103 +2569,103 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:S36"/>
   <sortState ref="A2:R33">
     <sortCondition ref="R1:R33"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="60"/>
-    <tableColumn id="2" name="code" dataDxfId="59"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="58"/>
-    <tableColumn id="4" name="label" dataDxfId="57"/>
-    <tableColumn id="5" name="tip" dataDxfId="56"/>
-    <tableColumn id="6" name="type" dataDxfId="55"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="54"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="53"/>
-    <tableColumn id="9" name="editable" dataDxfId="52"/>
-    <tableColumn id="10" name="visible" dataDxfId="51"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="50"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="49"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="48"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="47"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="46"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="45"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="44"/>
-    <tableColumn id="15" name="order" dataDxfId="43"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="42"/>
+    <tableColumn id="1" name="id" dataDxfId="79"/>
+    <tableColumn id="2" name="code" dataDxfId="78"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="77"/>
+    <tableColumn id="4" name="label" dataDxfId="76"/>
+    <tableColumn id="5" name="tip" dataDxfId="75"/>
+    <tableColumn id="6" name="type" dataDxfId="74"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="73"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="72"/>
+    <tableColumn id="9" name="editable" dataDxfId="71"/>
+    <tableColumn id="10" name="visible" dataDxfId="70"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="69"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="68"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="67"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="66"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="65"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="64"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="63"/>
+    <tableColumn id="15" name="order" dataDxfId="62"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:S11"/>
   <sortState ref="A2:R33">
     <sortCondition ref="R1:R33"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="39"/>
-    <tableColumn id="2" name="code" dataDxfId="38"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="37"/>
-    <tableColumn id="4" name="label" dataDxfId="36"/>
-    <tableColumn id="5" name="tip" dataDxfId="35"/>
-    <tableColumn id="6" name="type" dataDxfId="34"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="33"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="32"/>
-    <tableColumn id="9" name="editable" dataDxfId="31"/>
-    <tableColumn id="10" name="visible" dataDxfId="30"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="29"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="28"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="27"/>
-    <tableColumn id="17" name="codeFormula" dataDxfId="26"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="25"/>
-    <tableColumn id="18" name="labelFormula" dataDxfId="24"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="23"/>
-    <tableColumn id="15" name="order" dataDxfId="22"/>
-    <tableColumn id="19" name="naturalKey" dataDxfId="21"/>
+    <tableColumn id="1" name="id" dataDxfId="58"/>
+    <tableColumn id="2" name="code" dataDxfId="57"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="56"/>
+    <tableColumn id="4" name="label" dataDxfId="55"/>
+    <tableColumn id="5" name="tip" dataDxfId="54"/>
+    <tableColumn id="6" name="type" dataDxfId="53"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="52"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="51"/>
+    <tableColumn id="9" name="editable" dataDxfId="50"/>
+    <tableColumn id="10" name="visible" dataDxfId="49"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="48"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="47"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="46"/>
+    <tableColumn id="17" name="codeFormula" dataDxfId="45"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="44"/>
+    <tableColumn id="18" name="labelFormula" dataDxfId="43"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="42"/>
+    <tableColumn id="15" name="order" dataDxfId="41"/>
+    <tableColumn id="19" name="naturalKey" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table257" displayName="Table257" ref="A1:R36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table257" displayName="Table257" ref="A1:R36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:R36"/>
   <sortState ref="A2:P44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="id" dataDxfId="18"/>
-    <tableColumn id="2" name="code" dataDxfId="17"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="16"/>
-    <tableColumn id="4" name="label" dataDxfId="15"/>
-    <tableColumn id="5" name="tip" dataDxfId="14"/>
-    <tableColumn id="6" name="type" dataDxfId="13"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="12"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="11"/>
-    <tableColumn id="9" name="editable" dataDxfId="10"/>
-    <tableColumn id="10" name="visible" dataDxfId="9"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="8"/>
-    <tableColumn id="16" name="picklistFilter" dataDxfId="7"/>
-    <tableColumn id="12" name="defaultCode" dataDxfId="6"/>
-    <tableColumn id="17" name="codeFormula" dataDxfId="5"/>
-    <tableColumn id="13" name="defaultValue" dataDxfId="4"/>
-    <tableColumn id="18" name="labelFormula" dataDxfId="3"/>
-    <tableColumn id="14" name="putInOutput" dataDxfId="2"/>
-    <tableColumn id="15" name="order" dataDxfId="1"/>
+    <tableColumn id="1" name="id" dataDxfId="37"/>
+    <tableColumn id="2" name="code" dataDxfId="36"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="35"/>
+    <tableColumn id="4" name="label" dataDxfId="34"/>
+    <tableColumn id="5" name="tip" dataDxfId="33"/>
+    <tableColumn id="6" name="type" dataDxfId="32"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="31"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="30"/>
+    <tableColumn id="9" name="editable" dataDxfId="29"/>
+    <tableColumn id="10" name="visible" dataDxfId="28"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="27"/>
+    <tableColumn id="16" name="picklistFilter" dataDxfId="26"/>
+    <tableColumn id="12" name="defaultCode" dataDxfId="25"/>
+    <tableColumn id="17" name="codeFormula" dataDxfId="24"/>
+    <tableColumn id="13" name="defaultValue" dataDxfId="23"/>
+    <tableColumn id="18" name="labelFormula" dataDxfId="22"/>
+    <tableColumn id="14" name="putInOutput" dataDxfId="21"/>
+    <tableColumn id="15" name="order" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="parentTable"/>
-    <tableColumn id="2" name="childTable" dataDxfId="0"/>
+    <tableColumn id="2" name="childTable" dataDxfId="19"/>
     <tableColumn id="3" name="directRelation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2524,26 +2673,41 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="tableName"/>
     <tableColumn id="2" name="htmlFilename"/>
     <tableColumn id="3" name="generateRecord"/>
+    <tableColumn id="4" name="keepVersion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="xmlTag"/>
-    <tableColumn id="2" name="value"/>
-    <tableColumn id="3" name="putInHeader"/>
-    <tableColumn id="4" name="putInOperation"/>
-    <tableColumn id="5" name="isDatasetRoot"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:S10"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="16"/>
+    <tableColumn id="2" name="code" dataDxfId="15"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="14"/>
+    <tableColumn id="4" name="label" dataDxfId="13"/>
+    <tableColumn id="5" name="tip" dataDxfId="12"/>
+    <tableColumn id="6" name="type" dataDxfId="11"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="10"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="9"/>
+    <tableColumn id="9" name="editable" dataDxfId="8"/>
+    <tableColumn id="10" name="visible" dataDxfId="7"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="6"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="5"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="4"/>
+    <tableColumn id="18" name="codeFormula"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="3"/>
+    <tableColumn id="19" name="labelFormula"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="2"/>
+    <tableColumn id="16" name="order" dataDxfId="1"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2836,13 +3000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,13 +3071,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -2922,7 +3086,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3025,10 +3189,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3037,7 +3201,9 @@
         <v>208</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +3215,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="2"/>
       <c r="O4" s="12" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -3060,7 +3226,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -3089,10 +3255,10 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -3105,16 +3271,42 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>207</v>
       </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3323,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
@@ -3196,13 +3388,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3211,7 +3403,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3298,17 +3490,17 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>208</v>
@@ -3415,13 +3607,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
@@ -3430,7 +3622,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3716,10 +3908,10 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,13 +3976,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3799,7 +3991,7 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4119,10 +4311,10 @@
         <v>180</v>
       </c>
       <c r="M8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4145,7 +4337,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -4183,7 +4375,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4221,7 +4413,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -4259,7 +4451,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -4297,7 +4489,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -4353,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -4560,10 +4752,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -4595,10 +4787,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -4615,7 +4807,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>10</v>
@@ -4630,10 +4822,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -4650,7 +4842,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -4665,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -4682,7 +4874,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -4697,10 +4889,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -4767,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -4816,7 +5008,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -4831,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5025,7 +5217,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>207</v>
@@ -5042,7 +5234,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>207</v>
@@ -5070,7 +5262,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
@@ -5138,13 +5330,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5153,21 +5345,21 @@
         <v>174</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>208</v>
@@ -5187,22 +5379,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -5214,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -5231,10 +5423,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>208</v>
@@ -5254,16 +5446,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>208</v>
@@ -5283,16 +5475,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>208</v>
@@ -5312,16 +5504,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -5352,16 +5544,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="B8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -5379,10 +5571,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -5393,37 +5585,37 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -5434,7 +5626,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>207</v>
@@ -5480,10 +5672,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,13 +5740,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5592,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -5659,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -5691,7 +5883,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -5699,13 +5891,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>208</v>
@@ -5723,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -5731,13 +5923,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>208</v>
@@ -5760,13 +5952,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>208</v>
@@ -5797,6 +5989,9 @@
       <c r="C9" s="12" t="s">
         <v>108</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
       </c>
@@ -5807,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -5847,13 +6042,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
@@ -5885,10 +6080,10 @@
         <v>45</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>208</v>
@@ -5935,10 +6130,10 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -5970,10 +6165,10 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -5981,22 +6176,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
@@ -6008,10 +6203,10 @@
         <v>4</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -6028,7 +6223,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -6043,10 +6238,10 @@
         <v>4</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>11</v>
@@ -6063,7 +6258,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -6078,10 +6273,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -6098,7 +6293,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>10</v>
@@ -6113,10 +6308,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -6183,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -6215,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -6232,13 +6427,13 @@
         <v>86</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>10</v>
@@ -6256,10 +6451,10 @@
         <v>192</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -6270,22 +6465,22 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="F23" s="12" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -6303,10 +6498,10 @@
         <v>193</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -6341,10 +6536,10 @@
         <v>4</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -6487,13 +6682,13 @@
         <v>123</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -6533,13 +6728,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -6548,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -6556,10 +6754,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -6568,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>5</v>
@@ -6576,10 +6777,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -6588,7 +6792,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>5</v>
@@ -6596,10 +6800,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -6608,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -6616,7 +6823,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>207</v>
@@ -6633,7 +6840,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>207</v>
@@ -6675,16 +6882,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,7 +6903,7 @@
         <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6703,7 +6911,7 @@
         <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -6714,7 +6922,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -6722,7 +6930,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>204</v>
@@ -6733,7 +6941,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>205</v>
@@ -6755,7 +6963,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>205</v>
@@ -6766,10 +6974,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -6780,7 +6988,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -6791,9 +6999,31 @@
         <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6807,78 +7037,100 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6891,130 +7143,371 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="60.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="54.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="12"/>
+      <c r="N4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+      <c r="N5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>306</v>
       </c>
-      <c r="B4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>307</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" t="s">
         <v>309</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="P8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="328">
   <si>
     <t>Type</t>
   </si>
@@ -985,6 +985,27 @@
   </si>
   <si>
     <t>repVersion</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>repMexId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with GetAck</t>
+  </si>
+  <si>
+    <t>General formula: TableName + Version to save the table version</t>
+  </si>
+  <si>
+    <t>reportMessageId</t>
+  </si>
+  <si>
+    <t>reportStatus</t>
+  </si>
+  <si>
+    <t>repStatus</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1123,6 +1144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2485,8 +2510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S7" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
-  <autoFilter ref="A1:S7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S8" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <autoFilter ref="A1:S8"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="130"/>
     <tableColumn id="2" name="code" dataDxfId="129"/>
@@ -3000,13 +3025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3040,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
@@ -3130,7 +3155,9 @@
         <v>198</v>
       </c>
       <c r="P2" s="11"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="R2" s="2">
         <v>1</v>
       </c>
@@ -3179,7 +3206,9 @@
         <v>196</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="R3" s="2">
         <v>2</v>
       </c>
@@ -3217,9 +3246,13 @@
       <c r="O4" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -3261,7 +3294,9 @@
         <v>272</v>
       </c>
       <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="R5" s="16">
         <v>3</v>
       </c>
@@ -3285,6 +3320,12 @@
       <c r="J6" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -3293,6 +3334,9 @@
       <c r="B7" s="12" t="s">
         <v>320</v>
       </c>
+      <c r="E7" s="12" t="s">
+        <v>324</v>
+      </c>
       <c r="F7" s="12" t="s">
         <v>208</v>
       </c>
@@ -3305,8 +3349,92 @@
       <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="M7" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="S7" s="12" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7146,10 +7274,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="5" r:id="rId1"/>
-    <sheet name="Settings" sheetId="8" r:id="rId2"/>
-    <sheet name="Preferences" sheetId="6" r:id="rId3"/>
+    <sheet name="Settings" sheetId="8" r:id="rId1"/>
+    <sheet name="Preferences" sheetId="6" r:id="rId2"/>
+    <sheet name="Report" sheetId="5" r:id="rId3"/>
     <sheet name="SummarizedInformation" sheetId="1" r:id="rId4"/>
-    <sheet name="CasesInformation" sheetId="11" r:id="rId5"/>
-    <sheet name="AnalyticalResults" sheetId="12" r:id="rId6"/>
+    <sheet name="CasesInformation" sheetId="17" r:id="rId5"/>
+    <sheet name="AnalyticalResults" sheetId="16" r:id="rId6"/>
     <sheet name="Relations" sheetId="9" r:id="rId7"/>
     <sheet name="Tables" sheetId="10" r:id="rId8"/>
     <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="393">
   <si>
     <t>Type</t>
   </si>
@@ -414,12 +414,6 @@
     <t>Farmed</t>
   </si>
   <si>
-    <t>$F02.A06AM</t>
-  </si>
-  <si>
-    <t>$F21.A07RV</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t>not applicable</t>
   </si>
   <si>
-    <t>2016 to 2099</t>
-  </si>
-  <si>
     <t>1 to 12</t>
   </si>
   <si>
@@ -513,39 +504,9 @@
     <t>TSE SCRAPIE BSE</t>
   </si>
   <si>
-    <t>\type.code == SCRAPIE</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(\statusHerd.code, Yes, No)</t>
-  </si>
-  <si>
     <t>tseLists</t>
   </si>
   <si>
-    <t>\type.label</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(\statusHerd.code,\progId.label,)</t>
-  </si>
-  <si>
-    <t>\progId.label</t>
-  </si>
-  <si>
-    <t>\progId.label|.0</t>
-  </si>
-  <si>
-    <t>\anMethType.code|.|\anMethCode.code</t>
-  </si>
-  <si>
-    <t>tseTargetGroup=\tseTargetGroup.code$totSamplesTested=\totSamplesTested.label$totSamplesPositive=\totSamplesPositive.label$totSamplesNegative=\totSamplesNegative.label$totSamplesInconclusive=\totSamplesInconclusive.label$totSamplesUnsuitable=\totSamplesUnsuitable.label</t>
-  </si>
-  <si>
-    <t>SUM(\totSamplesPositive.label,\totSamplesNegative.label,\totSamplesInconclusive.label)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(\statusHerd.code, yes, no)</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -564,9 +525,6 @@
     <t>CWD</t>
   </si>
   <si>
-    <t>\type.code</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -663,33 +621,6 @@
     <t>SettingsId</t>
   </si>
   <si>
-    <t>RELATION{Preferences, country.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, defScreening\type.code.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, defScreening\type.code.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportYear.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportMonth.label}</t>
-  </si>
-  <si>
-    <t>\repYear.label</t>
-  </si>
-  <si>
-    <t>END_TRIM(\repYear.code, 2)|END_TRIM(ZERO_PADDING(\sampM.code,2), 2)|_ZERO_PADDING({rowId},4)</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportMonth.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportYear.code}</t>
-  </si>
-  <si>
     <t>orgCode</t>
   </si>
   <si>
@@ -708,12 +639,6 @@
     <t>reportCountry</t>
   </si>
   <si>
-    <t>RELATION{Report, country.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, country.code}</t>
-  </si>
-  <si>
     <t>htmlFilename</t>
   </si>
   <si>
@@ -726,9 +651,6 @@
     <t>naturalKey</t>
   </si>
   <si>
-    <t>A04MQ|\source.code|\part.code|\prod.code|\animage.code</t>
-  </si>
-  <si>
     <t>codeFormula</t>
   </si>
   <si>
@@ -840,33 +762,12 @@
     <t>CasesInformation</t>
   </si>
   <si>
-    <t>RELATION{Preferences, country.label}</t>
-  </si>
-  <si>
     <t>sampUnitIds</t>
   </si>
   <si>
-    <t>\sampId.label</t>
-  </si>
-  <si>
     <t>Year of analysis</t>
   </si>
   <si>
-    <t>Year in whcih the samples has been analysed</t>
-  </si>
-  <si>
-    <t>analysisM</t>
-  </si>
-  <si>
-    <t>F.04</t>
-  </si>
-  <si>
-    <t>Month of analysis</t>
-  </si>
-  <si>
-    <t>Month in whcih the samples has been analysed</t>
-  </si>
-  <si>
     <t>P001A</t>
   </si>
   <si>
@@ -882,48 +783,9 @@
     <t>directRelation</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation, anMethCode.code}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation, anMethCode.label}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation, type.code}</t>
-  </si>
-  <si>
-    <t>tseNationalCaseId=\tseNationalCaseId.label$tseIndexCase=\tseIndexCase.label$sampAnAsses=\sampAnAsses.label</t>
-  </si>
-  <si>
     <t>generateRecord</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation, progId.label}|.\animalId.label</t>
-  </si>
-  <si>
-    <t>tseTargetGroup=RELATION{SummarizedInformation, tseTargetGroup.code}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation, progId.label}</t>
-  </si>
-  <si>
-    <t>animalId=\animalId.code|IF_NOT_NULL(herdId, $herdId=\herdId.label, )</t>
-  </si>
-  <si>
-    <t>birthCountry=\birthCountry.code|IF_NOT_NULL(statusHerd, $statusHerd=\statusHerd.label, )</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation, sampMatCode.label}</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation, tseNationalCaseId.label}</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation, tseNationalCaseId.code}</t>
-  </si>
-  <si>
-    <t>RELATION{CasesInformation, sampAnAsses.label}</t>
-  </si>
-  <si>
     <t>dcfmsg</t>
   </si>
   <si>
@@ -948,33 +810,9 @@
     <t>senderDatasetId</t>
   </si>
   <si>
-    <t>RELATION{Report, reportSenderId.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Settings, orgCode.code}</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportSenderId.code}|today.timestamp</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
     <t>MessageConfig</t>
   </si>
   <si>
-    <t>RELATION{Report, reportSenderId.label}|today.timestamp</t>
-  </si>
-  <si>
-    <t>RELATION{Report, reportSenderId.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences, country.code}|END_TRIM(lastMonth.year.code, 2)|END_TRIM(ZERO_PADDING(lastMonth.code, 2), 2)</t>
-  </si>
-  <si>
     <t>u_integer</t>
   </si>
   <si>
@@ -990,9 +828,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>repMexId</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH, used with GetAck</t>
   </si>
   <si>
@@ -1006,6 +841,366 @@
   </si>
   <si>
     <t>repStatus</t>
+  </si>
+  <si>
+    <t>opCom</t>
+  </si>
+  <si>
+    <t>File generated with {app.name} - version {app.version}</t>
+  </si>
+  <si>
+    <t>dcCode</t>
+  </si>
+  <si>
+    <t>{app.dcCode}</t>
+  </si>
+  <si>
+    <t>reportDatasetId</t>
+  </si>
+  <si>
+    <t>repDatasetId</t>
+  </si>
+  <si>
+    <t>repMsgId</t>
+  </si>
+  <si>
+    <t>datasetId</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>resType</t>
+  </si>
+  <si>
+    <t>M.16</t>
+  </si>
+  <si>
+    <t>resQualValuesList</t>
+  </si>
+  <si>
+    <t>POSNEG</t>
+  </si>
+  <si>
+    <t>Result of the applied test</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>resQualValue</t>
+  </si>
+  <si>
+    <t>M.15</t>
+  </si>
+  <si>
+    <t>RES|_ZERO_PADDING({rowId},5)</t>
+  </si>
+  <si>
+    <t>Result ID univocally assigned at country level</t>
+  </si>
+  <si>
+    <t>res ID</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Type of the executed test</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>Identifier of the test type in the laboratory</t>
+  </si>
+  <si>
+    <t>Test ref ID</t>
+  </si>
+  <si>
+    <t>alleleLists</t>
+  </si>
+  <si>
+    <t>Second allele</t>
+  </si>
+  <si>
+    <t>Allele 2</t>
+  </si>
+  <si>
+    <t>allele2</t>
+  </si>
+  <si>
+    <t>First allele</t>
+  </si>
+  <si>
+    <t>Allele 1</t>
+  </si>
+  <si>
+    <t>allele1</t>
+  </si>
+  <si>
+    <t>Year in which the samples has been analysed</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,sampId.label}</t>
+  </si>
+  <si>
+    <t>sampMatInfo</t>
+  </si>
+  <si>
+    <t>E.10</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,sampD.code}</t>
+  </si>
+  <si>
+    <t>sampD</t>
+  </si>
+  <si>
+    <t>D.08</t>
+  </si>
+  <si>
+    <t>RELATION{CasesInformation,sampArea.code}</t>
+  </si>
+  <si>
+    <t>sampHoldingId</t>
+  </si>
+  <si>
+    <t>Holding ID</t>
+  </si>
+  <si>
+    <t>Id univocally assigned to the holding at country level</t>
+  </si>
+  <si>
+    <t>birthInFlockHerd</t>
+  </si>
+  <si>
+    <t>yesNoList</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
+  <si>
+    <t>Year of birth</t>
+  </si>
+  <si>
+    <t>Year in which the animal was born</t>
+  </si>
+  <si>
+    <t>2010 to 2099</t>
+  </si>
+  <si>
+    <t>birthMonth</t>
+  </si>
+  <si>
+    <t>Month of birth</t>
+  </si>
+  <si>
+    <t>Month in which the animal was born</t>
+  </si>
+  <si>
+    <t>Sampling Day</t>
+  </si>
+  <si>
+    <t>Day of sampling</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Breed detail</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,statusHerd.code}</t>
+  </si>
+  <si>
+    <t>evalCom</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Comment about evaluation of the case (to be filled in only if strictly needed)</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportYear.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportMonth.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,country.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportYear.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportMonth.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,country.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,country.code}|END_TRIM(lastMonth.year.code,2)|END_TRIM(ZERO_PADDING(lastMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,country.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,sampMatCode.label}</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,breed.label},com=RELATION{CasesInformation,breed.label},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,anMethCode.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,anMethCode.code}</t>
+  </si>
+  <si>
+    <t>daysList</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,animalId.label}</t>
+  </si>
+  <si>
+    <t>AT06A|.|RELATION{SummarizedInformation,anMethCode.code}</t>
+  </si>
+  <si>
+    <t>animalId=RELATION{CasesInformation,animalId.code}|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
+  </si>
+  <si>
+    <t>RELATION{Settings,orgCode.code}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.code}|-|today.timestamp</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportDatasetId.label}</t>
+  </si>
+  <si>
+    <t>tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code}</t>
+  </si>
+  <si>
+    <t>dcTable</t>
+  </si>
+  <si>
+    <t>{app.dcTable}</t>
+  </si>
+  <si>
+    <t>tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}|$tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}|$sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>anMethTypesLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==SCRAPIE),Yes,No)</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>First test applied</t>
+  </si>
+  <si>
+    <t>Birth in the flock</t>
+  </si>
+  <si>
+    <t>Select Yes if the animal was born in the sampled flock.</t>
+  </si>
+  <si>
+    <t>%repYear.label</t>
+  </si>
+  <si>
+    <t>tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label</t>
+  </si>
+  <si>
+    <t>END_TRIM(%repYear.code,2)|END_TRIM(ZERO_PADDING(%sampM.code,2),2)|_ZERO_PADDING({rowId},4)</t>
+  </si>
+  <si>
+    <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,defScreening%type.code.label}</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,defScreening%type.code.code}</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,%progId.label,)</t>
+  </si>
+  <si>
+    <t>%progId.label</t>
+  </si>
+  <si>
+    <t>%anMethType.code|.|%anMethCode.code</t>
+  </si>
+  <si>
+    <t>%type.code</t>
+  </si>
+  <si>
+    <t>IF((%tseTargetGroup.code==TG006A),TG006A,RAPID)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,yes,no)</t>
+  </si>
+  <si>
+    <t>(%type.code == SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,Yes,No)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
+    <t>(%anMethType.code==AT13A)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%part.code$%prod.code$%animage.code</t>
+  </si>
+  <si>
+    <t>birthCountry=RELATION{CasesInformation,birthCountry.code}|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>RF-00004628-PAR#allele=%allele1.code$allele=%allele2.code</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}</t>
+  </si>
+  <si>
+    <t>F02.A06AM</t>
+  </si>
+  <si>
+    <t>F21.A07RV</t>
+  </si>
+  <si>
+    <t>%type.label</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,prod.code}!=F21.A07RY)</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,country.code}|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1148,6 +1343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1849,6 +2046,143 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2362,143 +2696,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2510,8 +2707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S8" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
-  <autoFilter ref="A1:S8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="130"/>
     <tableColumn id="2" name="code" dataDxfId="129"/>
@@ -2526,61 +2723,33 @@
     <tableColumn id="11" name="picklistKey" dataDxfId="120"/>
     <tableColumn id="12" name="picklistFilter" dataDxfId="119"/>
     <tableColumn id="13" name="defaultCode" dataDxfId="118"/>
-    <tableColumn id="18" name="codeFormula"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="117"/>
-    <tableColumn id="19" name="labelFormula"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="116"/>
-    <tableColumn id="16" name="order" dataDxfId="115"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="114"/>
+    <tableColumn id="18" name="codeFormula" dataDxfId="117"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="116"/>
+    <tableColumn id="19" name="labelFormula" dataDxfId="115"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="114"/>
+    <tableColumn id="16" name="order" dataDxfId="113"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
-  <autoFilter ref="A1:S4"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="111"/>
-    <tableColumn id="2" name="code" dataDxfId="110"/>
-    <tableColumn id="3" name="xmlTag" dataDxfId="109"/>
-    <tableColumn id="4" name="label" dataDxfId="108"/>
-    <tableColumn id="5" name="tip" dataDxfId="107"/>
-    <tableColumn id="6" name="type" dataDxfId="106"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="105"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="104"/>
-    <tableColumn id="9" name="editable" dataDxfId="103"/>
-    <tableColumn id="10" name="visible" dataDxfId="102"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="101"/>
-    <tableColumn id="12" name="picklistFilter" dataDxfId="100"/>
-    <tableColumn id="13" name="defaultCode" dataDxfId="99"/>
-    <tableColumn id="18" name="codeFormula" dataDxfId="98"/>
-    <tableColumn id="14" name="defaultValue" dataDxfId="97"/>
-    <tableColumn id="19" name="labelFormula" dataDxfId="96"/>
-    <tableColumn id="15" name="putInOutput" dataDxfId="95"/>
-    <tableColumn id="16" name="order" dataDxfId="94"/>
-    <tableColumn id="17" name="naturalKey" dataDxfId="93"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="111">
   <autoFilter ref="A1:S8"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="id" dataDxfId="91"/>
+    <tableColumn id="1" name="id" dataDxfId="110"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="xmlTag"/>
-    <tableColumn id="4" name="label" dataDxfId="90"/>
-    <tableColumn id="5" name="tip" dataDxfId="89"/>
-    <tableColumn id="6" name="type" dataDxfId="88"/>
-    <tableColumn id="7" name="Controlled terminology" dataDxfId="87"/>
-    <tableColumn id="8" name="mandatory" dataDxfId="86"/>
-    <tableColumn id="9" name="editable" dataDxfId="85"/>
-    <tableColumn id="10" name="visible" dataDxfId="84"/>
-    <tableColumn id="11" name="picklistKey" dataDxfId="83"/>
-    <tableColumn id="17" name="picklistFilter" dataDxfId="82"/>
+    <tableColumn id="4" name="label" dataDxfId="109"/>
+    <tableColumn id="5" name="tip" dataDxfId="108"/>
+    <tableColumn id="6" name="type" dataDxfId="107"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="106"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="105"/>
+    <tableColumn id="9" name="editable" dataDxfId="104"/>
+    <tableColumn id="10" name="visible" dataDxfId="103"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="102"/>
+    <tableColumn id="17" name="picklistFilter" dataDxfId="101"/>
     <tableColumn id="12" name="defaultCode"/>
     <tableColumn id="18" name="codeFormula"/>
     <tableColumn id="13" name="defaultValue"/>
@@ -2593,11 +2762,39 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S10" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+  <autoFilter ref="A1:S10"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="98"/>
+    <tableColumn id="2" name="code" dataDxfId="97"/>
+    <tableColumn id="3" name="xmlTag" dataDxfId="96"/>
+    <tableColumn id="4" name="label" dataDxfId="95"/>
+    <tableColumn id="5" name="tip" dataDxfId="94"/>
+    <tableColumn id="6" name="type" dataDxfId="93"/>
+    <tableColumn id="7" name="Controlled terminology" dataDxfId="92"/>
+    <tableColumn id="8" name="mandatory" dataDxfId="91"/>
+    <tableColumn id="9" name="editable" dataDxfId="90"/>
+    <tableColumn id="10" name="visible" dataDxfId="89"/>
+    <tableColumn id="11" name="picklistKey" dataDxfId="88"/>
+    <tableColumn id="12" name="picklistFilter" dataDxfId="87"/>
+    <tableColumn id="13" name="defaultCode" dataDxfId="86"/>
+    <tableColumn id="18" name="codeFormula"/>
+    <tableColumn id="14" name="defaultValue" dataDxfId="85"/>
+    <tableColumn id="19" name="labelFormula"/>
+    <tableColumn id="15" name="putInOutput" dataDxfId="84"/>
+    <tableColumn id="16" name="order" dataDxfId="83"/>
+    <tableColumn id="17" name="naturalKey" dataDxfId="82"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:S36"/>
-  <sortState ref="A2:R33">
-    <sortCondition ref="R1:R33"/>
+  <sortState ref="A2:S36">
+    <sortCondition ref="R1:R36"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -2625,10 +2822,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table25" displayName="Table25" ref="A1:S11" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S11"/>
-  <sortState ref="A2:R33">
-    <sortCondition ref="R1:R33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S18" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S18"/>
+  <sortState ref="A2:S18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="58"/>
@@ -2656,10 +2853,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table257" displayName="Table257" ref="A1:R36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:R36"/>
-  <sortState ref="A2:P44">
-    <sortCondition ref="B1:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:R34"/>
+  <sortState ref="A2:R37">
+    <sortCondition ref="B1:B37"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="id" dataDxfId="37"/>
@@ -2711,8 +2908,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:S10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:S14"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="16"/>
     <tableColumn id="2" name="code" dataDxfId="15"/>
@@ -3025,429 +3222,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" customWidth="1"/>
-    <col min="15" max="15" width="35.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="16">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3510,49 +3284,49 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -3577,23 +3351,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -3618,23 +3392,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>11</v>
@@ -3666,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
@@ -3729,42 +3503,42 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -3782,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3791,17 +3565,17 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -3822,7 +3596,7 @@
         <v>123</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3830,17 +3604,17 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -3861,7 +3635,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3869,17 +3643,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -3900,7 +3674,7 @@
         <v>123</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3908,17 +3682,17 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -3939,7 +3713,7 @@
         <v>123</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3947,17 +3721,17 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -3978,7 +3752,7 @@
         <v>123</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3986,17 +3760,17 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -4017,7 +3791,7 @@
         <v>123</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -4027,6 +3801,476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="16">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4036,10 +4280,10 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,28 +4342,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4154,7 +4398,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4198,10 +4442,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>130</v>
+        <v>388</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -4248,10 +4492,10 @@
         <v>121</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>129</v>
@@ -4298,7 +4542,7 @@
         <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4342,7 +4586,7 @@
         <v>117</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4377,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -4389,10 +4633,10 @@
         <v>118</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="R7" s="12">
         <v>6</v>
@@ -4403,25 +4647,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>3</v>
@@ -4433,16 +4677,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4453,22 +4697,25 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>101</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>364</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -4479,11 +4726,20 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
+      <c r="K9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R9" s="12">
         <v>8</v>
@@ -4491,19 +4747,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4529,19 +4785,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -4567,19 +4823,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -4588,13 +4844,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>172</v>
+      <c r="O12" s="12">
+        <v>0</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -4605,19 +4861,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -4626,13 +4882,13 @@
         <v>3</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="12">
-        <v>0</v>
+      <c r="P13" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -4643,22 +4899,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -4667,16 +4920,16 @@
         <v>3</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>219</v>
+      <c r="O14" s="12">
+        <v>0</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R14" s="12">
         <v>13</v>
@@ -4684,22 +4937,28 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>153</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>162</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -4707,17 +4966,11 @@
       <c r="J15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>166</v>
+      <c r="P15" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R15" s="12">
         <v>14</v>
@@ -4725,54 +4978,60 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="12">
         <v>15</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -4783,8 +5042,11 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>171</v>
+      <c r="M17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -4792,22 +5054,22 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -4816,30 +5078,30 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -4848,27 +5110,27 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>3</v>
@@ -4879,11 +5141,8 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>229</v>
-      </c>
       <c r="P20" s="12" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -4891,16 +5150,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>49</v>
@@ -4915,10 +5174,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -4926,19 +5185,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -4950,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -4961,16 +5220,16 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -4984,8 +5243,11 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N23" s="12" t="s">
+        <v>334</v>
+      </c>
       <c r="P23" s="12" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -4993,16 +5255,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5016,11 +5278,8 @@
       <c r="J24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="P24" s="12" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5028,19 +5287,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -5051,11 +5310,11 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>63</v>
+      <c r="N25" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5063,19 +5322,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5086,8 +5345,11 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>234</v>
+      <c r="M26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5095,19 +5357,19 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -5119,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5127,16 +5389,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5151,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>218</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5159,19 +5421,19 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -5182,11 +5444,8 @@
       <c r="J29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>90</v>
+      <c r="P29" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5194,19 +5453,19 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5218,10 +5477,10 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -5229,19 +5488,19 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -5252,8 +5511,11 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>170</v>
+      <c r="M31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5261,19 +5523,19 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -5284,11 +5546,8 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>100</v>
+      <c r="P32" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5305,7 +5564,7 @@
         <v>106</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>10</v>
@@ -5320,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>169</v>
+        <v>382</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -5328,10 +5587,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -5345,10 +5604,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -5362,10 +5621,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -5387,13 +5646,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5401,11 +5660,11 @@
     <col min="1" max="1" width="26.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12"/>
     <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="72.5703125" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -5452,45 +5711,45 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>238</v>
+        <v>222</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
@@ -5498,34 +5757,40 @@
       <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>3</v>
@@ -5533,202 +5798,218 @@
       <c r="J3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>317</v>
+      </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>49</v>
+      <c r="G7" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7"/>
-      <c r="P7"/>
+        <v>391</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
+        <v>322</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>262</v>
+        <v>391</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -5739,50 +6020,310 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>269</v>
-      </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>4</v>
+        <v>237</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
+      </c>
+      <c r="R10" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>207</v>
+        <v>310</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="Q11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="12">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5797,13 +6338,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,13 +6352,13 @@
     <col min="1" max="1" width="26.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12"/>
     <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="66" style="12" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="12" customWidth="1"/>
     <col min="11" max="11" width="17" style="12" customWidth="1"/>
     <col min="12" max="12" width="46.85546875" style="12" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="12" customWidth="1"/>
@@ -5862,28 +6403,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -5893,11 +6434,8 @@
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
@@ -5912,13 +6450,13 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +6467,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
@@ -5953,7 +6491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -5964,7 +6502,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
@@ -5979,13 +6517,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
@@ -5996,7 +6534,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -6011,24 +6549,24 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
@@ -6043,27 +6581,24 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>251</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6074,28 +6609,37 @@
       <c r="J7" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="P7" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="Q7" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>249</v>
+        <v>45</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>4</v>
@@ -6103,22 +6647,28 @@
       <c r="J8" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="P8" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="Q8" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -6129,31 +6679,31 @@
       <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>295</v>
+      <c r="N9" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
@@ -6161,28 +6711,34 @@
       <c r="J10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>118</v>
+      <c r="N10" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>238</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -6194,27 +6750,30 @@
         <v>4</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>175</v>
+        <v>242</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>247</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -6228,25 +6787,28 @@
       <c r="J12" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N12" s="12" t="s">
+        <v>334</v>
+      </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>3</v>
@@ -6258,30 +6820,27 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>3</v>
@@ -6293,36 +6852,30 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="G15" s="12" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -6330,31 +6883,28 @@
       <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>229</v>
+      <c r="N15" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -6365,31 +6915,31 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>216</v>
+      <c r="M16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -6400,11 +6950,8 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="P17" s="12" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -6412,55 +6959,49 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="H19" s="12" t="s">
         <v>3</v>
       </c>
@@ -6470,402 +7011,437 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>63</v>
+      <c r="P19" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="Q23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="Q24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="Q20" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="F25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="H25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="12">
+      <c r="H28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="12" t="s">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="G29" s="12" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>282</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -6873,8 +7449,8 @@
       <c r="J30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>289</v>
+      <c r="M30" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -6882,13 +7458,19 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>238</v>
+        <v>212</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -6897,21 +7479,18 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -6919,22 +7498,16 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>298</v>
-      </c>
       <c r="Q32" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -6942,19 +7515,16 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -6963,41 +7533,7 @@
         <v>4</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7013,7 +7549,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7025,21 +7561,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7047,10 +7583,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7058,10 +7594,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7069,10 +7605,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7080,10 +7616,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7091,10 +7627,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7102,10 +7638,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7113,10 +7649,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7124,10 +7660,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7135,10 +7671,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7146,10 +7682,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7180,24 +7716,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -7208,7 +7744,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -7219,7 +7755,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7230,7 +7766,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7241,7 +7777,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -7252,7 +7788,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -7271,34 +7807,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="2.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="60.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="54.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7336,28 +7874,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7371,7 +7909,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7386,27 +7924,25 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="P2" s="11"/>
-      <c r="Q2" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7421,27 +7957,25 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -7454,30 +7988,25 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
-      <c r="N4" t="s">
-        <v>314</v>
-      </c>
       <c r="P4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -7490,27 +8019,22 @@
       <c r="K5" s="17"/>
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
-      <c r="N5" t="s">
-        <v>309</v>
-      </c>
       <c r="P5" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="16"/>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
@@ -7519,115 +8043,185 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>194</v>
+      </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>194</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" t="s">
-        <v>309</v>
-      </c>
-      <c r="P8" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="A9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="P11" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="398">
   <si>
     <t>Type</t>
   </si>
@@ -1201,6 +1201,21 @@
   </si>
   <si>
     <t>RELATION{Preferences,country.code}|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>opType</t>
+  </si>
+  <si>
+    <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
+  </si>
+  <si>
+    <t>(%opType.label!=Insert)</t>
+  </si>
+  <si>
+    <t>for reject/submit should be not inserted</t>
+  </si>
+  <si>
+    <t>IF(((%opType.label==Reject)OR(%opType.label==Submit)),No,Yes)</t>
   </si>
 </sst>
 </file>
@@ -2908,8 +2923,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:S14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:S15"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="16"/>
     <tableColumn id="2" name="code" dataDxfId="15"/>
@@ -3809,7 +3824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5652,7 +5667,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,25 +7822,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" customWidth="1"/>
     <col min="11" max="11" width="4.140625" customWidth="1"/>
@@ -7834,7 +7849,7 @@
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="54.28515625" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
   </cols>
@@ -7927,7 +7942,9 @@
         <v>254</v>
       </c>
       <c r="P2" s="11"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
@@ -7960,7 +7977,9 @@
         <v>256</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
@@ -7991,7 +8010,9 @@
       <c r="P4" t="s">
         <v>352</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
@@ -8022,7 +8043,9 @@
       <c r="P5" t="s">
         <v>351</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="R5" s="16"/>
       <c r="S5" s="2"/>
     </row>
@@ -8045,7 +8068,9 @@
       <c r="O6" t="s">
         <v>260</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8067,7 +8092,9 @@
       <c r="P7" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -8089,7 +8116,9 @@
       <c r="P8" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -8111,7 +8140,9 @@
       <c r="P9" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -8122,6 +8153,9 @@
         <v>261</v>
       </c>
       <c r="D10" s="16"/>
+      <c r="E10" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>194</v>
       </c>
@@ -8141,7 +8175,9 @@
       <c r="P10" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
@@ -8172,7 +8208,9 @@
       <c r="P11" t="s">
         <v>351</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
@@ -8196,24 +8234,37 @@
       <c r="P12" s="16" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>4</v>
+      <c r="Q12" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>193</v>
@@ -8222,6 +8273,20 @@
         <v>4</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="397">
   <si>
     <t>Type</t>
   </si>
@@ -819,21 +819,12 @@
     <t>keepVersion</t>
   </si>
   <si>
-    <t>ReportVersion</t>
-  </si>
-  <si>
     <t>repVersion</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH, used with GetAck</t>
   </si>
   <si>
-    <t>General formula: TableName + Version to save the table version</t>
-  </si>
-  <si>
     <t>reportMessageId</t>
   </si>
   <si>
@@ -894,9 +885,6 @@
     <t>M.15</t>
   </si>
   <si>
-    <t>RES|_ZERO_PADDING({rowId},5)</t>
-  </si>
-  <si>
     <t>Result ID univocally assigned at country level</t>
   </si>
   <si>
@@ -1134,9 +1122,6 @@
     <t>tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label</t>
   </si>
   <si>
-    <t>END_TRIM(%repYear.code,2)|END_TRIM(ZERO_PADDING(%sampM.code,2),2)|_ZERO_PADDING({rowId},4)</t>
-  </si>
-  <si>
     <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
   </si>
   <si>
@@ -1182,9 +1167,6 @@
     <t>birthCountry=RELATION{CasesInformation,birthCountry.code}|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
   </si>
   <si>
-    <t>RF-00004628-PAR#allele=%allele1.code$allele=%allele2.code</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}</t>
   </si>
   <si>
@@ -1200,9 +1182,6 @@
     <t>(RELATION{SummarizedInformation,prod.code}!=F21.A07RY)</t>
   </si>
   <si>
-    <t>RELATION{Preferences,country.code}|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
-  </si>
-  <si>
     <t>opType</t>
   </si>
   <si>
@@ -1216,6 +1195,24 @@
   </si>
   <si>
     <t>IF(((%opType.label==Reject)OR(%opType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>reportVersion</t>
+  </si>
+  <si>
+    <t>Automatically filled, do not touch</t>
+  </si>
+  <si>
+    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RF-00004628-PAR|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
+  </si>
+  <si>
+    <t>RES|_ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
   </si>
 </sst>
 </file>
@@ -3825,10 +3822,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4043,10 +4040,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4092,11 +4089,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4134,13 +4131,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>269</v>
+        <v>392</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>194</v>
@@ -4154,27 +4151,25 @@
       <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="M7" s="22"/>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>194</v>
@@ -4205,15 +4200,15 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>194</v>
@@ -4244,15 +4239,15 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>194</v>
@@ -4294,11 +4289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4408,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4457,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -4507,10 +4502,10 @@
         <v>121</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>129</v>
@@ -4557,7 +4552,7 @@
         <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4601,7 +4596,7 @@
         <v>117</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4636,7 +4631,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -4648,10 +4643,10 @@
         <v>118</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="R7" s="12">
         <v>6</v>
@@ -4671,10 +4666,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4692,16 +4687,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4721,10 +4716,10 @@
         <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
@@ -4745,13 +4740,13 @@
         <v>123</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -4903,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -4981,8 +4976,8 @@
       <c r="J15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>370</v>
+      <c r="O15" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -5020,10 +5015,10 @@
         <v>160</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -5093,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -5116,7 +5111,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5125,10 +5120,10 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5157,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5192,7 +5187,7 @@
         <v>243</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5227,7 +5222,7 @@
         <v>243</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5259,10 +5254,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5294,7 +5289,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5326,10 +5321,10 @@
         <v>4</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5396,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5428,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5460,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5562,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5593,8 +5588,8 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="12" t="s">
-        <v>382</v>
+      <c r="O33" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -5822,16 +5817,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>194</v>
@@ -5897,16 +5892,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -5924,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -5935,25 +5930,25 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -5973,23 +5968,23 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6085,16 +6080,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
@@ -6109,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6120,16 +6115,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>194</v>
@@ -6223,7 +6218,7 @@
         <v>219</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6275,16 +6270,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>194</v>
@@ -6359,7 +6354,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6532,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6564,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6596,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6625,7 +6620,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6663,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6771,7 +6766,7 @@
         <v>243</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -6803,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -6835,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -6867,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -6875,13 +6870,13 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>263</v>
@@ -6899,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -6966,7 +6961,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -6974,13 +6969,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>194</v>
@@ -6995,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7027,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7047,7 +7042,7 @@
         <v>247</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>263</v>
@@ -7068,10 +7063,10 @@
         <v>178</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7141,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -7149,31 +7144,31 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L23" s="13"/>
       <c r="Q23" s="12" t="s">
@@ -7185,31 +7180,31 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L24" s="13"/>
       <c r="Q24" s="12" t="s">
@@ -7230,10 +7225,10 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>194</v>
@@ -7251,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -7271,10 +7266,10 @@
         <v>98</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>194</v>
@@ -7292,16 +7287,16 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -7345,13 +7340,13 @@
         <v>123</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -7371,10 +7366,10 @@
         <v>106</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>194</v>
@@ -7392,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -7403,25 +7398,25 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7433,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -7444,13 +7439,13 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>194</v>
@@ -7465,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7494,7 +7489,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -7824,7 +7819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8008,7 +8003,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8041,7 +8036,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8074,10 +8069,10 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>194</v>
@@ -8090,7 +8085,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8098,10 +8093,10 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>194</v>
@@ -8114,7 +8109,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8122,10 +8117,10 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>194</v>
@@ -8138,7 +8133,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8154,7 +8149,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>194</v>
@@ -8173,10 +8168,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8206,7 +8201,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8216,10 +8211,10 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
@@ -8232,21 +8227,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>194</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="400">
   <si>
     <t>Type</t>
   </si>
@@ -783,9 +783,6 @@
     <t>directRelation</t>
   </si>
   <si>
-    <t>generateRecord</t>
-  </si>
-  <si>
     <t>dcfmsg</t>
   </si>
   <si>
@@ -816,9 +813,6 @@
     <t>u_integer</t>
   </si>
   <si>
-    <t>keepVersion</t>
-  </si>
-  <si>
     <t>repVersion</t>
   </si>
   <si>
@@ -906,9 +900,6 @@
     <t>Test ref ID</t>
   </si>
   <si>
-    <t>alleleLists</t>
-  </si>
-  <si>
     <t>Second allele</t>
   </si>
   <si>
@@ -1213,6 +1204,24 @@
   </si>
   <si>
     <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>alleleList</t>
+  </si>
+  <si>
+    <t>RESEVAL</t>
+  </si>
+  <si>
+    <t>dcTest</t>
+  </si>
+  <si>
+    <t>Test mode</t>
+  </si>
+  <si>
+    <t>Set to Yes in order to send fake reports (just to test connection)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,6 +1254,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1328,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1357,6 +1378,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2719,8 +2742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
-  <autoFilter ref="A1:S4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S5" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="130"/>
     <tableColumn id="2" name="code" dataDxfId="129"/>
@@ -2907,13 +2930,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="tableName"/>
     <tableColumn id="2" name="htmlFilename"/>
-    <tableColumn id="3" name="generateRecord"/>
-    <tableColumn id="4" name="keepVersion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3234,13 +3255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,6 +3463,53 @@
         <v>3</v>
       </c>
       <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16">
+        <v>4</v>
+      </c>
+      <c r="S5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3821,11 +3889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3994,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4019,7 +4087,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -4040,10 +4108,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4089,11 +4157,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4131,13 +4199,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>194</v>
@@ -4161,15 +4229,15 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>194</v>
@@ -4200,15 +4268,15 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>194</v>
@@ -4239,15 +4307,15 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>194</v>
@@ -4289,11 +4357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,7 +4476,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4452,10 +4520,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -4502,10 +4570,10 @@
         <v>121</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>129</v>
@@ -4552,7 +4620,7 @@
         <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4596,7 +4664,7 @@
         <v>117</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4631,7 +4699,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -4643,10 +4711,10 @@
         <v>118</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="R7" s="12">
         <v>6</v>
@@ -4666,10 +4734,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4687,16 +4755,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4716,10 +4784,10 @@
         <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
@@ -4740,13 +4808,13 @@
         <v>123</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -4769,7 +4837,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4807,7 +4875,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -4845,7 +4913,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -4883,7 +4951,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -4898,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -4921,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -4977,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -5015,10 +5083,10 @@
         <v>160</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -5088,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -5111,7 +5179,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5120,10 +5188,10 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5152,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5187,7 +5255,7 @@
         <v>243</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5222,7 +5290,7 @@
         <v>243</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5239,7 +5307,7 @@
         <v>53</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -5254,10 +5322,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5274,7 +5342,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5289,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5306,7 +5374,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>10</v>
@@ -5321,10 +5389,10 @@
         <v>4</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5391,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5423,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5440,7 +5508,7 @@
         <v>86</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>10</v>
@@ -5455,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5557,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5589,7 +5657,7 @@
         <v>4</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -5659,10 +5727,10 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,7 +5832,7 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -5817,16 +5885,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>194</v>
@@ -5869,7 +5937,7 @@
       <c r="G5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -5892,16 +5960,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -5919,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -5930,25 +5998,25 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>385</v>
+        <v>314</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -5968,23 +6036,23 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="12" t="s">
-        <v>385</v>
+      <c r="H8" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6021,7 +6089,7 @@
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -6056,7 +6124,7 @@
       <c r="G10" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="27" t="s">
@@ -6080,16 +6148,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
@@ -6104,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6115,16 +6183,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>194</v>
@@ -6167,10 +6235,10 @@
       <c r="G13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -6205,10 +6273,10 @@
       <c r="G14" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -6218,7 +6286,7 @@
         <v>219</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6244,9 +6312,9 @@
         <v>14</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -6270,16 +6338,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>194</v>
@@ -6351,10 +6419,10 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6527,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6559,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6591,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6620,7 +6688,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6658,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6766,7 +6834,7 @@
         <v>243</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -6783,7 +6851,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -6798,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -6815,7 +6883,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -6830,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -6847,7 +6915,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -6862,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -6870,16 +6938,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -6894,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -6961,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -6969,13 +7037,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>194</v>
@@ -6990,7 +7058,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7022,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7042,10 +7110,10 @@
         <v>247</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7063,10 +7131,10 @@
         <v>178</v>
       </c>
       <c r="M20" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7136,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -7144,31 +7212,31 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="L23" s="13"/>
       <c r="Q23" s="12" t="s">
@@ -7180,31 +7248,31 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="L24" s="13"/>
       <c r="Q24" s="12" t="s">
@@ -7225,10 +7293,10 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>194</v>
@@ -7246,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -7266,10 +7334,10 @@
         <v>98</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>194</v>
@@ -7287,16 +7355,16 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -7340,13 +7408,13 @@
         <v>123</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -7366,10 +7434,10 @@
         <v>106</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>194</v>
@@ -7387,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -7398,25 +7466,25 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7428,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -7439,13 +7507,13 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>194</v>
@@ -7460,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7489,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -7684,7 +7752,7 @@
         <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7695,7 +7763,7 @@
         <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7711,100 +7779,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
       <c r="B1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>207</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>195</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7823,7 +7847,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,7 +7958,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -7945,11 +7969,11 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -7969,7 +7993,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -7980,11 +8004,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8003,7 +8027,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8013,11 +8037,11 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8036,7 +8060,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8046,10 +8070,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>194</v>
@@ -8061,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8069,10 +8093,10 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>194</v>
@@ -8085,7 +8109,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8093,10 +8117,10 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>194</v>
@@ -8109,7 +8133,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8117,10 +8141,10 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>194</v>
@@ -8133,7 +8157,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8141,15 +8165,15 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>194</v>
@@ -8168,10 +8192,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8201,7 +8225,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8211,10 +8235,10 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
@@ -8227,21 +8251,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>194</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="395">
   <si>
     <t>Type</t>
   </si>
@@ -732,9 +732,6 @@
     <t>assessmentLists</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,type.label}</t>
-  </si>
-  <si>
     <t>sampArea</t>
   </si>
   <si>
@@ -1210,18 +1207,6 @@
   </si>
   <si>
     <t>RESEVAL</t>
-  </si>
-  <si>
-    <t>dcTest</t>
-  </si>
-  <si>
-    <t>Test mode</t>
-  </si>
-  <si>
-    <t>Set to Yes in order to send fake reports (just to test connection)</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -2742,8 +2727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S5" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:S4" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+  <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="130"/>
     <tableColumn id="2" name="code" dataDxfId="129"/>
@@ -2857,10 +2842,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S18" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S18"/>
-  <sortState ref="A2:S18">
-    <sortCondition ref="B1:B18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S19" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S19"/>
+  <sortState ref="A2:S19">
+    <sortCondition ref="R1:R19"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="58"/>
@@ -3255,13 +3240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,53 +3448,6 @@
         <v>3</v>
       </c>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16">
-        <v>4</v>
-      </c>
-      <c r="S5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3889,11 +3827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,7 +3932,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4087,7 +4025,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -4108,10 +4046,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4157,11 +4095,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4199,13 +4137,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>194</v>
@@ -4229,15 +4167,15 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>194</v>
@@ -4268,15 +4206,15 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>272</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>194</v>
@@ -4307,15 +4245,15 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>267</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>194</v>
@@ -4357,11 +4295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4414,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4490,22 +4428,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -4517,16 +4455,16 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>379</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4540,22 +4478,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -4567,22 +4505,22 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>11</v>
@@ -4620,13 +4558,13 @@
         <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>11</v>
@@ -4664,13 +4602,13 @@
         <v>117</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>11</v>
@@ -4699,7 +4637,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -4711,13 +4649,13 @@
         <v>118</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R7" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>11</v>
@@ -4734,10 +4672,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4755,22 +4693,22 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4784,10 +4722,10 @@
         <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>14</v>
@@ -4808,19 +4746,19 @@
         <v>123</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R9" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4837,7 +4775,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4858,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4875,7 +4813,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -4896,7 +4834,7 @@
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4913,7 +4851,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -4934,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4951,7 +4889,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -4966,13 +4904,13 @@
         <v>3</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4989,7 +4927,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -5010,7 +4948,7 @@
         <v>5</v>
       </c>
       <c r="R14" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5045,13 +4983,13 @@
         <v>3</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R15" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5083,16 +5021,16 @@
         <v>160</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5156,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -5179,7 +5117,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5188,10 +5126,10 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5220,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5252,10 +5190,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5287,10 +5225,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5307,7 +5245,7 @@
         <v>53</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -5322,10 +5260,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5342,7 +5280,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5357,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5374,7 +5312,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>10</v>
@@ -5389,10 +5327,10 @@
         <v>4</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5459,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5491,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5508,7 +5446,7 @@
         <v>86</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>10</v>
@@ -5523,7 +5461,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5625,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5657,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -5724,13 +5662,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,7 +5684,7 @@
     <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" style="12" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="12" customWidth="1"/>
     <col min="15" max="16" width="22.85546875" style="12" customWidth="1"/>
@@ -5815,24 +5753,24 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>223</v>
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -5840,61 +5778,82 @@
       </c>
       <c r="J2" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="12">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>194</v>
@@ -5902,10 +5861,10 @@
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -5915,29 +5874,32 @@
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -5946,30 +5908,25 @@
       <c r="J5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -5977,111 +5934,111 @@
       <c r="G6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>310</v>
+      <c r="K6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>314</v>
+        <v>225</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>178</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>179</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27"/>
       <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>194</v>
@@ -6089,8 +6046,8 @@
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>3</v>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>3</v>
@@ -6102,27 +6059,27 @@
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -6133,35 +6090,37 @@
       <c r="J10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>243</v>
-      </c>
+      <c r="K10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
       <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
+      <c r="G11" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6171,151 +6130,149 @@
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>340</v>
+      <c r="K11" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>3</v>
+        <v>312</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
+        <v>314</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="26"/>
       <c r="H13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>3</v>
+        <v>381</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>2</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" t="s">
-        <v>212</v>
+        <v>236</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>218</v>
+      <c r="G14" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" t="s">
-        <v>212</v>
+        <v>302</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>3</v>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>3</v>
@@ -6324,30 +6281,27 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>194</v>
@@ -6371,26 +6325,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>244</v>
+        <v>323</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>193</v>
@@ -6402,6 +6374,23 @@
         <v>4</v>
       </c>
       <c r="Q18" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6528,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6595,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6627,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6635,13 +6624,13 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>194</v>
@@ -6659,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6688,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6726,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6758,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -6790,7 +6779,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>11</v>
@@ -6798,43 +6787,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>243</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -6851,7 +6840,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -6866,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -6883,7 +6872,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -6898,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -6915,7 +6904,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -6930,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -6938,16 +6927,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -6962,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -7029,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -7037,13 +7026,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>301</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>194</v>
@@ -7058,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7090,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7107,13 +7096,13 @@
         <v>86</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7131,10 +7120,10 @@
         <v>178</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7169,10 +7158,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -7204,7 +7193,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -7212,31 +7201,31 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L23" s="13"/>
       <c r="Q23" s="12" t="s">
@@ -7248,31 +7237,31 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L24" s="13"/>
       <c r="Q24" s="12" t="s">
@@ -7293,10 +7282,10 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>194</v>
@@ -7314,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -7334,10 +7323,10 @@
         <v>98</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>194</v>
@@ -7355,16 +7344,16 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -7408,13 +7397,13 @@
         <v>123</v>
       </c>
       <c r="L27" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="N27" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="P27" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -7434,10 +7423,10 @@
         <v>106</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>194</v>
@@ -7455,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -7466,25 +7455,25 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>284</v>
-      </c>
       <c r="C29" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7496,7 +7485,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -7507,13 +7496,13 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="C30" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>194</v>
@@ -7528,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7536,13 +7525,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>194</v>
@@ -7557,7 +7546,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -7565,7 +7554,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>193</v>
@@ -7582,7 +7571,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>193</v>
@@ -7645,7 +7634,7 @@
         <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7653,7 +7642,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7664,7 +7653,7 @@
         <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7716,10 +7705,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7730,7 +7719,7 @@
         <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7741,7 +7730,7 @@
         <v>191</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7752,7 +7741,7 @@
         <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7763,7 +7752,7 @@
         <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7823,12 +7812,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7958,7 +7947,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -7969,11 +7958,11 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -7993,7 +7982,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8004,11 +7993,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8027,7 +8016,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8037,11 +8026,11 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8060,7 +8049,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8070,10 +8059,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>194</v>
@@ -8085,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8093,10 +8082,10 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>194</v>
@@ -8109,7 +8098,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8117,10 +8106,10 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>194</v>
@@ -8133,7 +8122,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8141,10 +8130,10 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>194</v>
@@ -8157,7 +8146,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8165,15 +8154,15 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>194</v>
@@ -8192,10 +8181,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8225,7 +8214,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8235,10 +8224,10 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
@@ -8251,21 +8240,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>383</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>384</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>194</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="13530" windowHeight="6015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="13530" windowHeight="5895" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="398">
   <si>
     <t>Type</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==SCRAPIE),Yes,No)</t>
-  </si>
-  <si>
     <t>First test</t>
   </si>
   <si>
@@ -1149,9 +1146,6 @@
     <t>(%anMethType.code==AT13A)</t>
   </si>
   <si>
-    <t>A04MQ#%source.code$%part.code$%prod.code$%animage.code</t>
-  </si>
-  <si>
     <t>birthCountry=RELATION{CasesInformation,birthCountry.code}|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
   </si>
   <si>
@@ -1167,9 +1161,6 @@
     <t>%type.label</t>
   </si>
   <si>
-    <t>(RELATION{SummarizedInformation,prod.code}!=F21.A07RY)</t>
-  </si>
-  <si>
     <t>opType</t>
   </si>
   <si>
@@ -1194,9 +1185,6 @@
     <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
   </si>
   <si>
-    <t>RF-00004628-PAR|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
-  </si>
-  <si>
     <t>RES|_ZERO_PADDING({rowId},6)</t>
   </si>
   <si>
@@ -1207,6 +1195,27 @@
   </si>
   <si>
     <t>RESEVAL</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code$%animage.code</t>
+  </si>
+  <si>
+    <t>(%sampAnAsses.code!=J051A)</t>
+  </si>
+  <si>
+    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))</t>
+  </si>
+  <si>
+    <t>paramCodeBaseTerm</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
+  </si>
+  <si>
+    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==SCRAPIE)</t>
   </si>
 </sst>
 </file>
@@ -2811,8 +2820,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S35" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S35"/>
   <sortState ref="A2:S36">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -2873,8 +2882,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:R34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R35" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:R35"/>
   <sortState ref="A2:R37">
     <sortCondition ref="B1:B37"/>
   </sortState>
@@ -4049,7 +4058,7 @@
         <v>332</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4137,13 +4146,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>194</v>
@@ -4293,13 +4302,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,7 +4423,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4458,10 +4467,10 @@
         <v>121</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>129</v>
@@ -4478,22 +4487,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -4505,22 +4514,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>11</v>
@@ -4528,22 +4531,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
@@ -4555,16 +4558,16 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>11</v>
@@ -4572,25 +4575,28 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>3</v>
+        <v>370</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -4599,16 +4605,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="R6" s="12">
         <v>5</v>
-      </c>
-      <c r="R6" s="12">
-        <v>4</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>11</v>
@@ -4616,28 +4622,28 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>371</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -4646,42 +4652,45 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>368</v>
       </c>
+      <c r="M7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>286</v>
+      </c>
       <c r="Q7" s="12" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="R7" s="12">
-        <v>5</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>3</v>
@@ -4693,45 +4702,42 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>353</v>
+        <v>123</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>357</v>
+        <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -4742,37 +4748,28 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>363</v>
+      <c r="O9" s="12">
+        <v>0</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>261</v>
@@ -4796,21 +4793,21 @@
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>261</v>
@@ -4834,21 +4831,21 @@
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>261</v>
@@ -4860,33 +4857,33 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
+      <c r="P12" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>261</v>
@@ -4898,36 +4895,39 @@
         <v>3</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>362</v>
+      <c r="O13" s="12">
+        <v>0</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -4936,45 +4936,39 @@
         <v>3</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="12">
-        <v>0</v>
+      <c r="O14" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -4982,72 +4976,72 @@
       <c r="J15" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="K15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="O15" s="12" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -5058,11 +5052,8 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>16</v>
+      <c r="P17" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5070,13 +5061,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>194</v>
@@ -5085,7 +5076,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5094,21 +5085,21 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>194</v>
@@ -5117,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5129,24 +5120,24 @@
         <v>365</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>3</v>
@@ -5157,8 +5148,11 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N20" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="P20" s="12" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5166,13 +5160,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>194</v>
@@ -5201,19 +5195,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -5225,10 +5219,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5236,13 +5230,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>261</v>
@@ -5259,11 +5253,8 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="P23" s="12" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5271,13 +5262,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>261</v>
@@ -5294,8 +5285,11 @@
       <c r="J24" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N24" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="P24" s="12" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5303,19 +5297,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -5326,11 +5320,11 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>330</v>
+      <c r="M25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5338,19 +5332,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5361,11 +5355,8 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>63</v>
+      <c r="P26" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5373,19 +5364,19 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -5397,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5405,16 +5396,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5429,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5437,19 +5428,19 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -5460,8 +5451,11 @@
       <c r="J29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>360</v>
+      <c r="M29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5469,19 +5463,19 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5493,10 +5487,10 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -5504,19 +5498,19 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -5527,11 +5521,8 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>94</v>
+      <c r="P31" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5539,13 +5530,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>194</v>
@@ -5562,8 +5553,8 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>367</v>
+      <c r="O32" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5571,22 +5562,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5594,16 +5573,13 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="Q33" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>193</v>
@@ -5620,7 +5596,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>193</v>
@@ -5632,23 +5608,6 @@
         <v>4</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5665,10 +5624,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,7 +5727,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5827,7 +5786,7 @@
         <v>337</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -5862,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>3</v>
@@ -5935,7 +5894,7 @@
         <v>218</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>3</v>
@@ -5976,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -6082,7 +6041,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6110,10 +6069,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
@@ -6160,7 +6119,7 @@
         <v>313</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>3</v>
@@ -6196,7 +6155,7 @@
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="29" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>3</v>
@@ -6234,7 +6193,7 @@
         <v>240</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>3</v>
@@ -6405,13 +6364,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,7 +6476,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6677,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -7169,13 +7128,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>92</v>
+        <v>394</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>396</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>194</v>
@@ -7192,147 +7148,135 @@
       <c r="J22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="Q22" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>294</v>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>374</v>
+        <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="Q23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L24" s="13"/>
       <c r="Q24" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>3</v>
+        <v>373</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>3</v>
+        <v>397</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>341</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="Q25" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R25" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -7343,46 +7287,37 @@
       <c r="J26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="O26" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R26" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -7394,45 +7329,45 @@
         <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>123</v>
+        <v>353</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>336</v>
+        <v>354</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R27" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
@@ -7443,37 +7378,46 @@
       <c r="J28" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="K28" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="O28" s="12" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R28" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7484,54 +7428,66 @@
       <c r="J29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>278</v>
+      <c r="O29" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R29" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>194</v>
@@ -7545,33 +7501,45 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="M31" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="Q31" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>193</v>
@@ -7588,7 +7556,7 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>193</v>
@@ -7600,6 +7568,23 @@
         <v>4</v>
       </c>
       <c r="Q34" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7836,7 +7821,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,7 +8147,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>194</v>
@@ -8184,7 +8169,7 @@
         <v>345</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8243,18 +8228,18 @@
         <v>346</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>194</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="399">
   <si>
     <t>Type</t>
   </si>
@@ -1216,6 +1216,9 @@
   </si>
   <si>
     <t>(RELATION{SummarizedInformation,type.code}==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>Zoonotic Agent</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4311,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,10 +6370,10 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7130,6 +7133,9 @@
       <c r="A22" s="12" t="s">
         <v>394</v>
       </c>
+      <c r="D22" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="E22" s="28" t="s">
         <v>396</v>
       </c>
@@ -7143,10 +7149,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="13530" windowHeight="5895" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="419">
   <si>
     <t>Type</t>
   </si>
@@ -429,27 +429,18 @@
     <t>Screening BSE</t>
   </si>
   <si>
-    <t>Preferred screening method used for BSE</t>
-  </si>
-  <si>
     <t>defScreeningSCRAPIE</t>
   </si>
   <si>
     <t>Screening SCRAPIE</t>
   </si>
   <si>
-    <t>Preferred screening method used for SCRAPIE</t>
-  </si>
-  <si>
     <t>defScreeningCWD</t>
   </si>
   <si>
     <t>Screening CWD</t>
   </si>
   <si>
-    <t>Preferred screening method used for CWD</t>
-  </si>
-  <si>
     <t>defConfirmatoryBSE</t>
   </si>
   <si>
@@ -834,9 +825,6 @@
     <t>dcCode</t>
   </si>
   <si>
-    <t>{app.dcCode}</t>
-  </si>
-  <si>
     <t>reportDatasetId</t>
   </si>
   <si>
@@ -1059,9 +1047,6 @@
     <t>RELATION{Report,reportSenderId.code}|-|today.timestamp</t>
   </si>
   <si>
-    <t>RELATION{Report,reportSenderId.label}</t>
-  </si>
-  <si>
     <t>RELATION{Report,reportDatasetId.label}</t>
   </si>
   <si>
@@ -1167,15 +1152,9 @@
     <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
   </si>
   <si>
-    <t>(%opType.label!=Insert)</t>
-  </si>
-  <si>
     <t>for reject/submit should be not inserted</t>
   </si>
   <si>
-    <t>IF(((%opType.label==Reject)OR(%opType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
     <t>reportVersion</t>
   </si>
   <si>
@@ -1218,7 +1197,88 @@
     <t>(RELATION{SummarizedInformation,type.code}==SCRAPIE)</t>
   </si>
   <si>
-    <t>Zoonotic Agent</t>
+    <t>Preferred rapid test used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for CWD</t>
+  </si>
+  <si>
+    <t>pref8</t>
+  </si>
+  <si>
+    <t>pref9</t>
+  </si>
+  <si>
+    <t>pref10</t>
+  </si>
+  <si>
+    <t>defDiscriminatorySCRAPIE</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryCWD</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryBSE</t>
+  </si>
+  <si>
+    <t>Discriminatory BSE</t>
+  </si>
+  <si>
+    <t>Discriminatory SCRAPIE</t>
+  </si>
+  <si>
+    <t>Discriminatory CWD</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for CWD</t>
+  </si>
+  <si>
+    <t>resultsLists</t>
+  </si>
+  <si>
+    <t>testAim</t>
+  </si>
+  <si>
+    <t>Test aim</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%anMethType.code!=AT13A)</t>
+  </si>
+  <si>
+    <t>preferencesHelp.html</t>
+  </si>
+  <si>
+    <t>internalOpType</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.label},TEST_|RELATION{Settings,username.code})</t>
+  </si>
+  <si>
+    <t>(%internalOpType.label!=Insert)</t>
+  </si>
+  <si>
+    <t>IF(((%internalOpType.label==Reject)OR(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
+  </si>
+  <si>
+    <t>childrenContainErrors</t>
+  </si>
+  <si>
+    <t>Automatically FILLED, special field</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1377,6 +1437,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,8 +2834,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S8" totalsRowShown="0" headerRowDxfId="111">
-  <autoFilter ref="A1:S8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:S11" totalsRowShown="0" headerRowDxfId="111">
+  <autoFilter ref="A1:S11"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="110"/>
     <tableColumn id="2" name="code"/>
@@ -2823,8 +2890,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S35" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S36"/>
   <sortState ref="A2:S36">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -2854,8 +2921,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S19" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S20" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S20"/>
   <sortState ref="A2:S19">
     <sortCondition ref="R1:R19"/>
   </sortState>
@@ -2885,8 +2952,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R35" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:R35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:R36"/>
   <sortState ref="A2:R37">
     <sortCondition ref="B1:B37"/>
   </sortState>
@@ -2938,8 +3005,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:S15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table310" displayName="Table310" ref="A1:S16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:S16"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="16"/>
     <tableColumn id="2" name="code" dataDxfId="15"/>
@@ -3314,49 +3381,49 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -3381,23 +3448,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -3422,23 +3489,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>11</v>
@@ -3472,13 +3539,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,28 +3600,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3562,7 +3629,7 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>131</v>
@@ -3586,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3598,14 +3665,14 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -3626,7 +3693,7 @@
         <v>123</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3634,17 +3701,17 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>138</v>
+        <v>392</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -3665,7 +3732,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3673,17 +3740,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -3704,7 +3771,7 @@
         <v>123</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3712,17 +3779,17 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -3731,7 +3798,7 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>11</v>
@@ -3743,7 +3810,7 @@
         <v>123</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3751,17 +3818,17 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -3770,7 +3837,7 @@
         <v>104</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>11</v>
@@ -3782,7 +3849,7 @@
         <v>123</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3790,17 +3857,17 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -3809,7 +3876,7 @@
         <v>104</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>11</v>
@@ -3821,11 +3888,134 @@
         <v>123</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,49 +4092,49 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -3956,15 +4146,15 @@
         <v>11</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -3979,23 +4169,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -4007,15 +4197,15 @@
         <v>11</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4030,18 +4220,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4058,10 +4248,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4078,7 +4268,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -4103,15 +4293,15 @@
         <v>11</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4126,10 +4316,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4149,16 +4339,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4179,18 +4369,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4218,18 +4408,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4257,18 +4447,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4305,13 +4495,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,28 +4560,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4426,7 +4616,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4470,10 +4660,10 @@
         <v>121</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>129</v>
@@ -4520,7 +4710,7 @@
         <v>122</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4564,7 +4754,7 @@
         <v>117</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4599,7 +4789,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -4611,10 +4801,10 @@
         <v>118</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="R6" s="12">
         <v>5</v>
@@ -4634,10 +4824,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -4655,16 +4845,16 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -4684,10 +4874,10 @@
         <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4708,13 +4898,13 @@
         <v>123</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4737,7 +4927,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -4775,7 +4965,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4813,7 +5003,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -4851,7 +5041,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -4866,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -4889,7 +5079,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -4930,7 +5120,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -4945,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -4959,7 +5149,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>0</v>
@@ -4968,10 +5158,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -4980,13 +5170,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -5006,7 +5196,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>15</v>
@@ -5041,7 +5231,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -5056,7 +5246,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5073,13 +5263,13 @@
         <v>39</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5088,10 +5278,10 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5105,7 +5295,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
@@ -5120,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -5137,7 +5327,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>49</v>
@@ -5152,10 +5342,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5172,7 +5362,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>49</v>
@@ -5187,10 +5377,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5207,7 +5397,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>10</v>
@@ -5222,10 +5412,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5242,7 +5432,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -5257,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5274,7 +5464,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5289,10 +5479,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5309,7 +5499,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>62</v>
@@ -5344,7 +5534,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>66</v>
@@ -5359,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5376,7 +5566,7 @@
         <v>84</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>10</v>
@@ -5391,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5408,7 +5598,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5423,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5440,7 +5630,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>89</v>
@@ -5475,7 +5665,7 @@
         <v>92</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>93</v>
@@ -5510,7 +5700,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>10</v>
@@ -5525,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5542,7 +5732,7 @@
         <v>106</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>10</v>
@@ -5557,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5565,10 +5755,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5582,10 +5772,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -5599,10 +5789,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -5611,6 +5801,29 @@
         <v>4</v>
       </c>
       <c r="Q35" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5624,13 +5837,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,48 +5902,48 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5742,10 +5955,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5786,10 +5999,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -5806,25 +6019,25 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>3</v>
@@ -5850,13 +6063,13 @@
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -5879,25 +6092,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>3</v>
@@ -5906,10 +6119,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -5920,25 +6133,25 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -5955,19 +6168,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -5991,19 +6204,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -6026,16 +6239,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
@@ -6044,7 +6257,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6053,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -6066,22 +6279,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -6093,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6104,25 +6317,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>3</v>
@@ -6131,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -6142,23 +6355,23 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>3</v>
@@ -6167,7 +6380,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6178,25 +6391,25 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>3</v>
@@ -6205,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6219,16 +6432,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>14</v>
@@ -6243,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6254,19 +6467,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -6289,19 +6502,19 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -6324,10 +6537,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6341,10 +6554,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6354,6 +6567,29 @@
       </c>
       <c r="Q19" s="12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6367,13 +6603,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,10 +6622,10 @@
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" style="12" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" style="12" customWidth="1"/>
     <col min="11" max="11" width="17" style="12" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="67.140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="12" customWidth="1"/>
     <col min="14" max="14" width="50.7109375" style="12" customWidth="1"/>
     <col min="15" max="15" width="20" style="12" customWidth="1"/>
@@ -6432,25 +6668,25 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
@@ -6479,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6496,7 +6732,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
@@ -6531,7 +6767,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
@@ -6546,7 +6782,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6563,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -6578,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6586,16 +6822,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
@@ -6610,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6627,7 +6863,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6639,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6656,13 +6892,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -6677,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6694,7 +6930,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>49</v>
@@ -6709,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -6726,7 +6962,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>49</v>
@@ -6741,7 +6977,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>11</v>
@@ -6749,25 +6985,25 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -6779,13 +7015,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -6802,7 +7038,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -6817,7 +7053,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -6834,7 +7070,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -6849,7 +7085,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -6866,7 +7102,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -6881,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -6889,16 +7125,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -6913,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -6930,7 +7166,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>62</v>
@@ -6965,7 +7201,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>66</v>
@@ -6980,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -6988,16 +7224,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7009,7 +7245,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7026,7 +7262,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
@@ -7041,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7058,13 +7294,13 @@
         <v>86</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7079,13 +7315,13 @@
         <v>3</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7105,7 +7341,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>89</v>
@@ -7120,10 +7356,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -7131,28 +7367,31 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>
@@ -7160,22 +7399,13 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>10</v>
+        <v>387</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>4</v>
@@ -7183,147 +7413,138 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="Q23" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>294</v>
+      <c r="C24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>14</v>
+        <v>191</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>373</v>
+        <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>397</v>
+        <v>4</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L24" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>388</v>
+      </c>
       <c r="Q24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L25" s="13"/>
       <c r="Q25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R25" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>3</v>
+        <v>368</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>3</v>
+        <v>390</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>341</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L26" s="13"/>
       <c r="Q26" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R26" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -7334,46 +7555,37 @@
       <c r="J27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="O27" s="12" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R27" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
@@ -7385,45 +7597,45 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>123</v>
+        <v>348</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R28" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7434,25 +7646,34 @@
       <c r="J29" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="K29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>334</v>
+      </c>
       <c r="O29" s="12" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R29" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>281</v>
@@ -7461,10 +7682,10 @@
         <v>280</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -7475,57 +7696,69 @@
       <c r="J30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>278</v>
+      <c r="O30" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>276</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>194</v>
+        <v>14</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>275</v>
+        <v>3</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7536,19 +7769,28 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>350</v>
+      <c r="M32" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -7556,16 +7798,19 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="P33" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="Q33" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7579,10 +7824,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7591,6 +7836,23 @@
         <v>4</v>
       </c>
       <c r="Q35" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7619,21 +7881,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7641,10 +7903,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7652,10 +7914,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7663,10 +7925,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7674,10 +7936,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7685,10 +7947,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7696,10 +7958,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7707,10 +7969,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7718,10 +7980,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7729,10 +7991,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7740,10 +8002,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7762,7 +8024,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,43 +8034,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7821,13 +8086,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7847,7 +8112,7 @@
     <col min="13" max="13" width="4" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="54.28515625" customWidth="1"/>
+    <col min="16" max="16" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" customWidth="1"/>
@@ -7888,28 +8153,28 @@
         <v>116</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7923,7 +8188,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7938,7 +8203,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -7949,16 +8214,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7973,7 +8238,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -7984,16 +8249,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8007,7 +8272,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8017,16 +8282,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8040,7 +8305,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8050,13 +8315,13 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
@@ -8065,7 +8330,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8073,13 +8338,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8089,7 +8354,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8097,13 +8362,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8113,7 +8378,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8121,13 +8386,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8137,7 +8402,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8145,18 +8410,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8171,27 +8436,27 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16" t="s">
-        <v>345</v>
+      <c r="P10" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8205,7 +8470,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8215,14 +8480,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8231,24 +8496,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>380</v>
+        <v>412</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8258,34 +8520,58 @@
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="420">
   <si>
     <t>Type</t>
   </si>
@@ -636,9 +636,6 @@
     <t>tableName</t>
   </si>
   <si>
-    <t>aggregated_level.html</t>
-  </si>
-  <si>
     <t>naturalKey</t>
   </si>
   <si>
@@ -1044,9 +1041,6 @@
     <t>RELATION{Settings,orgCode.code}</t>
   </si>
   <si>
-    <t>RELATION{Report,reportSenderId.code}|-|today.timestamp</t>
-  </si>
-  <si>
     <t>RELATION{Report,reportDatasetId.label}</t>
   </si>
   <si>
@@ -1257,15 +1251,9 @@
     <t>(%anMethType.code!=AT13A)</t>
   </si>
   <si>
-    <t>preferencesHelp.html</t>
-  </si>
-  <si>
     <t>internalOpType</t>
   </si>
   <si>
-    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.label},TEST_|RELATION{Settings,username.code})</t>
-  </si>
-  <si>
     <t>(%internalOpType.label!=Insert)</t>
   </si>
   <si>
@@ -1279,6 +1267,21 @@
   </si>
   <si>
     <t>Automatically FILLED, special field</t>
+  </si>
+  <si>
+    <t>AggregatedLevel</t>
+  </si>
+  <si>
+    <t>AnalyticalResult</t>
+  </si>
+  <si>
+    <t>CaseLevel</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
   </si>
 </sst>
 </file>
@@ -3387,13 +3390,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3402,7 +3405,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3606,13 +3609,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
@@ -3621,7 +3624,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3672,7 +3675,7 @@
         <v>134</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -3711,7 +3714,7 @@
         <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -3750,7 +3753,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -3896,17 +3899,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>14</v>
@@ -3935,17 +3938,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>14</v>
@@ -3974,17 +3977,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>14</v>
@@ -4098,13 +4101,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -4113,7 +4116,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4134,7 +4137,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4227,7 +4230,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -4248,10 +4251,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4297,11 +4300,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4339,13 +4342,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>191</v>
@@ -4369,15 +4372,15 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>191</v>
@@ -4408,15 +4411,15 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>191</v>
@@ -4447,15 +4450,15 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>262</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>191</v>
@@ -4497,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4566,13 +4569,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -4581,7 +4584,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4616,7 +4619,7 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4660,10 +4663,10 @@
         <v>121</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>129</v>
@@ -4710,7 +4713,7 @@
         <v>122</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4754,7 +4757,7 @@
         <v>117</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4789,7 +4792,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -4801,10 +4804,10 @@
         <v>118</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R6" s="12">
         <v>5</v>
@@ -4824,10 +4827,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -4845,16 +4848,16 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -4874,10 +4877,10 @@
         <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4898,13 +4901,13 @@
         <v>123</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -4927,7 +4930,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -4965,7 +4968,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -5003,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -5041,7 +5044,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -5056,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -5079,7 +5082,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -5135,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -5173,10 +5176,10 @@
         <v>157</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -5246,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5269,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5278,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -5342,10 +5345,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5377,10 +5380,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5397,7 +5400,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>10</v>
@@ -5412,10 +5415,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5432,7 +5435,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -5447,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5464,7 +5467,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5479,10 +5482,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5549,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5581,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5598,7 +5601,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5613,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5715,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5747,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5806,10 +5809,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>191</v>
@@ -5908,13 +5911,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5923,27 +5926,27 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5955,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5999,10 +6002,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -6019,16 +6022,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>191</v>
@@ -6037,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>3</v>
@@ -6063,10 +6066,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>191</v>
@@ -6092,37 +6095,37 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>216</v>
-      </c>
       <c r="L6" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -6133,16 +6136,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>191</v>
@@ -6151,7 +6154,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -6168,16 +6171,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>191</v>
@@ -6204,16 +6207,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>191</v>
@@ -6239,16 +6242,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
@@ -6257,7 +6260,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6279,22 +6282,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -6306,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6317,25 +6320,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>3</v>
@@ -6355,23 +6358,23 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>3</v>
@@ -6391,37 +6394,37 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6432,16 +6435,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="D15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>14</v>
@@ -6456,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6467,16 +6470,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>191</v>
@@ -6502,16 +6505,16 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>191</v>
@@ -6537,7 +6540,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>190</v>
@@ -6571,10 +6574,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>191</v>
@@ -6674,13 +6677,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -6715,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6782,7 +6785,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6814,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6822,13 +6825,13 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>191</v>
@@ -6846,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6875,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6892,10 +6895,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>191</v>
@@ -6913,7 +6916,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6945,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -6977,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>11</v>
@@ -6985,43 +6988,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -7038,7 +7041,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -7053,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -7070,7 +7073,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -7085,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -7102,7 +7105,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -7117,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -7125,16 +7128,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -7149,7 +7152,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -7216,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -7224,13 +7227,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>296</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>191</v>
@@ -7245,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7277,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7294,13 +7297,13 @@
         <v>86</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7318,10 +7321,10 @@
         <v>175</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7356,10 +7359,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -7367,10 +7370,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>191</v>
@@ -7379,7 +7382,7 @@
         <v>93</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>3</v>
@@ -7388,10 +7391,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>
@@ -7399,10 +7402,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>389</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>4</v>
@@ -7428,7 +7431,7 @@
         <v>92</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>191</v>
@@ -7446,7 +7449,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -7454,31 +7457,31 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L25" s="13"/>
       <c r="Q25" s="12" t="s">
@@ -7490,31 +7493,31 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L26" s="13"/>
       <c r="Q26" s="12" t="s">
@@ -7535,10 +7538,10 @@
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>191</v>
@@ -7556,7 +7559,7 @@
         <v>3</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -7576,10 +7579,10 @@
         <v>98</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>191</v>
@@ -7597,16 +7600,16 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -7650,13 +7653,13 @@
         <v>123</v>
       </c>
       <c r="L29" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="O29" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -7676,10 +7679,10 @@
         <v>106</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>191</v>
@@ -7697,7 +7700,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7708,25 +7711,25 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>279</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7738,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -7749,13 +7752,13 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>191</v>
@@ -7770,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -7778,13 +7781,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>191</v>
@@ -7799,7 +7802,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -7807,7 +7810,7 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>190</v>
@@ -7824,7 +7827,7 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>190</v>
@@ -7887,7 +7890,7 @@
         <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7895,7 +7898,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7906,7 +7909,7 @@
         <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7958,10 +7961,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7972,7 +7975,7 @@
         <v>187</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7983,7 +7986,7 @@
         <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7994,7 +7997,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8005,7 +8008,7 @@
         <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8024,7 +8027,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8045,35 +8048,47 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -8088,11 +8103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8159,13 +8174,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -8174,7 +8189,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8203,7 +8218,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8214,11 +8229,11 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8238,7 +8253,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8249,11 +8264,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8272,7 +8287,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8282,11 +8297,11 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8305,7 +8320,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8315,10 +8330,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>191</v>
@@ -8330,7 +8345,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8338,10 +8353,10 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>191</v>
@@ -8354,7 +8369,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8362,10 +8377,10 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>191</v>
@@ -8378,7 +8393,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8386,10 +8401,10 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>191</v>
@@ -8402,7 +8417,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8410,15 +8425,15 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>191</v>
@@ -8437,10 +8452,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8470,7 +8485,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8480,10 +8495,10 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
@@ -8496,18 +8511,18 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>191</v>
@@ -8525,13 +8540,13 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>191</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="420">
   <si>
     <t>Type</t>
   </si>
@@ -507,15 +507,6 @@
     <t>picklistFilter</t>
   </si>
   <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>SCRAPIE</t>
-  </si>
-  <si>
-    <t>CWD</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -849,9 +840,6 @@
     <t>POSNEG</t>
   </si>
   <si>
-    <t>Result of the applied test</t>
-  </si>
-  <si>
     <t>Test Result</t>
   </si>
   <si>
@@ -1011,33 +999,15 @@
     <t>RELATION{Preferences,country.label}</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,sampMatCode.label}</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(RELATION{CasesInformation,breed.label},com=RELATION{CasesInformation,breed.label},)</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,anMethCode.label}</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,type.code}</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,anMethCode.code}</t>
-  </si>
-  <si>
     <t>daysList</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,animalId.label}</t>
-  </si>
-  <si>
-    <t>AT06A|.|RELATION{SummarizedInformation,anMethCode.code}</t>
-  </si>
-  <si>
-    <t>animalId=RELATION{CasesInformation,animalId.code}|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
-  </si>
-  <si>
     <t>RELATION{Settings,orgCode.code}</t>
   </si>
   <si>
@@ -1053,9 +1023,6 @@
     <t>{app.dcTable}</t>
   </si>
   <si>
-    <t>tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}|$tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}|$sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
     <t>Type of the first executed test</t>
   </si>
   <si>
@@ -1065,9 +1032,6 @@
     <t>anMethTypesLists</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>First test</t>
   </si>
   <si>
@@ -1113,9 +1077,6 @@
     <t>IF_NOT_NULL(%statusHerd.code,yes,no)</t>
   </si>
   <si>
-    <t>(%type.code == SCRAPIE)</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(%statusHerd.code,Yes,No)</t>
   </si>
   <si>
@@ -1125,9 +1086,6 @@
     <t>(%anMethType.code==AT13A)</t>
   </si>
   <si>
-    <t>birthCountry=RELATION{CasesInformation,birthCountry.code}|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}</t>
   </si>
   <si>
@@ -1242,9 +1200,6 @@
     <t>testAim</t>
   </si>
   <si>
-    <t>Test aim</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
   </si>
   <si>
@@ -1282,6 +1237,51 @@
   </si>
   <si>
     <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
+  </si>
+  <si>
+    <t>BSE$AT06A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT06A</t>
+  </si>
+  <si>
+    <t>CWD$AT06A</t>
+  </si>
+  <si>
+    <t>BSE$AT08A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT08A</t>
+  </si>
+  <si>
+    <t>CWD$AT08A</t>
+  </si>
+  <si>
+    <t>BSE$AT12A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT12A</t>
+  </si>
+  <si>
+    <t>CWD$AT12A</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
   </si>
 </sst>
 </file>
@@ -3390,13 +3390,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -3405,7 +3405,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3417,13 +3417,13 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>153</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>152</v>
@@ -3492,20 +3492,20 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>153</v>
@@ -3548,7 +3548,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,13 +3609,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>115</v>
@@ -3624,7 +3624,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>131</v>
@@ -3668,14 +3668,14 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -3696,7 +3696,7 @@
         <v>123</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3707,14 +3707,14 @@
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -3735,7 +3735,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3746,14 +3746,14 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -3774,7 +3774,7 @@
         <v>123</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3785,7 +3785,7 @@
         <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
@@ -3813,7 +3813,7 @@
         <v>123</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3824,7 +3824,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
@@ -3852,7 +3852,7 @@
         <v>123</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3863,7 +3863,7 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
@@ -3891,7 +3891,7 @@
         <v>123</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>163</v>
+        <v>410</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3899,17 +3899,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>14</v>
@@ -3930,7 +3930,7 @@
         <v>123</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3938,17 +3938,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>14</v>
@@ -3969,7 +3969,7 @@
         <v>123</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3977,17 +3977,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>14</v>
@@ -4008,7 +4008,7 @@
         <v>123</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -4101,13 +4101,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -4116,28 +4116,28 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4149,15 +4149,15 @@
         <v>11</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4172,17 +4172,17 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
@@ -4200,15 +4200,15 @@
         <v>11</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4223,18 +4223,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4251,10 +4251,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4271,7 +4271,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4319,10 +4319,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4342,16 +4342,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4372,18 +4372,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4411,18 +4411,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4450,18 +4450,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4504,7 +4504,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4569,13 +4569,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -4584,7 +4584,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4619,13 +4619,13 @@
         <v>119</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>11</v>
@@ -4663,10 +4663,10 @@
         <v>121</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>129</v>
@@ -4675,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="R3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>11</v>
@@ -4713,13 +4713,13 @@
         <v>122</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>11</v>
@@ -4757,13 +4757,13 @@
         <v>117</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>11</v>
@@ -4792,7 +4792,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -4804,13 +4804,13 @@
         <v>118</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="R6" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>11</v>
@@ -4827,10 +4827,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -4848,22 +4848,22 @@
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R7" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4877,10 +4877,10 @@
         <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -4901,19 +4901,19 @@
         <v>123</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4930,7 +4930,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -4951,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
@@ -4989,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -5006,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -5059,13 +5059,13 @@
         <v>3</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5082,7 +5082,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -5103,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -5138,13 +5138,13 @@
         <v>3</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5161,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>156</v>
@@ -5176,16 +5176,16 @@
         <v>157</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>15</v>
@@ -5234,7 +5234,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5266,13 +5266,13 @@
         <v>39</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5281,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5298,7 +5298,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
@@ -5313,7 +5313,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -5330,7 +5330,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>49</v>
@@ -5345,10 +5345,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5365,7 +5365,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>49</v>
@@ -5380,10 +5380,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5400,7 +5400,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>10</v>
@@ -5415,10 +5415,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5435,7 +5435,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>10</v>
@@ -5450,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5467,7 +5467,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -5482,10 +5482,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5502,7 +5502,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>62</v>
@@ -5537,7 +5537,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>66</v>
@@ -5552,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5569,7 +5569,7 @@
         <v>84</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>10</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5601,7 +5601,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5633,7 +5633,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>89</v>
@@ -5668,7 +5668,7 @@
         <v>92</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>93</v>
@@ -5703,7 +5703,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>10</v>
@@ -5718,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5735,7 +5735,7 @@
         <v>106</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>10</v>
@@ -5750,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -5809,13 +5809,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -5843,10 +5843,10 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,13 +5911,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -5926,27 +5926,27 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5958,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -6002,10 +6002,10 @@
         <v>120</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>127</v>
@@ -6022,25 +6022,25 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>3</v>
@@ -6066,13 +6066,13 @@
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -6095,25 +6095,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>3</v>
@@ -6122,10 +6122,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -6136,25 +6136,25 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -6171,19 +6171,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -6207,19 +6207,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -6242,16 +6242,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
@@ -6260,7 +6260,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6282,22 +6282,22 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6320,25 +6320,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>3</v>
@@ -6347,7 +6347,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -6358,23 +6358,23 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="29" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>3</v>
@@ -6383,7 +6383,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6394,25 +6394,25 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>3</v>
@@ -6421,10 +6421,10 @@
         <v>3</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6435,16 +6435,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>14</v>
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6470,19 +6470,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -6505,19 +6505,19 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -6540,10 +6540,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6574,13 +6574,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6608,11 +6608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,7 +6626,7 @@
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="51.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="55" style="12" customWidth="1"/>
     <col min="11" max="11" width="17" style="12" customWidth="1"/>
     <col min="12" max="12" width="67.140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="12" customWidth="1"/>
@@ -6677,13 +6677,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -6703,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
@@ -6718,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6735,7 +6735,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
@@ -6770,7 +6770,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
@@ -6785,7 +6785,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6802,7 +6802,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -6817,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6825,16 +6825,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
@@ -6849,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6866,7 +6866,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6878,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6895,13 +6895,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -6916,7 +6916,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6933,7 +6933,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>49</v>
@@ -6948,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -6965,7 +6965,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>49</v>
@@ -6980,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>11</v>
@@ -6988,25 +6988,25 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -7018,13 +7018,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -7041,7 +7041,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -7056,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -7073,7 +7073,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -7088,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -7105,7 +7105,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -7120,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -7128,16 +7128,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -7152,7 +7152,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -7169,7 +7169,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>62</v>
@@ -7204,7 +7204,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>66</v>
@@ -7219,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -7227,16 +7227,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7248,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7265,7 +7265,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7297,13 +7297,13 @@
         <v>86</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7318,19 +7318,19 @@
         <v>3</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R20" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>89</v>
@@ -7359,10 +7359,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -7370,19 +7370,19 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>3</v>
@@ -7391,24 +7391,27 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="R22" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>4</v>
@@ -7431,10 +7434,10 @@
         <v>92</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -7449,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -7457,74 +7460,74 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="L25" s="13"/>
       <c r="Q25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R25" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="L26" s="13"/>
       <c r="Q26" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7538,13 +7541,13 @@
         <v>96</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>10</v>
@@ -7553,19 +7556,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>336</v>
+        <v>4</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="R27" s="12">
-        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7579,13 +7579,13 @@
         <v>98</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>99</v>
@@ -7600,22 +7600,16 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7653,19 +7647,13 @@
         <v>123</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R29" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7679,13 +7667,13 @@
         <v>106</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>10</v>
@@ -7700,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7711,57 +7699,51 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="R31" s="12">
-        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7773,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -7781,16 +7763,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7802,7 +7784,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -7810,10 +7792,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7827,10 +7809,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7844,10 +7826,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7884,21 +7866,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7906,10 +7888,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7917,10 +7899,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7928,10 +7910,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7939,10 +7921,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7950,10 +7932,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7961,10 +7943,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7972,10 +7954,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7983,10 +7965,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7994,10 +7976,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8005,10 +7987,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8037,58 +8019,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -8103,7 +8085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8174,13 +8156,13 @@
         <v>128</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>114</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>115</v>
@@ -8189,7 +8171,7 @@
         <v>158</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8203,7 +8185,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8218,7 +8200,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8229,16 +8211,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8253,7 +8235,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8264,16 +8246,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8287,7 +8269,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8297,16 +8279,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8320,7 +8302,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8330,13 +8312,13 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
@@ -8345,7 +8327,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8353,13 +8335,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8369,7 +8351,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8377,13 +8359,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8393,7 +8375,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8401,13 +8383,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8417,7 +8399,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8425,18 +8407,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8452,26 +8434,26 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8485,7 +8467,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8495,14 +8477,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8511,21 +8493,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8540,16 +8522,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8564,10 +8546,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8578,10 +8560,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -17,12 +17,15 @@
     <sheet name="Tables" sheetId="10" r:id="rId8"/>
     <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="422">
   <si>
     <t>Type</t>
   </si>
@@ -1282,6 +1285,12 @@
   </si>
   <si>
     <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1447,6 +1456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2893,8 +2903,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S36" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S37" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S37"/>
   <sortState ref="A2:S36">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -2926,8 +2936,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S20" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:S20"/>
-  <sortState ref="A2:S19">
-    <sortCondition ref="R1:R19"/>
+  <sortState ref="A2:S20">
+    <sortCondition ref="R1:R20"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="58"/>
@@ -4498,13 +4508,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,66 +4599,63 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>348</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12">
-        <v>2</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -4660,22 +4667,16 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>11</v>
@@ -4683,22 +4684,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -4710,16 +4711,22 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>348</v>
       </c>
+      <c r="M4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>11</v>
@@ -4727,22 +4734,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
@@ -4754,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>348</v>
@@ -4763,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>11</v>
@@ -4771,28 +4778,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -4801,16 +4805,16 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>348</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>351</v>
+        <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>11</v>
@@ -4818,78 +4822,57 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>277</v>
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="12">
-        <v>7</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>3</v>
+        <v>417</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>3</v>
@@ -4898,42 +4881,42 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>343</v>
-      </c>
       <c r="Q8" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -4944,34 +4927,46 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
+      <c r="K9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R9" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>17</v>
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>3</v>
@@ -4982,28 +4977,37 @@
       <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="12">
-        <v>0</v>
+      <c r="K10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R10" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>254</v>
@@ -5027,21 +5031,21 @@
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>254</v>
@@ -5053,33 +5057,33 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>342</v>
+      <c r="O12" s="12">
+        <v>0</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>254</v>
@@ -5103,27 +5107,24 @@
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -5137,72 +5138,75 @@
       <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>365</v>
+      <c r="P14" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R14" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="12">
         <v>0</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -5211,33 +5215,33 @@
         <v>4</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="R16" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -5248,8 +5252,11 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>341</v>
+      <c r="M17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5257,13 +5264,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>188</v>
@@ -5272,7 +5279,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5281,21 +5288,21 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>188</v>
@@ -5304,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5313,27 +5320,27 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>3</v>
@@ -5344,11 +5351,8 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>235</v>
-      </c>
       <c r="P20" s="12" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5356,13 +5360,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>188</v>
@@ -5391,19 +5395,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -5415,10 +5419,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5426,13 +5430,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>254</v>
@@ -5449,8 +5453,11 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N23" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="P23" s="12" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5458,13 +5465,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>254</v>
@@ -5481,11 +5488,8 @@
       <c r="J24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>318</v>
-      </c>
       <c r="P24" s="12" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5493,19 +5497,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -5516,11 +5520,11 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>63</v>
+      <c r="N25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5528,19 +5532,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5551,8 +5555,11 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>368</v>
+      <c r="M26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5560,19 +5567,19 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -5584,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5592,16 +5599,16 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>10</v>
@@ -5616,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5624,19 +5631,19 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -5647,11 +5654,8 @@
       <c r="J29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>90</v>
+      <c r="P29" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5659,19 +5663,19 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5683,10 +5687,10 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -5694,19 +5698,19 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -5717,8 +5721,11 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>347</v>
+      <c r="M31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -5726,13 +5733,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>188</v>
@@ -5749,8 +5756,8 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="12" t="s">
-        <v>352</v>
+      <c r="P32" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -5758,10 +5765,22 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>186</v>
+        <v>106</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5769,13 +5788,16 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="O33" s="12" t="s">
+        <v>352</v>
+      </c>
       <c r="Q33" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>187</v>
@@ -5792,7 +5814,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>187</v>
@@ -5809,31 +5831,49 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="12" t="s">
+      <c r="I37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5843,10 +5883,10 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,24 +6012,24 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -5997,18 +6037,6 @@
       </c>
       <c r="J3" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -6016,37 +6044,46 @@
       <c r="R3" s="12">
         <v>2</v>
       </c>
-      <c r="S3" s="12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -6060,16 +6097,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>45</v>
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>188</v>
@@ -6077,10 +6114,10 @@
       <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -6092,40 +6129,37 @@
       <c r="R5" s="12">
         <v>4</v>
       </c>
+      <c r="S5" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
+        <v>215</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -6136,16 +6170,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>188</v>
@@ -6153,8 +6187,8 @@
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>369</v>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>3</v>
@@ -6162,6 +6196,7 @@
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="K7" s="23"/>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
@@ -6171,16 +6206,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>188</v>
@@ -6207,22 +6242,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>10</v>
+        <v>309</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -6232,6 +6264,9 @@
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6242,22 +6277,22 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>369</v>
@@ -6268,11 +6303,12 @@
       <c r="J10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10"/>
-      <c r="P10"/>
+      <c r="K10" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
@@ -6282,34 +6318,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>338</v>
+        <v>209</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>300</v>
+      <c r="H11" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6320,35 +6359,37 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>304</v>
+      <c r="G12" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>172</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
@@ -6358,32 +6399,34 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="H13" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>173</v>
+      <c r="I13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6394,37 +6437,32 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>233</v>
-      </c>
+      <c r="G14" s="26"/>
       <c r="H14" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>235</v>
+        <v>370</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6435,20 +6473,23 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="G15" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
       </c>
@@ -6458,8 +6499,8 @@
       <c r="J15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>327</v>
+      <c r="K15" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6609,10 +6650,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,7 +7527,9 @@
       <c r="K25" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="13" t="s">
+        <v>420</v>
+      </c>
       <c r="Q25" s="12" t="s">
         <v>5</v>
       </c>
@@ -7522,7 +7565,9 @@
       <c r="K26" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="13" t="s">
+        <v>420</v>
+      </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
       </c>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="420">
   <si>
     <t>Type</t>
   </si>
@@ -153,9 +153,6 @@
     <t>statusHerd</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Status of the herd/flock</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>prod</t>
   </si>
   <si>
-    <t>Prod</t>
-  </si>
-  <si>
     <t>Type of production</t>
   </si>
   <si>
@@ -966,9 +960,6 @@
     <t>Breed detail</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,statusHerd.code}</t>
-  </si>
-  <si>
     <t>evalCom</t>
   </si>
   <si>
@@ -1062,9 +1053,6 @@
     <t>RELATION{Preferences,defScreening%type.code.code}</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(%statusHerd.code,%progId.label,)</t>
-  </si>
-  <si>
     <t>%progId.label</t>
   </si>
   <si>
@@ -1074,15 +1062,6 @@
     <t>%type.code</t>
   </si>
   <si>
-    <t>IF((%tseTargetGroup.code==TG006A),TG006A,RAPID)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,yes,no)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,Yes,No)</t>
-  </si>
-  <si>
     <t>%progId.label|.0</t>
   </si>
   <si>
@@ -1119,9 +1098,6 @@
     <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
   </si>
   <si>
-    <t>RES|_ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
     <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
   </si>
   <si>
@@ -1278,19 +1254,37 @@
     <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
   </si>
   <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
   </si>
   <si>
     <t>RELATION{SummarizedInformation,source.code}</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+    <t>IF_NOT_NULL(%tseTargetGroup.code,IF((%tseTargetGroup.code==TG006A),TG006A,RAPID),)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%anMethType.code,%type.code$%anMethType.code,)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{CasesInformation,statusHerd.code},$statusHerd=RELATION{CasesInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd status</t>
+  </si>
+  <si>
+    <t>Farmed/Wild</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%statusHerd.code</t>
   </si>
 </sst>
 </file>
@@ -2903,8 +2897,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S37" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S34" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S34"/>
   <sortState ref="A2:S36">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -2934,8 +2928,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S20" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S21"/>
   <sortState ref="A2:S20">
     <sortCondition ref="R1:R20"/>
   </sortState>
@@ -3361,82 +3355,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -3461,23 +3455,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -3502,23 +3496,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>11</v>
@@ -3558,7 +3552,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3561,7 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
@@ -3580,81 +3574,81 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>11</v>
@@ -3666,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3675,23 +3669,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>11</v>
@@ -3703,10 +3697,10 @@
         <v>11</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3714,23 +3708,23 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>11</v>
@@ -3742,10 +3736,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3753,23 +3747,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>11</v>
@@ -3781,10 +3775,10 @@
         <v>11</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3792,23 +3786,23 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>5</v>
@@ -3820,10 +3814,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3831,23 +3825,23 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -3859,10 +3853,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3870,23 +3864,23 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -3898,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3909,23 +3903,23 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
@@ -3937,10 +3931,10 @@
         <v>11</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3948,23 +3942,23 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>11</v>
@@ -3976,10 +3970,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3987,23 +3981,23 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>11</v>
@@ -4015,10 +4009,10 @@
         <v>11</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -4072,82 +4066,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -4159,15 +4153,15 @@
         <v>11</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4182,23 +4176,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>
@@ -4210,15 +4204,15 @@
         <v>11</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4233,18 +4227,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4261,10 +4255,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4278,23 +4272,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>11</v>
@@ -4306,15 +4300,15 @@
         <v>11</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4329,10 +4323,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4352,16 +4346,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4382,18 +4376,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4421,18 +4415,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4460,18 +4454,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4508,13 +4502,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,7 +4516,7 @@
     <col min="1" max="1" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12"/>
     <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
@@ -4530,7 +4524,7 @@
     <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="12" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="12" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="12" customWidth="1"/>
@@ -4540,69 +4534,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
@@ -4611,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>4</v>
@@ -4623,13 +4617,13 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4640,22 +4634,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -4667,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4684,22 +4678,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -4711,16 +4705,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4734,22 +4728,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
@@ -4761,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4805,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4822,57 +4816,78 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>421</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>351</v>
+        <v>11</v>
+      </c>
+      <c r="R7" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>99</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>3</v>
@@ -4881,42 +4896,42 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>348</v>
+        <v>412</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R8" s="12">
-        <v>6</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>333</v>
+        <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -4927,46 +4942,34 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>277</v>
+      <c r="O9" s="12">
+        <v>0</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>336</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>3</v>
@@ -4977,40 +4980,31 @@
       <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>343</v>
+      <c r="O10" s="12">
+        <v>0</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
@@ -5031,24 +5025,24 @@
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -5057,36 +5051,36 @@
         <v>3</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
+      <c r="P12" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -5107,24 +5101,27 @@
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -5138,72 +5135,63 @@
       <c r="J14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>342</v>
+      <c r="O14" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R14" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -5215,33 +5203,30 @@
         <v>4</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>365</v>
+        <v>4</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="R16" s="12">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -5252,11 +5237,8 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>16</v>
+      <c r="P17" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -5264,19 +5246,19 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>3</v>
@@ -5287,8 +5269,11 @@
       <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N18" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="P18" s="12" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -5296,22 +5281,22 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5319,25 +5304,28 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N19" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="P19" s="12" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -5351,8 +5339,11 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N20" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="P20" s="12" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -5360,19 +5351,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
@@ -5383,11 +5374,8 @@
       <c r="J21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>235</v>
-      </c>
       <c r="P21" s="12" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -5395,19 +5383,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -5419,10 +5407,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>11</v>
@@ -5430,19 +5418,19 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -5453,11 +5441,11 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>320</v>
+      <c r="M23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>11</v>
@@ -5465,19 +5453,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
@@ -5489,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -5497,16 +5485,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>10</v>
@@ -5520,11 +5508,8 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>318</v>
-      </c>
       <c r="P25" s="12" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>11</v>
@@ -5532,19 +5517,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5555,11 +5540,8 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>63</v>
+      <c r="P26" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>11</v>
@@ -5567,19 +5549,19 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -5590,8 +5572,11 @@
       <c r="J27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>368</v>
+      <c r="M27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -5599,19 +5584,19 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
@@ -5622,8 +5607,11 @@
       <c r="J28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>346</v>
+      <c r="M28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -5631,16 +5619,16 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>10</v>
@@ -5655,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -5663,19 +5651,19 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5686,11 +5674,8 @@
       <c r="J30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="O30" s="12" t="s">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -5698,22 +5683,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -5721,34 +5694,16 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="Q31" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -5756,31 +5711,16 @@
       <c r="J32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>347</v>
-      </c>
       <c r="Q32" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5788,84 +5728,30 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="12" t="s">
-        <v>352</v>
-      </c>
       <c r="Q33" s="12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="O34" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Q34" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5880,13 +5766,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5912,81 +5798,81 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5998,10 +5884,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -6012,19 +5898,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>10</v>
@@ -6047,22 +5933,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -6074,16 +5960,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -6097,25 +5983,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>3</v>
@@ -6135,25 +6021,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -6170,19 +6056,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
@@ -6206,19 +6092,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>298</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -6237,21 +6123,21 @@
         <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>14</v>
@@ -6266,77 +6152,77 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I11" s="37" t="s">
         <v>3</v>
@@ -6345,39 +6231,39 @@
         <v>3</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6386,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6394,30 +6280,30 @@
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6426,34 +6312,34 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="29" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6462,33 +6348,33 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6500,30 +6386,30 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>312</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>10</v>
@@ -6541,24 +6427,24 @@
         <v>5</v>
       </c>
       <c r="R16" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>10</v>
@@ -6576,15 +6462,15 @@
         <v>5</v>
       </c>
       <c r="R17" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6596,12 +6482,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6613,15 +6499,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6634,6 +6520,50 @@
       </c>
       <c r="Q20" s="12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="12">
+        <v>7</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6649,11 +6579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,58 +6609,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,7 +6674,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
@@ -6759,7 +6689,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -6776,7 +6706,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
@@ -6811,7 +6741,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>10</v>
@@ -6826,7 +6756,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>11</v>
@@ -6843,7 +6773,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -6858,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>11</v>
@@ -6866,16 +6796,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
@@ -6890,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>11</v>
@@ -6898,16 +6828,16 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6919,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>11</v>
@@ -6927,22 +6857,22 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -6957,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>11</v>
@@ -6965,20 +6895,20 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
       </c>
@@ -6989,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>11</v>
@@ -6997,19 +6927,19 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>3</v>
@@ -7021,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>11</v>
@@ -7029,43 +6959,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>235</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>11</v>
@@ -7073,16 +7003,16 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
@@ -7097,7 +7027,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>11</v>
@@ -7105,16 +7035,16 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>10</v>
@@ -7129,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>11</v>
@@ -7137,16 +7067,16 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>10</v>
@@ -7161,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>11</v>
@@ -7169,16 +7099,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>10</v>
@@ -7193,7 +7123,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>11</v>
@@ -7201,34 +7131,34 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="O16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>11</v>
@@ -7236,20 +7166,20 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
       </c>
@@ -7260,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>11</v>
@@ -7268,16 +7198,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7289,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>11</v>
@@ -7297,16 +7227,16 @@
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>10</v>
@@ -7321,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>11</v>
@@ -7329,22 +7259,22 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>10</v>
@@ -7359,13 +7289,13 @@
         <v>3</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M20" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>11</v>
@@ -7376,20 +7306,20 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
       </c>
@@ -7400,10 +7330,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>11</v>
@@ -7411,19 +7341,19 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>3</v>
@@ -7432,10 +7362,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>
@@ -7446,10 +7376,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7459,6 +7389,9 @@
       </c>
       <c r="J23" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -7466,19 +7399,19 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>10</v>
@@ -7493,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>11</v>
@@ -7501,34 +7434,34 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>5</v>
@@ -7539,34 +7472,34 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7577,22 +7510,22 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>10</v>
@@ -7607,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>11</v>
@@ -7615,26 +7548,26 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
       </c>
@@ -7645,10 +7578,10 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>11</v>
@@ -7659,25 +7592,25 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -7689,10 +7622,10 @@
         <v>3</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>11</v>
@@ -7703,22 +7636,22 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>10</v>
@@ -7733,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>11</v>
@@ -7744,22 +7677,22 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7771,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>11</v>
@@ -7779,16 +7712,16 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7800,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>11</v>
@@ -7808,16 +7741,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7829,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>11</v>
@@ -7837,10 +7770,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7854,10 +7787,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7871,10 +7804,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7911,21 +7844,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7933,10 +7866,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -7944,10 +7877,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7955,10 +7888,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7966,10 +7899,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7977,10 +7910,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7988,10 +7921,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7999,10 +7932,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -8010,10 +7943,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -8021,10 +7954,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8032,10 +7965,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8064,58 +7997,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8162,75 +8095,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8245,7 +8178,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8256,16 +8189,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8280,7 +8213,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8291,16 +8224,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8314,7 +8247,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8324,16 +8257,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8347,7 +8280,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8357,13 +8290,13 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
@@ -8372,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8380,13 +8313,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8396,7 +8329,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8404,13 +8337,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8420,7 +8353,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8428,13 +8361,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8444,7 +8377,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8452,18 +8385,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8479,26 +8412,26 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8512,7 +8445,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8522,14 +8455,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8538,21 +8471,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8567,16 +8500,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8591,10 +8524,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8605,10 +8538,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13530" windowHeight="5835" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="13530" windowHeight="5715" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="419">
   <si>
     <t>Type</t>
   </si>
@@ -51,9 +51,6 @@
     <t>progId</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Context ID</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Tested</t>
   </si>
   <si>
-    <t>Number of Tested Samples/Animals</t>
-  </si>
-  <si>
     <t>totSamplesPositive</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Number of Negative Samples</t>
-  </si>
-  <si>
     <t>totSamplesInconclusive</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
     <t>anMethCode</t>
   </si>
   <si>
-    <t>Screening method used</t>
-  </si>
-  <si>
     <t>ANLYMD</t>
   </si>
   <si>
@@ -1029,12 +1017,6 @@
     <t>First test</t>
   </si>
   <si>
-    <t>First test applied</t>
-  </si>
-  <si>
-    <t>Birth in the flock</t>
-  </si>
-  <si>
     <t>Select Yes if the animal was born in the sampled flock.</t>
   </si>
   <si>
@@ -1095,196 +1077,211 @@
     <t>Automatically filled, do not touch</t>
   </si>
   <si>
+    <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>alleleList</t>
+  </si>
+  <si>
+    <t>RESEVAL</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code$%animage.code</t>
+  </si>
+  <si>
+    <t>(%sampAnAsses.code!=J051A)</t>
+  </si>
+  <si>
+    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))</t>
+  </si>
+  <si>
+    <t>paramCodeBaseTerm</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
+  </si>
+  <si>
+    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for CWD</t>
+  </si>
+  <si>
+    <t>pref8</t>
+  </si>
+  <si>
+    <t>pref9</t>
+  </si>
+  <si>
+    <t>pref10</t>
+  </si>
+  <si>
+    <t>defDiscriminatorySCRAPIE</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryCWD</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryBSE</t>
+  </si>
+  <si>
+    <t>Discriminatory BSE</t>
+  </si>
+  <si>
+    <t>Discriminatory SCRAPIE</t>
+  </si>
+  <si>
+    <t>Discriminatory CWD</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for CWD</t>
+  </si>
+  <si>
+    <t>resultsLists</t>
+  </si>
+  <si>
+    <t>testAim</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%anMethType.code!=AT13A)</t>
+  </si>
+  <si>
+    <t>internalOpType</t>
+  </si>
+  <si>
+    <t>(%internalOpType.label!=Insert)</t>
+  </si>
+  <si>
+    <t>IF(((%internalOpType.label==Reject)OR(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
+  </si>
+  <si>
+    <t>childrenContainErrors</t>
+  </si>
+  <si>
+    <t>Automatically FILLED, special field</t>
+  </si>
+  <si>
+    <t>AggregatedLevel</t>
+  </si>
+  <si>
+    <t>AnalyticalResult</t>
+  </si>
+  <si>
+    <t>CaseLevel</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
+  </si>
+  <si>
+    <t>BSE$AT06A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT06A</t>
+  </si>
+  <si>
+    <t>CWD$AT06A</t>
+  </si>
+  <si>
+    <t>BSE$AT08A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT08A</t>
+  </si>
+  <si>
+    <t>CWD$AT08A</t>
+  </si>
+  <si>
+    <t>BSE$AT12A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT12A</t>
+  </si>
+  <si>
+    <t>CWD$AT12A</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%tseTargetGroup.code,IF((%tseTargetGroup.code==TG006A),TG006A,RAPID),)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%anMethType.code,%type.code$%anMethType.code,)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{CasesInformation,statusHerd.code},$statusHerd=RELATION{CasesInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd status</t>
+  </si>
+  <si>
+    <t>Farmed/Wild</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%statusHerd.code</t>
+  </si>
+  <si>
     <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
   </si>
   <si>
-    <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>alleleList</t>
-  </si>
-  <si>
-    <t>RESEVAL</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code$%animage.code</t>
-  </si>
-  <si>
-    <t>(%sampAnAsses.code!=J051A)</t>
-  </si>
-  <si>
-    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))</t>
-  </si>
-  <si>
-    <t>paramCodeBaseTerm</t>
-  </si>
-  <si>
-    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
-  </si>
-  <si>
-    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for CWD</t>
-  </si>
-  <si>
-    <t>pref8</t>
-  </si>
-  <si>
-    <t>pref9</t>
-  </si>
-  <si>
-    <t>pref10</t>
-  </si>
-  <si>
-    <t>defDiscriminatorySCRAPIE</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryCWD</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryBSE</t>
-  </si>
-  <si>
-    <t>Discriminatory BSE</t>
-  </si>
-  <si>
-    <t>Discriminatory SCRAPIE</t>
-  </si>
-  <si>
-    <t>Discriminatory CWD</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for CWD</t>
-  </si>
-  <si>
-    <t>resultsLists</t>
-  </si>
-  <si>
-    <t>testAim</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%anMethType.code!=AT13A)</t>
-  </si>
-  <si>
-    <t>internalOpType</t>
-  </si>
-  <si>
-    <t>(%internalOpType.label!=Insert)</t>
-  </si>
-  <si>
-    <t>IF(((%internalOpType.label==Reject)OR(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
-  </si>
-  <si>
-    <t>childrenContainErrors</t>
-  </si>
-  <si>
-    <t>Automatically FILLED, special field</t>
-  </si>
-  <si>
-    <t>AggregatedLevel</t>
-  </si>
-  <si>
-    <t>AnalyticalResult</t>
-  </si>
-  <si>
-    <t>CaseLevel</t>
-  </si>
-  <si>
-    <t>RELATION{Report,reportSenderId.label}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
-  </si>
-  <si>
-    <t>BSE$AT06A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT06A</t>
-  </si>
-  <si>
-    <t>CWD$AT06A</t>
-  </si>
-  <si>
-    <t>BSE$AT08A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT08A</t>
-  </si>
-  <si>
-    <t>CWD$AT08A</t>
-  </si>
-  <si>
-    <t>BSE$AT12A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT12A</t>
-  </si>
-  <si>
-    <t>CWD$AT12A</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%tseTargetGroup.code,IF((%tseTargetGroup.code==TG006A),TG006A,RAPID),)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%anMethType.code,%type.code$%anMethType.code,)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
-  </si>
-  <si>
-    <t>%paramCodeBaseTerm.code</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{CasesInformation,statusHerd.code},$statusHerd=RELATION{CasesInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
-    <t>Herd status</t>
-  </si>
-  <si>
-    <t>Farmed/Wild</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>%statusHerd.code</t>
+    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
+  </si>
+  <si>
+    <t>Born in the flock</t>
+  </si>
+  <si>
+    <t>First test executed</t>
+  </si>
+  <si>
+    <t>Number of Negative Animals</t>
+  </si>
+  <si>
+    <t>Total number of Tested Samples/Animals</t>
+  </si>
+  <si>
+    <t>Executed test</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,6 +1326,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -1412,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1451,6 +1460,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2960,9 +2971,15 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:R36"/>
-  <sortState ref="A2:R37">
-    <sortCondition ref="B1:B37"/>
+  <autoFilter ref="A1:R36">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A20:R30">
+    <sortCondition ref="R1:R36"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="id" dataDxfId="37"/>
@@ -3355,91 +3372,91 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3455,32 +3472,32 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3496,32 +3513,32 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -3574,93 +3591,93 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3669,38 +3686,38 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3708,38 +3725,38 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3747,38 +3764,38 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3786,38 +3803,38 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3825,38 +3842,38 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3864,38 +3881,38 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3903,38 +3920,38 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3942,38 +3959,38 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3981,38 +3998,38 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -4037,10 +4054,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,102 +4083,102 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4171,48 +4188,48 @@
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4222,27 +4239,27 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>5</v>
@@ -4255,10 +4272,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4272,43 +4289,43 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4318,15 +4335,15 @@
         <v>3</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4346,16 +4363,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4376,18 +4393,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4415,18 +4432,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4454,18 +4471,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4502,13 +4519,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,69 +4554,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
@@ -4605,10 +4625,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>4</v>
@@ -4617,13 +4637,13 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4634,23 +4654,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
@@ -4661,10 +4681,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4673,27 +4693,27 @@
         <v>2</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
@@ -4705,16 +4725,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4723,28 +4743,28 @@
         <v>3</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
       </c>
@@ -4755,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4767,28 +4787,28 @@
         <v>4</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="12" t="s">
         <v>3</v>
       </c>
@@ -4799,10 +4819,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4811,54 +4831,54 @@
         <v>5</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="O7" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R7" s="12">
         <v>7</v>
@@ -4866,49 +4886,49 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="Q8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R8" s="12">
         <v>8</v>
@@ -4916,22 +4936,22 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -4949,27 +4969,27 @@
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>416</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>3</v>
@@ -4987,27 +5007,27 @@
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -5030,22 +5050,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>25</v>
+      <c r="E12" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>3</v>
@@ -5057,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -5068,22 +5088,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>3</v>
@@ -5114,18 +5134,15 @@
       <c r="C14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="12" t="s">
         <v>3</v>
       </c>
@@ -5136,10 +5153,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="12">
         <v>14</v>
@@ -5147,54 +5164,54 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="O15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -5206,27 +5223,27 @@
         <v>4</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -5238,27 +5255,27 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>3</v>
@@ -5270,30 +5287,30 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>3</v>
@@ -5305,30 +5322,30 @@
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>3</v>
@@ -5340,30 +5357,30 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
@@ -5375,27 +5392,27 @@
         <v>4</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -5407,65 +5424,65 @@
         <v>4</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="O23" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
@@ -5477,27 +5494,27 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -5509,27 +5526,27 @@
         <v>4</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5541,97 +5558,97 @@
         <v>4</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="O27" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="O28" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
@@ -5643,27 +5660,27 @@
         <v>4</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5675,18 +5692,18 @@
         <v>4</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -5700,10 +5717,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -5717,10 +5734,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -5734,13 +5751,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -5766,13 +5783,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,81 +5818,81 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -5884,10 +5904,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5898,22 +5918,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>3</v>
@@ -5933,23 +5953,23 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
@@ -5960,16 +5980,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -5978,30 +5998,30 @@
         <v>3</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>3</v>
@@ -6016,30 +6036,30 @@
         <v>4</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -6056,22 +6076,22 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>4</v>
@@ -6092,22 +6112,22 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>4</v>
@@ -6128,19 +6148,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -6152,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6163,37 +6183,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="H10" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -6204,37 +6224,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6245,25 +6265,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6272,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6285,25 +6305,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6312,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6323,23 +6343,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6348,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6359,22 +6379,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>335</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>414</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6386,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6397,22 +6417,22 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>4</v>
@@ -6432,22 +6452,22 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -6467,10 +6487,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6484,10 +6504,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6501,13 +6521,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6524,25 +6544,25 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
@@ -6551,10 +6571,10 @@
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -6563,7 +6583,7 @@
         <v>7</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6577,13 +6597,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,61 +6632,61 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -6674,10 +6697,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>3</v>
@@ -6689,497 +6712,497 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="G11" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B15" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="F17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
       </c>
@@ -7190,24 +7213,24 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7219,27 +7242,27 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>3</v>
@@ -7251,75 +7274,69 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
       </c>
@@ -7330,30 +7347,39 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>383</v>
+        <v>93</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>3</v>
@@ -7362,24 +7388,24 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R22" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7391,30 +7417,30 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
@@ -7426,109 +7452,112 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>283</v>
+        <v>149</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>410</v>
+        <v>117</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R25" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>410</v>
+        <v>375</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -7540,33 +7569,33 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
@@ -7578,121 +7607,115 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>323</v>
+        <v>166</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>413</v>
+        <v>351</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R29" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>418</v>
+        <v>359</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7704,24 +7727,24 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7733,24 +7756,24 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7762,18 +7785,18 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7785,12 +7808,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7802,12 +7825,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7844,21 +7867,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7866,21 +7889,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7888,10 +7911,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7899,21 +7922,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7921,21 +7944,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7943,10 +7966,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7954,10 +7977,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7965,10 +7988,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7997,58 +8020,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8084,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8095,75 +8121,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8178,7 +8204,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8189,16 +8215,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8213,7 +8239,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8224,16 +8250,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8247,7 +8273,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8257,16 +8283,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8280,7 +8306,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8290,13 +8316,13 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
@@ -8305,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8313,13 +8339,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8329,7 +8355,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8337,13 +8363,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8353,7 +8379,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8361,13 +8387,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8377,7 +8403,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8385,18 +8411,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8411,27 +8437,27 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="4" t="s">
-        <v>395</v>
+      <c r="P10" s="39" t="s">
+        <v>413</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8445,7 +8471,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8455,14 +8481,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8471,21 +8497,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8500,16 +8526,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8524,10 +8550,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8538,10 +8564,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="13530" windowHeight="5715" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="13530" windowHeight="5715" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="411">
   <si>
     <t>Type</t>
   </si>
@@ -312,9 +312,6 @@
     <t>ANLYTYP</t>
   </si>
   <si>
-    <t>AT06A</t>
-  </si>
-  <si>
     <t>L.04</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>res ID</t>
   </si>
   <si>
-    <t>Screening</t>
-  </si>
-  <si>
     <t>Type of the executed test</t>
   </si>
   <si>
@@ -1005,36 +999,18 @@
     <t>{app.dcTable}</t>
   </si>
   <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
     <t>anMethTypesLists</t>
   </si>
   <si>
-    <t>First test</t>
-  </si>
-  <si>
     <t>Select Yes if the animal was born in the sampled flock.</t>
   </si>
   <si>
     <t>%repYear.label</t>
   </si>
   <si>
-    <t>tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label</t>
-  </si>
-  <si>
     <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
   </si>
   <si>
-    <t>RELATION{Preferences,defScreening%type.code.label}</t>
-  </si>
-  <si>
-    <t>RELATION{Preferences,defScreening%type.code.code}</t>
-  </si>
-  <si>
     <t>%progId.label</t>
   </si>
   <si>
@@ -1236,12 +1212,6 @@
     <t>RELATION{SummarizedInformation,source.code}</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(%tseTargetGroup.code,IF((%tseTargetGroup.code==TG006A),TG006A,RAPID),)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%anMethType.code,%type.code$%anMethType.code,)</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
@@ -1272,9 +1242,6 @@
     <t>Born in the flock</t>
   </si>
   <si>
-    <t>First test executed</t>
-  </si>
-  <si>
     <t>Number of Negative Animals</t>
   </si>
   <si>
@@ -1282,6 +1249,15 @@
   </si>
   <si>
     <t>Executed test</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,0)</t>
+  </si>
+  <si>
+    <t>(%type.code!=RGT)</t>
+  </si>
+  <si>
+    <t>tseTargetGroup=%tseTargetGroup.code|IF((%type.code!=RGT),$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,12 +1295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1451,7 +1421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1459,9 +1428,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2908,8 +2876,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S34" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S31" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S31"/>
   <sortState ref="A2:S36">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -2971,13 +2939,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:R36">
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R36"/>
   <sortState ref="A20:R30">
     <sortCondition ref="R1:R36"/>
   </sortState>
@@ -3372,82 +3334,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -3472,23 +3434,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -3513,23 +3475,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>10</v>
@@ -3591,75 +3553,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -3677,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3686,23 +3648,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>10</v>
@@ -3714,10 +3676,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3725,23 +3687,23 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>10</v>
@@ -3753,10 +3715,10 @@
         <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3764,23 +3726,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>10</v>
@@ -3792,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3803,23 +3765,23 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>5</v>
@@ -3831,10 +3793,10 @@
         <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3842,23 +3804,23 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -3870,10 +3832,10 @@
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3881,23 +3843,23 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -3909,10 +3871,10 @@
         <v>10</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3920,38 +3882,38 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>98</v>
+      <c r="G9" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>395</v>
+      <c r="I9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3959,38 +3921,38 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>98</v>
+      <c r="G10" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>396</v>
+      <c r="I10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3998,48 +3960,48 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F11" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>98</v>
+      <c r="G11" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="I11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11">
         <v>10</v>
       </c>
-      <c r="S11" s="33"/>
+      <c r="S11" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,82 +4045,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4170,15 +4132,15 @@
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4193,23 +4155,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -4221,15 +4183,15 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4244,18 +4206,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4272,10 +4234,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4289,17 +4251,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>13</v>
@@ -4317,15 +4279,15 @@
         <v>10</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4340,10 +4302,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4363,16 +4325,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4393,18 +4355,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4432,18 +4394,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>257</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>258</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4471,18 +4433,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4519,16 +4481,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4500,7 @@
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="39" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.5703125" style="12" customWidth="1"/>
@@ -4554,69 +4513,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
@@ -4625,25 +4584,25 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4681,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4704,7 +4663,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4725,16 +4684,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4775,10 +4734,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4819,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4836,233 +4795,209 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" s="12" t="s">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R7" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>415</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>335</v>
-      </c>
       <c r="O8" s="12" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
+      <c r="O9" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>416</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="12">
-        <v>0</v>
+      <c r="P10" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>3</v>
+        <v>409</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="12">
-        <v>0</v>
+      <c r="O11" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>417</v>
+        <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -5076,69 +5011,63 @@
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>333</v>
+      <c r="O12" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R12" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -5150,33 +5079,30 @@
         <v>4</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>350</v>
+        <v>4</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="R14" s="12">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
@@ -5187,11 +5113,8 @@
       <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>15</v>
+      <c r="P15" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -5199,19 +5122,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -5222,8 +5145,11 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N16" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="P16" s="12" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>10</v>
@@ -5231,19 +5157,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -5254,8 +5180,11 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N17" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="P17" s="12" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -5263,19 +5192,19 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>3</v>
@@ -5287,10 +5216,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -5298,19 +5227,19 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>3</v>
@@ -5321,11 +5250,8 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>229</v>
-      </c>
       <c r="P19" s="12" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -5333,16 +5259,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -5357,10 +5283,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -5368,19 +5294,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
@@ -5391,8 +5317,11 @@
       <c r="J21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>331</v>
+      <c r="M21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>10</v>
@@ -5400,19 +5329,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>3</v>
@@ -5423,11 +5352,8 @@
       <c r="J22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="P22" s="12" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -5435,19 +5361,19 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -5458,11 +5384,8 @@
       <c r="J23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>59</v>
+      <c r="P23" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>10</v>
@@ -5470,19 +5393,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
@@ -5494,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -5502,19 +5425,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -5525,8 +5448,11 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>336</v>
+      <c r="M25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -5534,19 +5460,19 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -5557,8 +5483,11 @@
       <c r="J26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>331</v>
+      <c r="M26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>10</v>
@@ -5566,19 +5495,19 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
@@ -5589,11 +5518,8 @@
       <c r="J27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="O27" s="12" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -5601,22 +5527,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -5624,34 +5538,16 @@
       <c r="J28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="Q28" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>4</v>
@@ -5659,31 +5555,16 @@
       <c r="J29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>337</v>
-      </c>
       <c r="Q29" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -5691,16 +5572,16 @@
       <c r="J30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="Q30" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>180</v>
+        <v>375</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>181</v>
@@ -5711,64 +5592,10 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="O31" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Q31" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5783,16 +5610,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5801,7 +5625,7 @@
     <col min="2" max="2" width="9.140625" style="12"/>
     <col min="3" max="3" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="72.5703125" style="12" customWidth="1"/>
@@ -5818,83 +5642,83 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -5904,10 +5728,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5924,18 +5748,18 @@
         <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -5980,16 +5804,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -6003,27 +5827,27 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -6041,25 +5865,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>354</v>
+      <c r="H6" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -6076,19 +5900,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
@@ -6112,19 +5936,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>292</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -6148,16 +5972,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
@@ -6172,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6183,37 +6007,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -6224,37 +6048,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6265,16 +6089,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>13</v>
@@ -6282,8 +6106,8 @@
       <c r="G12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>354</v>
+      <c r="H12" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6292,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6305,25 +6129,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>355</v>
+        <v>296</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6332,7 +6156,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6343,23 +6167,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="29" t="s">
-        <v>355</v>
+      <c r="H14" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6368,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6379,22 +6203,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>414</v>
+      <c r="D15" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6406,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6417,19 +6241,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>306</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>9</v>
@@ -6452,19 +6276,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>309</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>9</v>
@@ -6487,10 +6311,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6504,10 +6328,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6521,13 +6345,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6550,7 +6374,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>39</v>
@@ -6562,7 +6386,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
@@ -6571,10 +6395,10 @@
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -6597,16 +6421,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6632,61 +6453,61 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -6697,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
@@ -6712,13 +6533,13 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -6729,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -6753,7 +6574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -6764,7 +6585,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>9</v>
@@ -6779,13 +6600,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -6796,7 +6617,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
@@ -6811,24 +6632,24 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
@@ -6843,24 +6664,24 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6872,13 +6693,13 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
@@ -6889,13 +6710,13 @@
         <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -6910,13 +6731,13 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
@@ -6927,7 +6748,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>45</v>
@@ -6942,13 +6763,13 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>47</v>
       </c>
@@ -6959,7 +6780,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>45</v>
@@ -6974,57 +6795,57 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>229</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
@@ -7035,7 +6856,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -7050,13 +6871,13 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
@@ -7067,7 +6888,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>9</v>
@@ -7082,13 +6903,13 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>54</v>
       </c>
@@ -7099,7 +6920,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -7114,24 +6935,24 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -7146,13 +6967,13 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -7163,7 +6984,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>58</v>
@@ -7187,7 +7008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
@@ -7198,7 +7019,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>62</v>
@@ -7213,24 +7034,24 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7242,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>79</v>
       </c>
@@ -7259,7 +7080,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -7274,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -7282,22 +7103,22 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -7312,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -7321,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -7332,7 +7153,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>84</v>
@@ -7347,10 +7168,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>10</v>
@@ -7367,13 +7188,13 @@
         <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>94</v>
@@ -7388,10 +7209,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -7400,12 +7221,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7417,13 +7238,13 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>87</v>
       </c>
@@ -7434,10 +7255,10 @@
         <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -7452,7 +7273,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -7460,25 +7281,25 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>418</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>407</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>3</v>
@@ -7490,10 +7311,10 @@
         <v>3</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -7504,19 +7325,19 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>3</v>
@@ -7525,10 +7346,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7537,7 +7358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>91</v>
       </c>
@@ -7548,13 +7369,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -7569,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -7586,13 +7407,13 @@
         <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>9</v>
@@ -7607,13 +7428,13 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>10</v>
@@ -7624,34 +7445,34 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -7662,34 +7483,34 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -7698,24 +7519,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7727,24 +7548,24 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7756,24 +7577,24 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7785,18 +7606,18 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7808,12 +7629,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7825,12 +7646,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7867,21 +7688,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7889,10 +7710,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -7900,10 +7721,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7911,10 +7732,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7922,10 +7743,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -7933,10 +7754,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7944,10 +7765,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7955,10 +7776,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7966,10 +7787,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7977,10 +7798,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7988,10 +7809,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8020,58 +7841,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8084,9 +7905,6 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8121,75 +7939,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8204,7 +8022,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8215,16 +8033,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8239,7 +8057,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8250,16 +8068,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8273,7 +8091,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8283,16 +8101,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8306,7 +8124,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8316,22 +8134,22 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>245</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8339,13 +8157,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8355,7 +8173,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8363,13 +8181,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8379,7 +8197,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8387,13 +8205,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8403,7 +8221,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8411,18 +8229,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8437,27 +8255,27 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="39" t="s">
-        <v>413</v>
+      <c r="P10" s="37" t="s">
+        <v>403</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8471,7 +8289,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8481,14 +8299,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8497,21 +8315,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>346</v>
+        <v>371</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>338</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8526,16 +8344,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>346</v>
+        <v>337</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>338</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8550,10 +8368,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8564,10 +8382,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="13530" windowHeight="5715" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="413">
   <si>
     <t>Type</t>
   </si>
@@ -1023,9 +1023,6 @@
     <t>%progId.label|.0</t>
   </si>
   <si>
-    <t>(%anMethType.code==AT13A)</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}</t>
   </si>
   <si>
@@ -1065,12 +1062,6 @@
     <t>A04MQ#%source.code$%prod.code$%animage.code</t>
   </si>
   <si>
-    <t>(%sampAnAsses.code!=J051A)</t>
-  </si>
-  <si>
-    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))</t>
-  </si>
-  <si>
     <t>paramCodeBaseTerm</t>
   </si>
   <si>
@@ -1206,9 +1197,6 @@
     <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.RELATION{CasesInformation,sampId.label}</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,source.code}</t>
   </si>
   <si>
@@ -1258,6 +1246,24 @@
   </si>
   <si>
     <t>tseTargetGroup=%tseTargetGroup.code|IF((%type.code!=RGT),$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+  </si>
+  <si>
+    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>(((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))AND(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>((%anMethType.code==AT13A)AND(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
   </si>
 </sst>
 </file>
@@ -3531,7 +3537,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,7 +3664,7 @@
         <v>127</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -3679,7 +3685,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3697,7 +3703,7 @@
         <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -3718,7 +3724,7 @@
         <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3736,7 +3742,7 @@
         <v>131</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -3757,7 +3763,7 @@
         <v>116</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3796,7 +3802,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3835,7 +3841,7 @@
         <v>116</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3874,7 +3880,7 @@
         <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3882,17 +3888,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>13</v>
@@ -3913,7 +3919,7 @@
         <v>116</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3921,17 +3927,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>13</v>
@@ -3952,7 +3958,7 @@
         <v>116</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3960,17 +3966,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>13</v>
@@ -3991,7 +3997,7 @@
         <v>116</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4019,7 +4025,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,7 +4243,7 @@
         <v>314</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4325,13 +4331,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>248</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>181</v>
@@ -4483,11 +4489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4608,7 @@
         <v>330</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4663,7 +4669,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4690,7 +4696,7 @@
         <v>330</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>122</v>
@@ -4725,10 +4731,10 @@
         <v>77</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>3</v>
@@ -4769,10 +4775,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -4813,16 +4819,16 @@
         <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -4842,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>247</v>
@@ -4851,16 +4857,16 @@
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -4889,16 +4895,16 @@
         <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -4918,7 +4924,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>247</v>
@@ -4927,7 +4933,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
@@ -4965,16 +4971,16 @@
         <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -5012,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -5082,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -5353,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -5578,10 +5584,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>181</v>
@@ -5612,11 +5618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +5636,7 @@
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="72.5703125" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46.140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" style="12" customWidth="1"/>
@@ -5716,16 +5722,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>221</v>
@@ -5810,7 +5816,7 @@
         <v>317</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>120</v>
@@ -5845,13 +5851,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5883,7 +5889,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -6025,7 +6031,7 @@
         <v>226</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6066,19 +6072,19 @@
         <v>204</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>3</v>
+      <c r="J11" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>205</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6107,7 +6113,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6147,7 +6153,7 @@
         <v>296</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6183,7 +6189,7 @@
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="12" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6209,7 +6215,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>325</v>
@@ -6345,10 +6351,10 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>181</v>
@@ -6374,7 +6380,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>39</v>
@@ -6386,13 +6392,13 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>111</v>
@@ -6427,7 +6433,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>10</v>
@@ -6632,7 +6638,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>10</v>
@@ -6664,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>10</v>
@@ -6693,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
@@ -7034,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -7133,7 +7139,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -7223,10 +7229,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7238,7 +7244,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -7255,7 +7261,7 @@
         <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>181</v>
@@ -7273,7 +7279,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -7293,7 +7299,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -7314,7 +7320,7 @@
         <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -7325,7 +7331,7 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>265</v>
@@ -7337,7 +7343,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>3</v>
@@ -7346,10 +7352,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7460,19 +7466,19 @@
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -7498,19 +7504,19 @@
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -7530,7 +7536,7 @@
         <v>266</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
@@ -7606,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>10</v>
@@ -7852,7 +7858,7 @@
         <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7890,7 @@
         <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7892,7 +7898,7 @@
         <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8091,7 +8097,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8197,7 +8203,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8237,7 +8243,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>181</v>
@@ -8256,10 +8262,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8318,15 +8324,15 @@
         <v>320</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>181</v>
@@ -8344,13 +8350,13 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>337</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>338</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>181</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -387,9 +387,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Brain</t>
-  </si>
-  <si>
     <t>defaultCode</t>
   </si>
   <si>
@@ -990,9 +987,6 @@
     <t>RELATION{Report,reportDatasetId.label}</t>
   </si>
   <si>
-    <t>tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code}</t>
-  </si>
-  <si>
     <t>dcTable</t>
   </si>
   <si>
@@ -1026,9 +1020,6 @@
     <t>RELATION{SummarizedInformation,progId.label}</t>
   </si>
   <si>
-    <t>F02.A06AM</t>
-  </si>
-  <si>
     <t>F21.A07RV</t>
   </si>
   <si>
@@ -1059,9 +1050,6 @@
     <t>RESEVAL</t>
   </si>
   <si>
-    <t>A04MQ#%source.code$%prod.code$%animage.code</t>
-  </si>
-  <si>
     <t>paramCodeBaseTerm</t>
   </si>
   <si>
@@ -1188,9 +1176,6 @@
     <t>CWD$AT12A</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|sampAnAsses=RELATION{CasesInformation,sampAnAsses.code}|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
   </si>
   <si>
@@ -1245,9 +1230,6 @@
     <t>(%type.code!=RGT)</t>
   </si>
   <si>
-    <t>tseTargetGroup=%tseTargetGroup.code|IF((%type.code!=RGT),$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
   </si>
   <si>
@@ -1264,6 +1246,24 @@
   </si>
   <si>
     <t>((%anMethType.code==AT13A)AND(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampAnAsses.code},sampAnAsses=RELATION{CasesInformation,sampAnAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
   </si>
 </sst>
 </file>
@@ -1282,6 +1282,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3373,49 +3374,49 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -3440,23 +3441,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -3481,23 +3482,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>10</v>
@@ -3592,42 +3593,42 @@
         <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -3645,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3654,17 +3655,17 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -3685,7 +3686,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3693,17 +3694,17 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -3724,7 +3725,7 @@
         <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3732,17 +3733,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -3763,7 +3764,7 @@
         <v>116</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3771,17 +3772,17 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -3802,7 +3803,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3810,17 +3811,17 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
@@ -3841,7 +3842,7 @@
         <v>116</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3849,17 +3850,17 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -3880,7 +3881,7 @@
         <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3888,17 +3889,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>13</v>
@@ -3919,7 +3920,7 @@
         <v>116</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3927,17 +3928,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>13</v>
@@ -3958,7 +3959,7 @@
         <v>116</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3966,17 +3967,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>13</v>
@@ -3997,7 +3998,7 @@
         <v>116</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4084,49 +4085,49 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4138,15 +4139,15 @@
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4161,23 +4162,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -4189,15 +4190,15 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4212,18 +4213,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4240,10 +4241,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4257,17 +4258,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>13</v>
@@ -4285,15 +4286,15 @@
         <v>10</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4308,10 +4309,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4331,16 +4332,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4361,18 +4362,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4400,18 +4401,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>257</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4439,18 +4440,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>252</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4552,28 +4553,28 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4581,7 +4582,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
@@ -4590,25 +4591,25 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4649,7 +4650,7 @@
         <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4669,7 +4670,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4693,13 +4694,13 @@
         <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4731,10 +4732,10 @@
         <v>77</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>3</v>
@@ -4743,7 +4744,7 @@
         <v>115</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4775,10 +4776,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -4787,7 +4788,7 @@
         <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4813,22 +4814,22 @@
         <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -4848,25 +4849,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -4889,22 +4890,22 @@
         <v>31</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -4924,16 +4925,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
@@ -4942,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -4965,22 +4966,22 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -5003,7 +5004,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -5018,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -5038,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>14</v>
@@ -5073,7 +5074,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -5088,7 +5089,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -5105,7 +5106,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -5120,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -5137,7 +5138,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>45</v>
@@ -5152,10 +5153,10 @@
         <v>4</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>10</v>
@@ -5172,7 +5173,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>45</v>
@@ -5187,10 +5188,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -5207,7 +5208,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>9</v>
@@ -5222,10 +5223,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -5242,7 +5243,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -5257,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -5274,7 +5275,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -5289,10 +5290,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -5309,7 +5310,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>58</v>
@@ -5344,7 +5345,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>62</v>
@@ -5359,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -5376,7 +5377,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>9</v>
@@ -5391,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>10</v>
@@ -5408,7 +5409,7 @@
         <v>81</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -5423,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -5440,7 +5441,7 @@
         <v>83</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>84</v>
@@ -5475,7 +5476,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
@@ -5510,7 +5511,7 @@
         <v>99</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -5525,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -5533,10 +5534,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -5550,10 +5551,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>4</v>
@@ -5567,10 +5568,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -5584,13 +5585,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -5619,10 +5620,10 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:A44"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,63 +5682,63 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5754,13 +5755,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
@@ -5813,13 +5814,13 @@
         <v>113</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>120</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -5833,31 +5834,31 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5871,25 +5872,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -5906,19 +5907,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
@@ -5942,19 +5943,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>290</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -5978,16 +5979,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>286</v>
-      </c>
       <c r="D9" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
@@ -6002,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6013,37 +6014,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -6054,37 +6055,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6095,16 +6096,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>13</v>
@@ -6113,7 +6114,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6122,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6135,25 +6136,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6162,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6173,23 +6174,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6198,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6209,22 +6210,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6236,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6247,19 +6248,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>9</v>
@@ -6282,19 +6283,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>9</v>
@@ -6317,10 +6318,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6334,10 +6335,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6351,13 +6352,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6380,7 +6381,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>39</v>
@@ -6392,19 +6393,19 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -6430,10 +6431,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6492,25 +6493,25 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,7 +6525,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
@@ -6539,7 +6540,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>10</v>
@@ -6556,7 +6557,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -6591,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>9</v>
@@ -6606,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>10</v>
@@ -6623,7 +6624,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
@@ -6638,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>10</v>
@@ -6646,16 +6647,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
@@ -6670,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>10</v>
@@ -6687,7 +6688,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6699,7 +6700,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
@@ -6716,13 +6717,13 @@
         <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -6737,7 +6738,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>10</v>
@@ -6754,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>45</v>
@@ -6769,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>10</v>
@@ -6786,7 +6787,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>45</v>
@@ -6801,7 +6802,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
@@ -6809,43 +6810,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>228</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>10</v>
@@ -6862,7 +6863,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -6877,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -6894,7 +6895,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>9</v>
@@ -6909,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>10</v>
@@ -6926,7 +6927,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -6941,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -6949,16 +6950,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>286</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -6973,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -6990,7 +6991,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>58</v>
@@ -7025,7 +7026,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>62</v>
@@ -7040,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -7048,16 +7049,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>283</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7069,7 +7070,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -7086,7 +7087,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -7101,7 +7102,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -7118,13 +7119,13 @@
         <v>99</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -7139,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -7159,7 +7160,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>84</v>
@@ -7174,10 +7175,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>10</v>
@@ -7194,13 +7195,13 @@
         <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>94</v>
@@ -7215,10 +7216,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -7229,10 +7230,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7244,7 +7245,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -7261,10 +7262,10 @@
         <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -7279,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -7296,10 +7297,10 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -7320,7 +7321,7 @@
         <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -7331,19 +7332,19 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>3</v>
@@ -7352,10 +7353,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7375,13 +7376,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -7396,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -7413,13 +7414,13 @@
         <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>9</v>
@@ -7434,13 +7435,13 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>10</v>
@@ -7451,34 +7452,34 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -7489,34 +7490,34 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -7527,22 +7528,22 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>267</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7554,7 +7555,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>10</v>
@@ -7562,16 +7563,16 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7583,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>10</v>
@@ -7591,16 +7592,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7612,7 +7613,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>10</v>
@@ -7620,10 +7621,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7637,10 +7638,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7654,10 +7655,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7694,21 +7695,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7716,10 +7717,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -7727,10 +7728,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7738,10 +7739,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7749,10 +7750,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -7760,10 +7761,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7771,10 +7772,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7782,10 +7783,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7793,10 +7794,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7804,10 +7805,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7815,10 +7816,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7847,58 +7848,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7979,28 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8013,7 +8014,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8028,7 +8029,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8039,16 +8040,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8063,7 +8064,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8074,16 +8075,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8097,7 +8098,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8107,16 +8108,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8130,7 +8131,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8140,22 +8141,22 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>244</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8163,13 +8164,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8179,7 +8180,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8187,13 +8188,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8203,7 +8204,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8211,13 +8212,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8227,7 +8228,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8235,18 +8236,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8262,26 +8263,26 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8295,7 +8296,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8305,14 +8306,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8321,21 +8322,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8350,16 +8351,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8374,10 +8375,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8388,10 +8389,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -5619,11 +5619,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6430,11 +6430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>360</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="412">
   <si>
     <t>Type</t>
   </si>
@@ -390,9 +390,6 @@
     <t>defaultCode</t>
   </si>
   <si>
-    <t>Farmed</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -1023,9 +1020,6 @@
     <t>F21.A07RV</t>
   </si>
   <si>
-    <t>%type.label</t>
-  </si>
-  <si>
     <t>opType</t>
   </si>
   <si>
@@ -1264,6 +1258,9 @@
   </si>
   <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),F01.A057G,)</t>
   </si>
 </sst>
 </file>
@@ -3374,49 +3371,49 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -3441,23 +3438,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -3482,23 +3479,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>10</v>
@@ -3593,42 +3590,42 @@
         <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -3646,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="9"/>
       <c r="R2">
@@ -3655,17 +3652,17 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -3686,7 +3683,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3694,17 +3691,17 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -3725,7 +3722,7 @@
         <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3733,17 +3730,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -3764,7 +3761,7 @@
         <v>116</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3772,17 +3769,17 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -3803,7 +3800,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3811,17 +3808,17 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
@@ -3842,7 +3839,7 @@
         <v>116</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3850,17 +3847,17 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -3881,7 +3878,7 @@
         <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3889,17 +3886,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>13</v>
@@ -3920,7 +3917,7 @@
         <v>116</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3928,17 +3925,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>13</v>
@@ -3959,7 +3956,7 @@
         <v>116</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3967,17 +3964,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>13</v>
@@ -3998,7 +3995,7 @@
         <v>116</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4085,49 +4082,49 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4139,15 +4136,15 @@
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4162,23 +4159,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -4190,15 +4187,15 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4213,18 +4210,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4241,10 +4238,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4258,17 +4255,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>13</v>
@@ -4286,15 +4283,15 @@
         <v>10</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4309,10 +4306,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4332,16 +4329,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4362,18 +4359,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4401,18 +4398,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>256</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4440,18 +4437,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>250</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>251</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4490,11 +4487,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,28 +4550,28 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4582,7 +4579,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
@@ -4591,25 +4588,22 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4650,7 +4644,10 @@
         <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4670,7 +4667,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4694,13 +4691,10 @@
         <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>121</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4732,10 +4726,10 @@
         <v>77</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>3</v>
@@ -4744,7 +4738,7 @@
         <v>115</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4776,10 +4770,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -4788,7 +4782,7 @@
         <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4814,22 +4808,22 @@
         <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -4849,25 +4843,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -4890,22 +4884,22 @@
         <v>31</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -4925,16 +4919,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
@@ -4943,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -4966,22 +4960,22 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -5004,7 +4998,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -5019,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -5039,7 +5033,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>14</v>
@@ -5074,7 +5068,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -5089,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -5106,7 +5100,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -5121,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -5138,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>45</v>
@@ -5153,10 +5147,10 @@
         <v>4</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>10</v>
@@ -5173,7 +5167,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>45</v>
@@ -5188,10 +5182,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -5208,7 +5202,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>9</v>
@@ -5223,10 +5217,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -5243,7 +5237,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -5258,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -5275,7 +5269,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -5290,10 +5284,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -5310,7 +5304,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>58</v>
@@ -5345,7 +5339,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>62</v>
@@ -5360,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -5377,7 +5371,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>9</v>
@@ -5392,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>10</v>
@@ -5409,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -5424,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -5441,7 +5435,7 @@
         <v>83</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>84</v>
@@ -5476,7 +5470,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
@@ -5511,7 +5505,7 @@
         <v>99</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -5526,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -5534,10 +5528,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -5551,10 +5545,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>4</v>
@@ -5568,10 +5562,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -5585,13 +5579,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -5682,63 +5676,63 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5755,13 +5749,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
@@ -5814,13 +5808,13 @@
         <v>113</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -5834,31 +5828,31 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
         <v>196</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>199</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5872,25 +5866,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -5907,19 +5901,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
@@ -5943,19 +5937,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>289</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -5979,16 +5973,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>285</v>
-      </c>
       <c r="D9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
@@ -6003,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6014,37 +6008,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -6055,37 +6049,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6096,16 +6090,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>13</v>
@@ -6114,7 +6108,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6123,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6136,25 +6130,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6163,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6174,23 +6168,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6199,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6210,22 +6204,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6237,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6248,19 +6242,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>303</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>9</v>
@@ -6283,19 +6277,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>306</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>9</v>
@@ -6318,10 +6312,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6335,10 +6329,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6352,13 +6346,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6381,7 +6375,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>39</v>
@@ -6393,19 +6387,19 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -6430,11 +6424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,25 +6487,25 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,7 +6519,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
@@ -6540,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>10</v>
@@ -6557,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -6592,7 +6586,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>9</v>
@@ -6607,7 +6601,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>10</v>
@@ -6624,7 +6618,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
@@ -6639,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>10</v>
@@ -6647,16 +6641,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
@@ -6671,7 +6665,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>10</v>
@@ -6688,7 +6682,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6700,7 +6694,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
@@ -6717,13 +6711,13 @@
         <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -6738,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>10</v>
@@ -6755,7 +6749,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>45</v>
@@ -6770,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>10</v>
@@ -6787,7 +6781,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>45</v>
@@ -6802,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
@@ -6810,43 +6804,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>227</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>10</v>
@@ -6863,7 +6857,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -6878,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -6895,7 +6889,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>9</v>
@@ -6910,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>10</v>
@@ -6927,7 +6921,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -6942,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -6950,16 +6944,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>285</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -6974,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -6991,7 +6985,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>58</v>
@@ -7026,7 +7020,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>62</v>
@@ -7041,7 +7035,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -7049,16 +7043,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7070,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -7087,7 +7081,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -7102,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -7119,13 +7113,13 @@
         <v>99</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -7140,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -7160,7 +7154,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>84</v>
@@ -7175,10 +7169,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>10</v>
@@ -7195,13 +7189,13 @@
         <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>94</v>
@@ -7216,10 +7210,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -7230,11 +7224,11 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>343</v>
-      </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
       </c>
@@ -7245,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -7262,10 +7256,10 @@
         <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -7280,7 +7274,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -7297,10 +7291,10 @@
         <v>96</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -7321,7 +7315,7 @@
         <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -7332,31 +7326,31 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K26" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7376,13 +7370,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -7397,7 +7391,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -7414,13 +7408,13 @@
         <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>9</v>
@@ -7435,13 +7429,13 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>10</v>
@@ -7452,34 +7446,34 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -7490,34 +7484,34 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -7528,22 +7522,22 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7555,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>10</v>
@@ -7563,16 +7557,16 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7584,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>10</v>
@@ -7592,16 +7586,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7613,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>10</v>
@@ -7621,10 +7615,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7638,10 +7632,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7655,10 +7649,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7695,21 +7689,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
-        <v>175</v>
-      </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7717,10 +7711,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -7728,10 +7722,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7739,10 +7733,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7750,10 +7744,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
         <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -7761,10 +7755,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7772,10 +7766,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7783,10 +7777,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7794,10 +7788,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7805,10 +7799,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7816,10 +7810,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7848,58 +7842,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7973,28 @@
         <v>109</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8014,7 +8008,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8029,7 +8023,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8040,16 +8034,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8064,7 +8058,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8075,16 +8069,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8098,7 +8092,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8108,16 +8102,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8131,7 +8125,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8141,22 +8135,22 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>243</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8164,13 +8158,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8180,7 +8174,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8188,13 +8182,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8204,7 +8198,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8212,13 +8206,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8228,7 +8222,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8236,18 +8230,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8263,26 +8257,26 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8296,7 +8290,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8306,14 +8300,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8322,21 +8316,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8351,16 +8345,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8375,10 +8369,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8389,10 +8383,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="413">
   <si>
     <t>Type</t>
   </si>
@@ -516,9 +516,6 @@
     <t>month</t>
   </si>
   <si>
-    <t>yearsList</t>
-  </si>
-  <si>
     <t>monthsList</t>
   </si>
   <si>
@@ -1261,6 +1258,12 @@
   </si>
   <si>
     <t>IF((%type.code!=RGT),F01.A057G,)</t>
+  </si>
+  <si>
+    <t>reportYearsList</t>
+  </si>
+  <si>
+    <t>animalYearsList</t>
   </si>
 </sst>
 </file>
@@ -3377,13 +3380,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -3392,7 +3395,7 @@
         <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3410,7 +3413,7 @@
         <v>142</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>144</v>
@@ -3479,20 +3482,20 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>144</v>
@@ -3596,13 +3599,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>108</v>
@@ -3611,7 +3614,7 @@
         <v>149</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3662,7 +3665,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -3683,7 +3686,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3701,7 +3704,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -3722,7 +3725,7 @@
         <v>116</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3740,7 +3743,7 @@
         <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -3761,7 +3764,7 @@
         <v>116</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3800,7 +3803,7 @@
         <v>116</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3839,7 +3842,7 @@
         <v>116</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3878,7 +3881,7 @@
         <v>116</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3886,17 +3889,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>13</v>
@@ -3917,7 +3920,7 @@
         <v>116</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3925,17 +3928,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>13</v>
@@ -3956,7 +3959,7 @@
         <v>116</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -3964,17 +3967,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>13</v>
@@ -3995,7 +3998,7 @@
         <v>116</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4020,10 +4023,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,13 +4091,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -4103,12 +4106,12 @@
         <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>161</v>
@@ -4118,13 +4121,13 @@
         <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4136,15 +4139,15 @@
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -4159,7 +4162,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>162</v>
@@ -4169,7 +4172,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
@@ -4187,15 +4190,15 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -4210,18 +4213,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4238,10 +4241,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4258,7 +4261,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
@@ -4287,11 +4290,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4306,10 +4309,10 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -4329,16 +4332,16 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>335</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>5</v>
@@ -4359,18 +4362,18 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
@@ -4398,18 +4401,18 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>255</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -4437,18 +4440,18 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>250</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
@@ -4487,7 +4490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4556,13 +4559,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -4571,7 +4574,7 @@
         <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4588,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>147</v>
@@ -4603,7 +4606,7 @@
         <v>148</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4644,10 +4647,10 @@
         <v>112</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4667,7 +4670,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>72</v>
@@ -4691,10 +4694,10 @@
         <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4726,10 +4729,10 @@
         <v>77</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>3</v>
@@ -4738,7 +4741,7 @@
         <v>115</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4770,10 +4773,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -4782,7 +4785,7 @@
         <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4808,22 +4811,22 @@
         <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -4843,25 +4846,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -4884,22 +4887,22 @@
         <v>31</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -4919,16 +4922,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
@@ -4937,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -4960,22 +4963,22 @@
         <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -4998,7 +5001,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -5013,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -5033,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>14</v>
@@ -5068,7 +5071,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -5083,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -5100,7 +5103,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -5115,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -5132,7 +5135,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>45</v>
@@ -5147,10 +5150,10 @@
         <v>4</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>10</v>
@@ -5167,7 +5170,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>45</v>
@@ -5182,10 +5185,10 @@
         <v>4</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -5202,7 +5205,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>9</v>
@@ -5217,10 +5220,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -5237,7 +5240,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -5252,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -5269,7 +5272,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -5284,10 +5287,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -5304,7 +5307,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>58</v>
@@ -5339,7 +5342,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>62</v>
@@ -5354,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -5371,7 +5374,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>9</v>
@@ -5386,7 +5389,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>10</v>
@@ -5403,7 +5406,7 @@
         <v>81</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -5418,7 +5421,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -5435,7 +5438,7 @@
         <v>83</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>84</v>
@@ -5470,7 +5473,7 @@
         <v>87</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
@@ -5505,7 +5508,7 @@
         <v>99</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -5520,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -5528,10 +5531,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -5545,10 +5548,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>4</v>
@@ -5562,10 +5565,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -5579,13 +5582,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -5617,7 +5620,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,13 +5685,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -5697,42 +5700,42 @@
         <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -5749,13 +5752,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
@@ -5808,13 +5811,13 @@
         <v>113</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -5828,31 +5831,31 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
         <v>195</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5866,25 +5869,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -5901,19 +5904,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>9</v>
@@ -5937,19 +5940,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -5973,16 +5976,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>284</v>
-      </c>
       <c r="D9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
@@ -5997,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -6008,37 +6011,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -6049,37 +6052,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -6090,16 +6093,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>13</v>
@@ -6108,7 +6111,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
@@ -6130,25 +6133,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>3</v>
@@ -6157,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6168,23 +6171,23 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>3</v>
@@ -6193,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -6204,22 +6207,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
@@ -6231,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
@@ -6242,19 +6245,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>302</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>9</v>
@@ -6277,19 +6280,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>305</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>9</v>
@@ -6312,10 +6315,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -6329,10 +6332,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -6346,13 +6349,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -6375,7 +6378,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>39</v>
@@ -6387,19 +6390,19 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -6425,10 +6428,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,13 +6496,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -6519,7 +6522,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>9</v>
@@ -6534,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>10</v>
@@ -6551,7 +6554,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -6586,7 +6589,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>9</v>
@@ -6601,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>10</v>
@@ -6618,7 +6621,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
@@ -6633,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>10</v>
@@ -6641,16 +6644,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>9</v>
@@ -6665,7 +6668,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>10</v>
@@ -6682,7 +6685,7 @@
         <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -6694,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
@@ -6711,13 +6714,13 @@
         <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>9</v>
@@ -6732,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>10</v>
@@ -6749,7 +6752,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>45</v>
@@ -6764,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>10</v>
@@ -6781,7 +6784,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>45</v>
@@ -6796,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
@@ -6804,43 +6807,43 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>226</v>
-      </c>
       <c r="N11" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>10</v>
@@ -6857,7 +6860,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>9</v>
@@ -6872,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>10</v>
@@ -6889,7 +6892,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>9</v>
@@ -6904,7 +6907,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>10</v>
@@ -6921,7 +6924,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>9</v>
@@ -6936,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>10</v>
@@ -6944,16 +6947,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>284</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>9</v>
@@ -6968,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>10</v>
@@ -6985,7 +6988,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>58</v>
@@ -7020,7 +7023,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>62</v>
@@ -7035,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>10</v>
@@ -7043,16 +7046,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>281</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -7064,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>10</v>
@@ -7081,7 +7084,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>9</v>
@@ -7096,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>10</v>
@@ -7113,13 +7116,13 @@
         <v>99</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>9</v>
@@ -7134,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>10</v>
@@ -7154,7 +7157,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>84</v>
@@ -7169,10 +7172,10 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>10</v>
@@ -7189,13 +7192,13 @@
         <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>94</v>
@@ -7210,10 +7213,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>10</v>
@@ -7224,10 +7227,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -7239,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -7256,10 +7259,10 @@
         <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>9</v>
@@ -7274,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>10</v>
@@ -7294,7 +7297,7 @@
         <v>146</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>13</v>
@@ -7315,7 +7318,7 @@
         <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>10</v>
@@ -7326,31 +7329,31 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -7370,13 +7373,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>9</v>
@@ -7391,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>10</v>
@@ -7408,13 +7411,13 @@
         <v>81</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>9</v>
@@ -7429,13 +7432,13 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>10</v>
@@ -7446,34 +7449,34 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -7484,34 +7487,34 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -7522,22 +7525,22 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -7549,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>10</v>
@@ -7557,16 +7560,16 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>3</v>
@@ -7578,7 +7581,7 @@
         <v>4</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>10</v>
@@ -7586,16 +7589,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>3</v>
@@ -7607,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>10</v>
@@ -7615,10 +7618,10 @@
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7632,10 +7635,10 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>4</v>
@@ -7649,10 +7652,10 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>4</v>
@@ -7689,21 +7692,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -7711,10 +7714,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -7722,10 +7725,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7744,10 +7747,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
         <v>175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -7755,10 +7758,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7766,10 +7769,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -7777,10 +7780,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7788,10 +7791,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7799,10 +7802,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7810,10 +7813,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7842,58 +7845,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7908,7 +7911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7979,13 +7982,13 @@
         <v>120</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>108</v>
@@ -7994,7 +7997,7 @@
         <v>149</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8008,7 +8011,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8023,7 +8026,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
@@ -8034,16 +8037,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8058,7 +8061,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2" t="s">
@@ -8069,16 +8072,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -8092,7 +8095,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8102,16 +8105,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -8125,7 +8128,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="16"/>
       <c r="P5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -8135,22 +8138,22 @@
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>242</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -8158,13 +8161,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
@@ -8174,7 +8177,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -8182,13 +8185,13 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>4</v>
@@ -8198,7 +8201,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8206,13 +8209,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
@@ -8222,7 +8225,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8230,18 +8233,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8257,26 +8260,26 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8290,7 +8293,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -8300,14 +8303,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -8316,21 +8319,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -8345,16 +8348,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>332</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -8369,10 +8372,10 @@
     </row>
     <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -8383,10 +8386,10 @@
     </row>
     <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -1257,13 +1257,13 @@
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
   </si>
   <si>
-    <t>IF((%type.code!=RGT),F01.A057G,)</t>
-  </si>
-  <si>
     <t>reportYearsList</t>
   </si>
   <si>
     <t>animalYearsList</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)</t>
   </si>
 </sst>
 </file>
@@ -4139,7 +4139,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4490,11 +4490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4650,7 @@
         <v>326</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -6160,7 +6160,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>305</v>
@@ -7911,7 +7911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="417">
   <si>
     <t>Type</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),N305A,N123A)</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6475,11 +6478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,10 +6620,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>15</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>10</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4542,10 +4542,10 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6479,10 +6479,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="13530" windowHeight="5535" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="13530" windowHeight="5535" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,7 +6078,7 @@
         <v>335</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>392</v>
@@ -6520,7 +6520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="13530" windowHeight="5535" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="424">
   <si>
     <t>Type</t>
   </si>
@@ -1098,9 +1098,6 @@
     <t>(%internalOpType.label!=Insert)</t>
   </si>
   <si>
-    <t>IF(((%internalOpType.label==Reject)OR(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
     <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
   </si>
   <si>
@@ -1206,18 +1203,9 @@
     <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
   </si>
   <si>
-    <t>((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>(((%sampAnAsses.code!=J051A)AND(RELATION{SummarizedInformation,prod.code}!=F21.A07RY))AND(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
     <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
   </si>
   <si>
-    <t>((%anMethType.code==AT13A)AND(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
     <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)</t>
   </si>
   <si>
@@ -1294,6 +1282,21 @@
   </si>
   <si>
     <t>IF_NOT_NULL(%progLegalRef.code,.|%progLegalRef.code,)|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}!=F21.A07RY),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1467,7 +1470,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,8 +2918,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S32" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:S32"/>
-  <sortState ref="A2:S31">
-    <sortCondition ref="B1:B31"/>
+  <sortState ref="A2:S32">
+    <sortCondition ref="J1:J32"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -2978,8 +2980,8 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R37" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:R37"/>
-  <sortState ref="A20:R30">
-    <sortCondition ref="R1:R36"/>
+  <sortState ref="A2:R37">
+    <sortCondition ref="B1:B37"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="id" dataDxfId="37"/>
@@ -3717,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3756,7 +3758,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3795,7 +3797,7 @@
         <v>114</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3834,7 +3836,7 @@
         <v>114</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3873,7 +3875,7 @@
         <v>114</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3912,7 +3914,7 @@
         <v>114</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3951,7 +3953,7 @@
         <v>114</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3990,7 +3992,7 @@
         <v>114</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -4029,7 +4031,7 @@
         <v>114</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4170,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4275,7 +4277,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4510,15 +4512,15 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4560,11 +4562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,60 +4651,45 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>321</v>
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="R2" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -4711,21 +4698,24 @@
         <v>4</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>329</v>
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="R3" s="12">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>416</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>176</v>
@@ -4743,27 +4733,27 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
@@ -4774,8 +4764,8 @@
       <c r="J5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>410</v>
+      <c r="P5" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>9</v>
@@ -4783,98 +4773,83 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>321</v>
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="12">
-        <v>5</v>
-      </c>
-      <c r="S6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>389</v>
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>386</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>242</v>
@@ -4883,36 +4858,33 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>389</v>
+        <v>4</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>242</v>
@@ -4921,36 +4893,30 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>389</v>
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>387</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>242</v>
@@ -4959,77 +4925,74 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="12">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>3</v>
@@ -5041,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -5049,13 +5012,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>176</v>
@@ -5081,19 +5044,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>3</v>
@@ -5104,11 +5067,8 @@
       <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="P14" s="12" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -5116,19 +5076,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
@@ -5139,11 +5099,11 @@
       <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>302</v>
+      <c r="M15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -5151,19 +5111,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -5174,11 +5134,11 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>303</v>
+      <c r="M16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
@@ -5186,16 +5146,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>8</v>
@@ -5209,8 +5169,8 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>317</v>
+      <c r="O17" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>9</v>
@@ -5218,22 +5178,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5241,34 +5189,16 @@
       <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="Q18" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5276,169 +5206,106 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="Q19" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>405</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="12">
-        <v>2</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>323</v>
+        <v>4</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="12">
-        <v>3</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>390</v>
+        <v>145</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>321</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="12">
-        <v>4</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>3</v>
@@ -5447,56 +5314,74 @@
         <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>397</v>
+        <v>3</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R23" s="12">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>319</v>
+        <v>3</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="Q24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="12">
+        <v>5</v>
+      </c>
+      <c r="S24" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>242</v>
@@ -5505,195 +5390,312 @@
         <v>8</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>317</v>
+        <v>3</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R25" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>85</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R27" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>3</v>
+        <v>389</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>322</v>
+        <v>3</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R28" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>175</v>
+        <v>242</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R29" s="12">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>179</v>
+        <v>61</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>401</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R30" s="12">
+        <v>2</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>180</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R31" s="12">
+        <v>3</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>359</v>
+        <v>72</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R32" s="12">
+        <v>4</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5709,11 +5711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>3</v>
@@ -5905,198 +5907,198 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>43</v>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5"/>
+        <v>335</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>309</v>
+      </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>288</v>
+      <c r="G6" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>404</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
       <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="H7" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>161</v>
+        <v>421</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>284</v>
+        <v>421</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>335</v>
+        <v>3</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>309</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>284</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>7</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6154,7 +6156,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6191,13 +6193,14 @@
       <c r="F12" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -6245,10 +6248,10 @@
         <v>309</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6315,13 +6318,13 @@
         <v>331</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>216</v>
@@ -6356,13 +6359,13 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -6394,19 +6397,19 @@
         <v>199</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>200</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
@@ -6486,10 +6489,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>176</v>
@@ -6524,7 +6527,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6630,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>9</v>
@@ -6638,69 +6641,75 @@
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>420</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>422</v>
+        <v>391</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>415</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>409</v>
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -6708,13 +6717,13 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>176</v>
@@ -6723,7 +6732,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>4</v>
@@ -6732,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>9</v>
@@ -6740,13 +6749,13 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>176</v>
@@ -6755,7 +6764,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>4</v>
@@ -6764,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>9</v>
@@ -6772,20 +6781,17 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>9</v>
@@ -6804,17 +6810,26 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H8" s="12" t="s">
         <v>3</v>
       </c>
@@ -6825,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>9</v>
@@ -6833,25 +6848,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -6862,8 +6871,8 @@
       <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>273</v>
+      <c r="N9" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -6871,13 +6880,13 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>176</v>
@@ -6903,19 +6912,25 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>217</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -6926,8 +6941,14 @@
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="K11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="N11" s="12" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -6935,25 +6956,19 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>3</v>
@@ -6964,14 +6979,8 @@
       <c r="J12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="N12" s="12" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -6979,13 +6988,13 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>242</v>
@@ -7011,13 +7020,13 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>242</v>
@@ -7035,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -7043,13 +7052,13 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>242</v>
@@ -7058,7 +7067,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -7067,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -7075,22 +7084,22 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>
@@ -7098,8 +7107,11 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>276</v>
+      <c r="M16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
@@ -7107,19 +7119,19 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -7130,11 +7142,8 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>57</v>
+      <c r="P17" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>9</v>
@@ -7142,22 +7151,19 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="H18" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -7166,7 +7172,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>9</v>
@@ -7174,19 +7180,22 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -7195,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>9</v>
@@ -7203,16 +7212,22 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>8</v>
@@ -7221,145 +7236,157 @@
         <v>3</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>273</v>
+        <v>3</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R20" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="R21" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>4</v>
+        <v>392</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>228</v>
+        <v>392</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R22" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>309</v>
+        <v>330</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R23" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>332</v>
+        <v>85</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>334</v>
       </c>
+      <c r="F24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
       </c>
@@ -7369,25 +7396,28 @@
       <c r="J24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>419</v>
+      <c r="P24" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>334</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>176</v>
@@ -7404,8 +7434,8 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>333</v>
+      <c r="N25" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>9</v>
@@ -7413,25 +7443,25 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>388</v>
+        <v>263</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
@@ -7443,68 +7473,77 @@
         <v>3</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>9</v>
       </c>
       <c r="R26" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>352</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>258</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R27" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>176</v>
@@ -7516,185 +7555,158 @@
         <v>3</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>320</v>
+        <v>3</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>272</v>
+        <v>259</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="R29" s="12">
-        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>395</v>
+        <v>4</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>376</v>
+        <v>4</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>266</v>
+        <v>193</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>395</v>
+        <v>4</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>376</v>
+        <v>4</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>334</v>
+        <v>352</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G32" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="H32" s="12" t="s">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>4</v>
+        <v>391</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R32" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G33" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H33" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>4</v>
@@ -7702,25 +7714,19 @@
       <c r="J33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="12" t="s">
-        <v>255</v>
+      <c r="P33" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>176</v>
+        <v>332</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>3</v>
@@ -7731,11 +7737,11 @@
       <c r="J34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="12" t="s">
-        <v>398</v>
+      <c r="M34" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7978,7 +7984,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8010,7 +8016,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8018,7 +8024,7 @@
         <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -8037,7 +8043,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,7 +8223,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8323,7 +8329,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8382,10 +8388,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -4562,11 +4562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5711,11 +5711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -1170,9 +1170,6 @@
     <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
   </si>
   <si>
-    <t>%statusHerd.code</t>
-  </si>
-  <si>
     <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
   </si>
   <si>
@@ -1297,6 +1294,9 @@
   </si>
   <si>
     <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>%statusHerd.code|RELATION{SummarizedInformation,type.code}</t>
   </si>
 </sst>
 </file>
@@ -4172,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4277,7 +4277,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4512,15 +4512,15 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>402</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>403</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
@@ -4669,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
@@ -4733,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -5299,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>176</v>
@@ -5346,10 +5346,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>3</v>
@@ -5390,16 +5390,16 @@
         <v>8</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>5</v>
@@ -5419,7 +5419,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>242</v>
@@ -5428,16 +5428,16 @@
         <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -5466,16 +5466,16 @@
         <v>8</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>5</v>
@@ -5495,7 +5495,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>242</v>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -5542,16 +5542,16 @@
         <v>8</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -5595,7 +5595,7 @@
         <v>321</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -5674,10 +5674,10 @@
         <v>75</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>3</v>
@@ -5712,10 +5712,10 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>3</v>
@@ -5931,7 +5931,7 @@
         <v>335</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>109</v>
@@ -5969,7 +5969,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>288</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -6018,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6071,7 +6071,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>316</v>
@@ -6156,7 +6156,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6248,10 +6248,10 @@
         <v>309</v>
       </c>
       <c r="M13" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6318,13 +6318,13 @@
         <v>331</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>216</v>
@@ -6359,13 +6359,13 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -6397,19 +6397,19 @@
         <v>199</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>200</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
@@ -6633,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>9</v>
@@ -6650,10 +6650,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>176</v>
@@ -6662,22 +6662,22 @@
         <v>13</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>309</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -6741,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>9</v>
@@ -7242,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>300</v>
@@ -7309,13 +7309,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>330</v>
@@ -7347,13 +7347,13 @@
         <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>330</v>
@@ -7499,7 +7499,7 @@
         <v>144</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>12</v>
@@ -7540,7 +7540,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>261</v>
@@ -7596,7 +7596,7 @@
         <v>4</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>9</v>
@@ -7654,7 +7654,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>9</v>
@@ -7680,7 +7680,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>351</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
@@ -7715,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -7738,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>5</v>
@@ -8388,10 +8388,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="MessageConfig" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="424">
   <si>
     <t>Type</t>
   </si>
@@ -1152,9 +1152,6 @@
     <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
@@ -1200,9 +1197,6 @@
     <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
   </si>
   <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
     <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)</t>
   </si>
   <si>
@@ -1242,9 +1236,6 @@
     <t>IF((RELATION{SummarizedInformation,type.code}==CWD),N305A,N123A)</t>
   </si>
   <si>
-    <t>IF((%type.code==CWD),N305A,N123A)</t>
-  </si>
-  <si>
     <t>EU legal reference</t>
   </si>
   <si>
@@ -1297,6 +1288,15 @@
   </si>
   <si>
     <t>%statusHerd.code|RELATION{SummarizedInformation,type.code}</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==BSEOS),BSEOS,RELATION{SummarizedInformation,source.code})</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=BSE),N,)|IF((RELATION{SummarizedInformation,type.code}!=CWD),NULL,)</t>
+  </si>
+  <si>
+    <t>OR((RELATION{SummarizedInformation,type.code}==BSEOS),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
   </si>
 </sst>
 </file>
@@ -2916,8 +2916,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S32" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S31" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S31"/>
   <sortState ref="A2:S32">
     <sortCondition ref="J1:J32"/>
   </sortState>
@@ -2981,7 +2981,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R37" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:R37"/>
   <sortState ref="A2:R37">
-    <sortCondition ref="B1:B37"/>
+    <sortCondition ref="R1:R37"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="id" dataDxfId="37"/>
@@ -4172,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4277,7 +4277,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4512,15 +4512,15 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4560,13 +4560,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
@@ -4669,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4677,19 +4677,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
@@ -4700,8 +4700,8 @@
       <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>405</v>
+      <c r="P3" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
@@ -4709,13 +4709,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>176</v>
@@ -4733,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -4741,19 +4741,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>3</v>
@@ -4764,8 +4764,11 @@
       <c r="J5" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N5" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="P5" s="12" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>9</v>
@@ -4773,13 +4776,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>176</v>
@@ -4808,19 +4811,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>3</v>
@@ -4832,10 +4835,10 @@
         <v>4</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>9</v>
@@ -4843,13 +4846,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>242</v>
@@ -4866,11 +4869,8 @@
       <c r="J8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>300</v>
-      </c>
       <c r="P8" s="12" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>9</v>
@@ -4878,13 +4878,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>242</v>
@@ -4901,8 +4901,11 @@
       <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N9" s="12" t="s">
+        <v>301</v>
+      </c>
       <c r="P9" s="12" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -4910,19 +4913,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>3</v>
@@ -4933,11 +4936,11 @@
       <c r="J10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>304</v>
+      <c r="M10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>9</v>
@@ -4945,19 +4948,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -4968,11 +4971,8 @@
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>57</v>
+      <c r="P11" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>3</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -5012,16 +5012,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>8</v>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -5044,19 +5044,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>3</v>
@@ -5067,8 +5067,11 @@
       <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>317</v>
+      <c r="M14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -5076,19 +5079,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>3</v>
@@ -5100,10 +5103,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -5111,19 +5114,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -5134,11 +5137,8 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="O16" s="12" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
@@ -5146,22 +5146,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>4</v>
@@ -5169,16 +5157,13 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>322</v>
-      </c>
       <c r="Q17" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>175</v>
@@ -5195,7 +5180,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>175</v>
@@ -5212,15 +5197,21 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>180</v>
+        <v>358</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="12" t="s">
@@ -5229,45 +5220,63 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>358</v>
+        <v>98</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>359</v>
+        <v>2</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G21" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="I21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>4</v>
@@ -5275,113 +5284,110 @@
       <c r="J22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>321</v>
+      <c r="O22" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R22" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>412</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>329</v>
+      <c r="K23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R23" s="12">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>321</v>
+      <c r="O24" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="12">
-        <v>5</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>242</v>
@@ -5390,36 +5396,36 @@
         <v>8</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R25" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>242</v>
@@ -5428,36 +5434,36 @@
         <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>242</v>
@@ -5466,36 +5472,36 @@
         <v>8</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="12" t="s">
-        <v>387</v>
+      <c r="P27" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R27" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>242</v>
@@ -5504,80 +5510,89 @@
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>318</v>
+      <c r="O28" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R28" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>387</v>
+      <c r="K29" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="12">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>62</v>
+        <v>378</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>3</v>
@@ -5589,19 +5604,19 @@
         <v>3</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>321</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R30" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>9</v>
@@ -5609,92 +5624,45 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>3</v>
+        <v>387</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>323</v>
-      </c>
       <c r="Q31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R31" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="12">
-        <v>4</v>
-      </c>
-      <c r="S32" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5711,11 +5679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,8 +5695,8 @@
     <col min="5" max="5" width="56.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="72.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="12" customWidth="1"/>
     <col min="10" max="10" width="52.140625" style="12" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46.140625" style="12" customWidth="1"/>
@@ -5818,7 +5786,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>3</v>
@@ -5913,7 +5881,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>37</v>
@@ -5931,13 +5899,16 @@
         <v>335</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>309</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5969,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>3</v>
@@ -6009,7 +5980,7 @@
         <v>288</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -6018,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6045,7 +6016,7 @@
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6071,7 +6042,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>316</v>
@@ -6156,7 +6127,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6248,10 +6219,10 @@
         <v>309</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6318,13 +6289,13 @@
         <v>331</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>216</v>
@@ -6359,13 +6330,13 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -6397,19 +6368,19 @@
         <v>199</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>200</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
@@ -6523,11 +6494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,13 +6580,19 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>7</v>
+        <v>97</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
@@ -6627,138 +6604,162 @@
         <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>406</v>
+        <v>263</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R3" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>385</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>394</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>352</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12" t="s">
         <v>389</v>
       </c>
+      <c r="K5" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>353</v>
+      </c>
       <c r="Q5" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>226</v>
+        <v>79</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>8</v>
@@ -6767,100 +6768,118 @@
         <v>3</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>373</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R6" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>377</v>
+        <v>423</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R7" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>273</v>
+        <v>423</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>3</v>
@@ -6871,8 +6890,8 @@
       <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>223</v>
+      <c r="P9" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -6880,57 +6899,66 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>3</v>
+        <v>407</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>223</v>
+        <v>389</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R10" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
@@ -6941,14 +6969,8 @@
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>279</v>
+      <c r="P11" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -6956,22 +6978,22 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>4</v>
@@ -6979,8 +7001,8 @@
       <c r="J12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>300</v>
+      <c r="P12" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -6988,16 +7010,16 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>8</v>
@@ -7011,8 +7033,8 @@
       <c r="J13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>300</v>
+      <c r="P13" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -7020,19 +7042,16 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>3</v>
@@ -7043,8 +7062,8 @@
       <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>301</v>
+      <c r="P14" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -7052,22 +7071,28 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>277</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -7075,8 +7100,8 @@
       <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>276</v>
+      <c r="P15" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -7084,19 +7109,19 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>3</v>
@@ -7107,31 +7132,28 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>57</v>
+      <c r="N16" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>3</v>
@@ -7142,28 +7164,37 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>374</v>
+      <c r="N17" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>274</v>
+        <v>217</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -7171,25 +7202,31 @@
       <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="12" t="s">
-        <v>308</v>
+      <c r="K18" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>8</v>
@@ -7203,28 +7240,22 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>273</v>
+      <c r="N19" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>242</v>
@@ -7236,156 +7267,132 @@
         <v>3</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>303</v>
-      </c>
       <c r="Q20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>12</v>
+      <c r="G23" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>375</v>
+        <v>4</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>3</v>
@@ -7397,36 +7404,27 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="H25" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>4</v>
@@ -7434,116 +7432,92 @@
       <c r="J25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>320</v>
+      <c r="P25" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>309</v>
+        <v>4</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>376</v>
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>261</v>
+        <v>85</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>176</v>
@@ -7555,37 +7529,40 @@
         <v>3</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>380</v>
+        <v>4</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>334</v>
+        <v>89</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>176</v>
       </c>
+      <c r="G29" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="H29" s="12" t="s">
         <v>3</v>
       </c>
@@ -7595,22 +7572,25 @@
       <c r="J29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>418</v>
+      <c r="N29" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>176</v>
@@ -7625,21 +7605,21 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>176</v>
@@ -7653,51 +7633,45 @@
       <c r="J31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>393</v>
+      <c r="M31" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>258</v>
+        <v>229</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H32" s="12" t="s">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>353</v>
+        <v>4</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
@@ -7715,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -7738,7 +7712,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>5</v>
@@ -8388,10 +8362,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -1266,9 +1266,6 @@
     <t>progIdSuffix</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),%progIdSuffix,)</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(%progLegalRef.code,.|%progLegalRef.code,)|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
   </si>
   <si>
@@ -1290,13 +1287,16 @@
     <t>%statusHerd.code|RELATION{SummarizedInformation,type.code}</t>
   </si>
   <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==BSEOS),BSEOS,RELATION{SummarizedInformation,source.code})</t>
-  </si>
-  <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=BSE),N,)|IF((RELATION{SummarizedInformation,type.code}!=CWD),NULL,)</t>
   </si>
   <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}==BSEOS),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
   </si>
 </sst>
 </file>
@@ -5786,7 +5786,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>3</v>
@@ -5908,7 +5908,7 @@
         <v>309</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5940,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>3</v>
@@ -5980,7 +5980,7 @@
         <v>288</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6127,7 +6127,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
@@ -6368,7 +6368,7 @@
         <v>199</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>3</v>
@@ -6380,7 +6380,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
@@ -6495,10 +6495,10 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,19 +6806,19 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>330</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6844,19 +6844,19 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>330</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -6891,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -7605,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>9</v>
@@ -7689,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -8365,7 +8365,7 @@
         <v>381</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -4562,11 +4562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,7 +6494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -963,9 +963,6 @@
     <t>RELATION{Settings,orgCode.code}</t>
   </si>
   <si>
-    <t>RELATION{Report,reportDatasetId.label}</t>
-  </si>
-  <si>
     <t>dcTable</t>
   </si>
   <si>
@@ -1297,6 +1294,9 @@
   </si>
   <si>
     <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
   </si>
 </sst>
 </file>
@@ -3698,7 +3698,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -3719,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3737,7 +3737,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -3758,7 +3758,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3776,7 +3776,7 @@
         <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -3797,7 +3797,7 @@
         <v>114</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3836,7 +3836,7 @@
         <v>114</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3875,7 +3875,7 @@
         <v>114</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3914,7 +3914,7 @@
         <v>114</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3922,17 +3922,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>12</v>
@@ -3953,7 +3953,7 @@
         <v>114</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -3961,17 +3961,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
@@ -3992,7 +3992,7 @@
         <v>114</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -4000,17 +4000,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>12</v>
@@ -4031,7 +4031,7 @@
         <v>114</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4059,7 +4059,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4277,7 +4277,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4365,13 +4365,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>243</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>176</v>
@@ -4512,15 +4512,15 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>399</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4562,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
@@ -4669,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>9</v>
@@ -4733,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -4870,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>9</v>
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -5138,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>176</v>
@@ -5247,7 +5247,7 @@
         <v>146</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>5</v>
@@ -5267,7 +5267,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>176</v>
@@ -5285,7 +5285,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>9</v>
@@ -5314,10 +5314,10 @@
         <v>19</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>3</v>
@@ -5326,7 +5326,7 @@
         <v>108</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>5</v>
@@ -5358,16 +5358,16 @@
         <v>8</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>5</v>
@@ -5387,7 +5387,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>242</v>
@@ -5396,16 +5396,16 @@
         <v>8</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>5</v>
@@ -5434,16 +5434,16 @@
         <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>5</v>
@@ -5463,7 +5463,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>242</v>
@@ -5472,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>4</v>
@@ -5481,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>5</v>
@@ -5510,16 +5510,16 @@
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>5</v>
@@ -5560,10 +5560,10 @@
         <v>110</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>5</v>
@@ -5583,7 +5583,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>70</v>
@@ -5607,10 +5607,10 @@
         <v>112</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>5</v>
@@ -5642,10 +5642,10 @@
         <v>75</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>3</v>
@@ -5654,7 +5654,7 @@
         <v>113</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>5</v>
@@ -5786,7 +5786,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>3</v>
@@ -5881,7 +5881,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>37</v>
@@ -5893,13 +5893,13 @@
         <v>38</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>109</v>
@@ -5908,7 +5908,7 @@
         <v>309</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -5940,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>3</v>
@@ -5980,7 +5980,7 @@
         <v>288</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>3</v>
@@ -5989,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>3</v>
@@ -6042,10 +6042,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>12</v>
@@ -6127,7 +6127,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6219,10 +6219,10 @@
         <v>309</v>
       </c>
       <c r="M13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>5</v>
@@ -6286,16 +6286,16 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>216</v>
@@ -6330,13 +6330,13 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
@@ -6368,19 +6368,19 @@
         <v>199</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>200</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
@@ -6460,10 +6460,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>176</v>
@@ -6589,7 +6589,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>261</v>
@@ -6610,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>9</v>
@@ -6651,7 +6651,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>309</v>
@@ -6677,7 +6677,7 @@
         <v>144</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>12</v>
@@ -6698,7 +6698,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>258</v>
@@ -6721,19 +6721,19 @@
         <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -6774,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>300</v>
@@ -6806,19 +6806,19 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6844,19 +6844,19 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>422</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -6891,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -6908,10 +6908,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>176</v>
@@ -6920,22 +6920,22 @@
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>309</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>9</v>
@@ -6970,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -7002,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -7063,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -7404,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>9</v>
@@ -7517,7 +7517,7 @@
         <v>85</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>176</v>
@@ -7535,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>9</v>
@@ -7573,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>9</v>
@@ -7590,7 +7590,7 @@
         <v>259</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>176</v>
@@ -7605,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>9</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
@@ -7689,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>3</v>
@@ -7712,7 +7712,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>5</v>
@@ -7958,7 +7958,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7990,7 +7990,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7998,7 +7998,7 @@
         <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8013,11 +8013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,7 +8036,7 @@
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
     <col min="16" max="16" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
@@ -8197,7 +8197,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
       <c r="P4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>176</v>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>176</v>
@@ -8362,10 +8362,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8421,18 +8421,18 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>176</v>
@@ -8450,13 +8450,13 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>324</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>325</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>176</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -6494,11 +6494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,7 +8013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="436">
   <si>
     <t>Type</t>
   </si>
@@ -1143,12 +1143,6 @@
     <t>CWD$AT12A</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{SummarizedInformation,animage.code}</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
@@ -1230,9 +1224,6 @@
     <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
   </si>
   <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),N305A,N123A)</t>
-  </si>
-  <si>
     <t>EU legal reference</t>
   </si>
   <si>
@@ -1242,68 +1233,113 @@
     <t>EU legislation related to the reason for sampling</t>
   </si>
   <si>
-    <t>progLegalRefLists</t>
+    <t>contextId</t>
+  </si>
+  <si>
+    <t>Prog ID</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
+  </si>
+  <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}!=F21.A07RY),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>%statusHerd.code|RELATION{SummarizedInformation,type.code}</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=BSE),N,)|IF((RELATION{SummarizedInformation,type.code}!=CWD),NULL,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=CWD),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},)</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}$RELATION{CasesInformation,animage.code}$RELATION{CasesInformation,sex.code}</t>
+  </si>
+  <si>
+    <t>HASH(MD5,%tseTargetGroup.code|%sampCountry.code%sampY.code|%sampM.code|%source.code|%prod.code|%animage.code|%sex.code)</t>
+  </si>
+  <si>
+    <t>psuId</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,psuId.label},$PSUId=RELATION{SummarizedInformation,psuId.label},)</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
   </si>
   <si>
     <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
   </si>
   <si>
-    <t>contextId</t>
-  </si>
-  <si>
-    <t>Prog ID</t>
-  </si>
-  <si>
-    <t>HASH(MD5,%tseTargetGroup.code|%sampCountry.code%sampY.code|%sampM.code|%source.code|%prod.code|%animage.code)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%progLegalRef.code,.|%progLegalRef.code,)|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}!=F21.A07RY),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>%statusHerd.code|RELATION{SummarizedInformation,type.code}</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=BSE),N,)|IF((RELATION{SummarizedInformation,type.code}!=CWD),NULL,)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+    <t>(RELATION{SummarizedInformation,type.code}!=CWD)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=CWD),F32.A0C9B,Mixed females and males)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,6 +1353,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1431,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1470,6 +1512,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,10 +2959,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S31" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S33" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S33"/>
   <sortState ref="A2:S32">
-    <sortCondition ref="J1:J32"/>
+    <sortCondition ref="R1:R32"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -2947,10 +2990,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S21"/>
-  <sortState ref="A2:S21">
-    <sortCondition ref="B1:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S23"/>
+  <sortState ref="A2:S22">
+    <sortCondition ref="R1:R22"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="58"/>
@@ -4172,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4277,7 +4320,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4512,15 +4555,15 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4560,13 +4603,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,208 +4694,287 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>407</v>
+        <v>98</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>409</v>
+      <c r="K2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>392</v>
+        <v>3</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="Q3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="12">
+        <v>2</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>318</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="Q4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>302</v>
+      <c r="K5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="Q5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>302</v>
+      <c r="K6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="Q6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="12">
+        <v>5</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>4</v>
+      <c r="K7" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>303</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="P7"/>
       <c r="Q7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="12">
+        <v>6</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>242</v>
@@ -4861,30 +4983,39 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>316</v>
+      <c r="O8" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="Q8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>7</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>242</v>
@@ -4893,135 +5024,153 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>304</v>
+      <c r="O9" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R9" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="O10" s="12" t="s">
-        <v>57</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="P11" s="12" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>318</v>
+      <c r="O12" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R12" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>79</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>8</v>
@@ -5033,33 +5182,30 @@
         <v>4</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="R13" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>4</v>
@@ -5067,34 +5213,31 @@
       <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>83</v>
+      <c r="P14" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -5102,11 +5245,8 @@
       <c r="J15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>87</v>
+      <c r="P15" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -5114,13 +5254,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>176</v>
@@ -5129,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>
@@ -5137,19 +5277,31 @@
       <c r="J16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>321</v>
+      <c r="P16" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>174</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>4</v>
@@ -5157,16 +5309,34 @@
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N17" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="Q17" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>179</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
@@ -5174,16 +5344,34 @@
       <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="Q18" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>180</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>175</v>
+        <v>242</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -5191,19 +5379,34 @@
       <c r="J19" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="N19" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>303</v>
+      </c>
       <c r="Q19" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>358</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -5211,183 +5414,156 @@
       <c r="J20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>4</v>
+      <c r="P20" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>320</v>
+        <v>4</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>320</v>
+        <v>4</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="12">
-        <v>5</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>385</v>
+        <v>4</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>382</v>
+        <v>78</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>242</v>
@@ -5396,274 +5572,224 @@
         <v>8</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>385</v>
+        <v>4</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>383</v>
+        <v>84</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>317</v>
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="12">
+      <c r="Q33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="12">
         <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="12">
-        <v>2</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="12">
-        <v>3</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="12">
-        <v>4</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5677,13 +5803,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5768,96 +5894,101 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>204</v>
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>3</v>
+        <v>386</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>3</v>
@@ -5865,56 +5996,61 @@
       <c r="J4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>392</v>
+      </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="12">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>9</v>
@@ -5922,136 +6058,140 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>43</v>
+        <v>206</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="I6" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6"/>
       <c r="Q6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>288</v>
+        <v>209</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>396</v>
-      </c>
+      <c r="K7" s="23"/>
       <c r="Q7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>3</v>
+        <v>334</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>161</v>
+        <v>109</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="12">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>12</v>
+        <v>282</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>4</v>
@@ -6062,37 +6202,33 @@
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>284</v>
-      </c>
+      <c r="K9" s="23"/>
       <c r="Q9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>3</v>
@@ -6100,11 +6236,14 @@
       <c r="J10" s="27" t="s">
         <v>3</v>
       </c>
+      <c r="K10" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6127,7 +6266,7 @@
         <v>221</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>3</v>
@@ -6150,243 +6289,230 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>278</v>
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>199</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>3</v>
+      <c r="J12" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>310</v>
+        <v>200</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>68</v>
+      <c r="G13" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>394</v>
-      </c>
+      <c r="K13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="12">
-        <v>3</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>8</v>
+        <v>287</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="K14" s="11" t="s">
+        <v>394</v>
+      </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="12">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
+        <v>289</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>330</v>
-      </c>
+      <c r="G15" s="26"/>
       <c r="H15" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>309</v>
+        <v>408</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>193</v>
+        <v>283</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>176</v>
+        <v>315</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>414</v>
+        <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>388</v>
+        <v>3</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>284</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="12">
-        <v>4</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
+        <v>294</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>199</v>
+        <v>296</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="I17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -6426,24 +6552,51 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>224</v>
+        <v>416</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>4</v>
+        <v>431</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>5</v>
+      </c>
+      <c r="R19" s="12">
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>175</v>
@@ -6460,25 +6613,86 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>4</v>
+      <c r="I22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6494,11 +6708,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,7 +6803,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>261</v>
@@ -6610,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>9</v>
@@ -6677,7 +6891,7 @@
         <v>144</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>12</v>
@@ -6698,7 +6912,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>9</v>
@@ -6727,7 +6941,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>350</v>
@@ -6774,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>300</v>
@@ -6806,19 +7020,19 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>329</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>5</v>
@@ -6844,19 +7058,19 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>329</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -6882,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>4</v>
@@ -6891,7 +7105,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>9</v>
@@ -6908,10 +7122,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>176</v>
@@ -6920,28 +7134,19 @@
         <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="R10" s="12">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,7 +7166,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>4</v>
@@ -6970,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>9</v>
@@ -7002,7 +7207,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>9</v>
@@ -7025,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>4</v>
@@ -7034,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -7054,7 +7259,7 @@
         <v>176</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>4</v>
@@ -7063,7 +7268,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>9</v>
@@ -7092,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>4</v>
@@ -7124,7 +7329,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>4</v>
@@ -7156,7 +7361,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>4</v>
@@ -7181,32 +7386,20 @@
       <c r="C18" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>221</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>279</v>
@@ -7232,7 +7425,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
@@ -7264,7 +7457,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>4</v>
@@ -7296,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>4</v>
@@ -7360,7 +7553,7 @@
         <v>56</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>4</v>
@@ -7395,7 +7588,7 @@
         <v>60</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>4</v>
@@ -7404,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>9</v>
@@ -7456,7 +7649,7 @@
         <v>8</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>4</v>
@@ -7488,7 +7681,7 @@
         <v>82</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>4</v>
@@ -7526,7 +7719,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>4</v>
@@ -7564,7 +7757,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>4</v>
@@ -7596,7 +7789,7 @@
         <v>176</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>4</v>
@@ -7605,7 +7798,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>9</v>
@@ -7625,7 +7818,7 @@
         <v>176</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>4</v>
@@ -7654,7 +7847,7 @@
         <v>176</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>4</v>
@@ -7663,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>9</v>
@@ -7671,7 +7864,7 @@
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
@@ -7689,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>5</v>
@@ -7703,7 +7896,7 @@
         <v>333</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>4</v>
@@ -7712,7 +7905,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>5</v>
@@ -8362,10 +8555,10 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -8421,7 +8614,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>355</v>

--- a/config/tablesSchema.xlsx
+++ b/config/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="660" windowWidth="13530" windowHeight="5475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="438">
   <si>
     <t>Type</t>
   </si>
@@ -759,9 +759,6 @@
     <t>repVersion</t>
   </si>
   <si>
-    <t>DO NOT TOUCH, used with GetAck</t>
-  </si>
-  <si>
     <t>reportMessageId</t>
   </si>
   <si>
@@ -1330,6 +1327,18 @@
   </si>
   <si>
     <t>AND((%sampAnAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>reportValidationMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
   </si>
 </sst>
 </file>
@@ -2928,8 +2937,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S11" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
-  <autoFilter ref="A1:S11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S14" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+  <autoFilter ref="A1:S14"/>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="98"/>
     <tableColumn id="2" name="code" dataDxfId="97"/>
@@ -3738,7 +3747,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -3759,7 +3768,7 @@
         <v>114</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -3777,7 +3786,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -3798,7 +3807,7 @@
         <v>114</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3816,7 +3825,7 @@
         <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -3837,7 +3846,7 @@
         <v>114</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3876,7 +3885,7 @@
         <v>114</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -3915,7 +3924,7 @@
         <v>114</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -3954,7 +3963,7 @@
         <v>114</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -3962,17 +3971,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>12</v>
@@ -3993,7 +4002,7 @@
         <v>114</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -4001,17 +4010,17 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
@@ -4032,7 +4041,7 @@
         <v>114</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R10">
         <v>9</v>
@@ -4040,17 +4049,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>12</v>
@@ -4071,7 +4080,7 @@
         <v>114</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
@@ -4093,13 +4102,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>9</v>
@@ -4212,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
@@ -4314,10 +4323,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4363,11 +4372,11 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16" t="s">
@@ -4405,13 +4414,13 @@
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>243</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>176</v>
@@ -4435,15 +4444,15 @@
     </row>
     <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="23" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>176</v>
@@ -4474,15 +4483,13 @@
     </row>
     <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>252</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="23" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>176</v>
@@ -4513,15 +4520,13 @@
     </row>
     <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>247</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="23" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>176</v>
@@ -4552,15 +4557,13 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>396</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="23" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>176</v>
@@ -4586,6 +4589,123 @@
       </c>
       <c r="R11" s="23"/>
       <c r="S11" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4721,7 +4841,7 @@
         <v>146</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -4762,10 +4882,10 @@
         <v>110</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>5</v>
@@ -4785,7 +4905,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>70</v>
@@ -4809,10 +4929,10 @@
         <v>112</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -4844,10 +4964,10 @@
         <v>75</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>3</v>
@@ -4856,7 +4976,7 @@
         <v>113</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -4888,10 +5008,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -4900,7 +5020,7 @@
         <v>108</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>5</v>
@@ -4914,43 +5034,43 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="I7" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="12" t="s">
@@ -4974,7 +5094,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>242</v>
@@ -4983,16 +5103,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -5024,16 +5144,16 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>5</v>
@@ -5062,16 +5182,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>5</v>
@@ -5091,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>242</v>
@@ -5100,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>4</v>
@@ -5109,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>5</v>
@@ -5138,16 +5258,16 @@
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>5</v>
@@ -5167,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>176</v>
@@ -5185,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>9</v>
@@ -5196,7 +5316,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>176</v>
@@ -5214,7 +5334,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>5</v>
@@ -5246,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>9</v>
@@ -5278,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>9</v>
@@ -5313,7 +5433,7 @@
         <v>223</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>9</v>
@@ -5348,7 +5468,7 @@
         <v>223</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>9</v>
@@ -5380,10 +5500,10 @@
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>9</v>
@@ -5415,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>9</v>
@@ -5447,10 +5567,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>9</v>
@@ -5517,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>9</v>
@@ -5549,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>9</v>
@@ -5581,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q25" s="12" t="s">
         <v>9</v>
@@ -5683,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>9</v>
@@ -5751,10 +5871,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>356</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>176</v>
@@ -5777,22 +5897,22 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>3</v>
@@ -5817,7 +5937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5921,22 +6041,22 @@
         <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>216</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -6012,13 +6132,13 @@
         <v>111</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>5</v>
@@ -6050,13 +6170,13 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>5</v>
@@ -6088,7 +6208,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>3</v>
@@ -6147,7 +6267,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>37</v>
@@ -6162,19 +6282,19 @@
         <v>4</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>109</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>5</v>
@@ -6188,16 +6308,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>176</v>
@@ -6224,16 +6344,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>278</v>
-      </c